--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2140 +418,2356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2.33519013136674</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>39.93798626779337</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.009028256297039638</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.009648100945617355</v>
+      </c>
+      <c r="E2">
         <v>3.489730948314236</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>3.436041000590865</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>16.5066956859138</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.1218276948359748</v>
+      </c>
+      <c r="I2">
+        <v>3.433579889640703</v>
+      </c>
+      <c r="J2">
         <v>2.98862358903459</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>15.05180871048573</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>6.737651650768461</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>41.03770328797555</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.1021974695404845</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>1.615139733691643</v>
       </c>
-      <c r="N2" t="n">
-        <v>133.2477967317725</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>136.8038241608978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2.398081668862566</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>41.01359948109457</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01070015561130624</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.01143478630591686</v>
+      </c>
+      <c r="E3">
         <v>4.13597742022428</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2.643108461992974</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>12.69745821993369</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1675130803994654</v>
+      </c>
+      <c r="I3">
+        <v>4.721172348255968</v>
+      </c>
+      <c r="J3">
         <v>2.591697018615934</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>13.05274036612434</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>5.730876116745587</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>34.90563268172632</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.04379891551735053</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.6922027430107043</v>
       </c>
-      <c r="N3" t="n">
-        <v>119.9158732494596</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>124.8052933088097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2.422691400926148</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>41.43449160803856</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.01270643478842616</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.01357880873827627</v>
+      </c>
+      <c r="E4">
         <v>4.911473186516331</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2.819315692792504</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>13.54395543459593</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1675130803994654</v>
+      </c>
+      <c r="I4">
+        <v>4.721172348255968</v>
+      </c>
+      <c r="J4">
         <v>2.474953909669269</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>12.46477908837099</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>6.350430291528895</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>38.67921459326431</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N4" t="n">
-        <v>125.6046794128434</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>130.4942372154487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.838322431333345</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>48.54289197420317</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.01136891533701288</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.01214946045003667</v>
+      </c>
+      <c r="E5">
         <v>4.394476008988298</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3.964662692989459</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>19.04618732990053</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.2284269278174527</v>
+      </c>
+      <c r="I5">
+        <v>6.437962293076318</v>
+      </c>
+      <c r="J5">
         <v>3.222109806927918</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>16.22773126599242</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>6.660207378920551</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>40.5660055490333</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.116797108046268</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>1.845873981361877</v>
       </c>
-      <c r="N5" t="n">
-        <v>147.4366344430341</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>154.1038042090409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.780899723184982</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>47.56081034466724</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.00969701602274628</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.01036277508973716</v>
+      </c>
+      <c r="E6">
         <v>3.748229537078254</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>3.524144615990632</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>16.92994429324492</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.197970004108459</v>
+      </c>
+      <c r="I6">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="J6">
         <v>3.128715319770587</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>15.75736224378974</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>6.737651650768461</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>41.03770328797555</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.08759783103470106</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>1.384405486021409</v>
       </c>
-      <c r="N6" t="n">
-        <v>142.6871613495492</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>148.4653644333908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3.16645219218113</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>54.1547870001226</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.009362636159892959</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.01000543801767726</v>
+      </c>
+      <c r="E7">
         <v>3.618980242696244</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3.788455462189929</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>18.19969011523829</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.2131984659629559</v>
+      </c>
+      <c r="I7">
+        <v>6.008764806871233</v>
+      </c>
+      <c r="J7">
         <v>2.568348396826601</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>12.93514811057367</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>5.963208932289327</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>36.32072589855308</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.145996385057835</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>2.307342476702347</v>
       </c>
-      <c r="N7" t="n">
-        <v>143.178497848591</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>149.4011039232829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.516457270418767</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>60.14080836110335</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.007356356982773037</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.007861415585317843</v>
+      </c>
+      <c r="E8">
         <v>2.843484476404192</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>5.198113308586181</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>24.97166783253626</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.3502546226534275</v>
+      </c>
+      <c r="I8">
+        <v>9.871542182717025</v>
+      </c>
+      <c r="J8">
         <v>2.755137371141263</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>13.87588615497903</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>4.181990679787321</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>25.47167790288137</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.1605960235636185</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>2.538076724372582</v>
       </c>
-      <c r="N8" t="n">
-        <v>145.6612524627567</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>155.8835543267297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>4.077012278533735</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>69.72779569704909</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.004681318079946479</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.005002719008838628</v>
+      </c>
+      <c r="E9">
         <v>1.809490121348122</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>4.317077154588523</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>20.73918175922503</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.4263969319259118</v>
+      </c>
+      <c r="I9">
+        <v>12.01752961374247</v>
+      </c>
+      <c r="J9">
         <v>1.354220063781299</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>6.820350821938844</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>3.63988077685193</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>22.16979373028564</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N9" t="n">
-        <v>135.6408192663862</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>148.0850672129835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>4.566472505131681</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>78.09887244404563</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.004346938217093159</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.004645381936778725</v>
+      </c>
+      <c r="E10">
         <v>1.680240826966114</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2.731212077392738</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>13.12070682726482</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.6243669360343707</v>
+      </c>
+      <c r="I10">
+        <v>17.59709693440861</v>
+      </c>
+      <c r="J10">
         <v>0.9105962497839768</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>4.586097966476119</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>4.104546407939407</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>24.99998016393912</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N10" t="n">
-        <v>135.2937401795087</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>153.5155024936714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3.174655436202325</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>54.29508437577062</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.005684457668506439</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.006074730225018334</v>
+      </c>
+      <c r="E11">
         <v>2.197238004494149</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1.409657846396252</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>6.771977717297967</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.6091384741798738</v>
+      </c>
+      <c r="I11">
+        <v>17.16789944820352</v>
+      </c>
+      <c r="J11">
         <v>0.9339448715733097</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>4.703690222026789</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>4.181990679787321</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>25.47167790288137</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N11" t="n">
-        <v>103.6362692864507</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>121.4136974813906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2.518395914506755</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>43.07129432393172</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.007021977119919719</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.00750407851325794</v>
+      </c>
+      <c r="E12">
         <v>2.714235182022184</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>2.11448676959438</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>10.15796657594695</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.4568538556349054</v>
+      </c>
+      <c r="I12">
+        <v>12.87592458615264</v>
+      </c>
+      <c r="J12">
         <v>0.6304127883119839</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>3.174990899868082</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>5.808320388593501</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>35.37733042066859</v>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>105.5744552405641</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>118.9077157837449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2.228547959091209</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>38.11412038436954</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.007356356982773037</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.007861415585317843</v>
+      </c>
+      <c r="E13">
         <v>2.843484476404192</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1.585865077195784</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>7.618474931960215</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.1522846185449684</v>
+      </c>
+      <c r="I13">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="J13">
         <v>0.6537614101013167</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>3.292583155418753</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>3.407547961308187</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>20.75470051345889</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>80.50644222629086</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>84.95120676548923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.413692386319208</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>24.17791440333627</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.006018837531359759</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.006432067297078234</v>
+      </c>
+      <c r="E14">
         <v>2.326487298876157</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1.145347000196955</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>5.502231895304599</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.2284269278174527</v>
+      </c>
+      <c r="I14">
+        <v>6.437962293076318</v>
+      </c>
+      <c r="J14">
         <v>0.537018301154653</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>2.704621877665404</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>3.94965786424358</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>24.05658468605463</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>65.81957455068282</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>72.4863770013423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.8968880129839468</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>15.33917973751315</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.006018837531359759</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.006432067297078234</v>
+      </c>
+      <c r="E15">
         <v>2.326487298876157</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.2643108461992975</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.269745821993369</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.1370561566904716</v>
+      </c>
+      <c r="I15">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="J15">
         <v>0.2568348396826601</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>1.293514811057367</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>2.865438058372793</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>17.45281634086316</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>41.97123460507326</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>45.97148136737524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.4402407624707788</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>7.529292493108589</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.005684457668506439</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.006074730225018334</v>
+      </c>
+      <c r="E16">
         <v>2.197238004494149</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.08810361539976574</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.423248607331123</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.1065992329814779</v>
+      </c>
+      <c r="I16">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="J16">
         <v>0.4669724357866549</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>2.351845111013394</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>2.710549514676967</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>16.50942086297867</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N16" t="n">
-        <v>32.96792975110461</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>36.07930166007822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.3117232728053961</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5.331300274623471</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E17">
         <v>1.163243649438078</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.1762072307995315</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.8464972146622459</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.06091384741798739</v>
+      </c>
+      <c r="I17">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="J17">
         <v>0.4903210575759877</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>2.469437366564065</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>2.633105242829054</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>16.03772312403642</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>29.46256785209993</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>31.24047825922113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.2160187592247922</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.694497558730301</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E18">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.2643108461992975</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1.269745821993369</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18">
         <v>0.4202751922079893</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>2.116660599912056</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>2.323328155437401</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>14.15093216826743</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>25.23327114744181</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>25.23340889069705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1968778565086713</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3.367137015551665</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.0033437986285332</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.00357337072059902</v>
+      </c>
+      <c r="E19">
         <v>1.292492943820088</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.2643108461992975</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>1.269745821993369</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.03045692370899369</v>
+      </c>
+      <c r="I19">
+        <v>0.8583949724101758</v>
+      </c>
+      <c r="J19">
         <v>0.3969265704186565</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>1.999068344361385</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>3.562436505004014</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>21.69809599134339</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>34.05043569382907</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>34.9395171620403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.3390674195427116</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>5.79895819345009</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.0033437986285332</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.00357337072059902</v>
+      </c>
+      <c r="E20">
         <v>1.292492943820088</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.2643108461992975</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1.269745821993369</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.06091384741798739</v>
+      </c>
+      <c r="I20">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="J20">
         <v>0.6070641665226512</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>3.057398644317413</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>6.505318835224722</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>39.62261007114881</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N20" t="n">
-        <v>59.0056446270237</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>60.7835779913541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.112906772208739</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>19.03367729624344</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.0033437986285332</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.00357337072059902</v>
+      </c>
+      <c r="E21">
         <v>1.292492943820088</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.881036153997658</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>4.23248607331123</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.3045692370899369</v>
+      </c>
+      <c r="I21">
+        <v>8.58394972410176</v>
+      </c>
+      <c r="J21">
         <v>0.7238072754693148</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>3.645359922070762</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>9.448201165445431</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>57.54712415095421</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N21" t="n">
-        <v>98.16576943832543</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>107.0545179716092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2.485582938421973</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>42.51010482133979</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E22">
         <v>1.03399435505607</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>2.378797615793677</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>11.42771239794032</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.6548238597433644</v>
+      </c>
+      <c r="I22">
+        <v>18.45549190681879</v>
+      </c>
+      <c r="J22">
         <v>2.007981473882615</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>10.1129339773576</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>10.22264388392457</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>62.2641015403767</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N22" t="n">
-        <v>145.4278635877002</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>164.538363011936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>3.880134422025064</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>66.3606586814974</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.004681318079946479</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.005002719008838628</v>
+      </c>
+      <c r="E23">
         <v>1.809490121348122</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>3.436041000590865</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>16.5066956859138</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.5939100123253769</v>
+      </c>
+      <c r="I23">
+        <v>16.73870196199843</v>
+      </c>
+      <c r="J23">
         <v>2.218119069986611</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>11.17126427731363</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>8.673758446966293</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>52.83014676153175</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.08759783103470106</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>1.384405486021409</v>
       </c>
-      <c r="N23" t="n">
-        <v>168.3629931023096</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>185.6959264775623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>4.593816651868996</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>78.56653036287221</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.0100313958855996</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.01072011216179706</v>
+      </c>
+      <c r="E24">
         <v>3.877478831460262</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>3.876559077589695</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>18.62293872256942</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.6395953978888675</v>
+      </c>
+      <c r="I24">
+        <v>18.0262944206137</v>
+      </c>
+      <c r="J24">
         <v>2.941926345455926</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>14.81662419938439</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>8.441425631422554</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>51.415053544705</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.1021974695404845</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>1.615139733691643</v>
       </c>
-      <c r="N24" t="n">
-        <v>188.8797219664462</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>207.5463005012249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2.975043165019921</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>50.8811815683363</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.006687597257066399</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.00714674144119804</v>
+      </c>
+      <c r="E25">
         <v>2.584985887640175</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>4.052766308389227</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>19.46943593723165</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.3350261607989307</v>
+      </c>
+      <c r="I25">
+        <v>9.442344696511936</v>
+      </c>
+      <c r="J25">
         <v>2.731788749351931</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>13.75829389942836</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>8.983535534357948</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>54.71693771730072</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.116797108046268</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>1.845873981361877</v>
       </c>
-      <c r="N25" t="n">
-        <v>162.1233274537214</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>171.9011574552164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2.447301132989733</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>41.85538373498252</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.009028256297039638</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.009648100945617355</v>
+      </c>
+      <c r="E26">
         <v>3.489730948314236</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>3.436041000590865</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>16.5066956859138</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.1370561566904716</v>
+      </c>
+      <c r="I26">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="J26">
         <v>3.362201537663914</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>16.93328479929644</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>7.357205825551768</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>44.81128519951352</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.1021974695404845</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>1.615139733691643</v>
       </c>
-      <c r="N26" t="n">
-        <v>141.925495324346</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>145.9259487015308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2.439097888968539</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>41.71508635933451</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.01036577574845292</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.01107744923385696</v>
+      </c>
+      <c r="E27">
         <v>4.006728125842271</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>2.555004846593208</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>12.27420961260257</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1675130803994654</v>
+      </c>
+      <c r="I27">
+        <v>4.721172348255968</v>
+      </c>
+      <c r="J27">
         <v>3.665733620925239</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>18.46198412145515</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>7.434650097399681</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>45.28298293845577</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N27" t="n">
-        <v>138.8271789320295</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>143.7165760341703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2.294173911260766</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>39.23649938955343</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.009028256297039638</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.009648100945617355</v>
+      </c>
+      <c r="E28">
         <v>3.489730948314236</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2.731212077392738</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>13.12070682726482</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.2588838515264464</v>
+      </c>
+      <c r="I28">
+        <v>7.296357265486498</v>
+      </c>
+      <c r="J28">
         <v>2.731788749351931</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>13.75829389942836</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>5.808320388593501</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>35.37733042066859</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.116797108046268</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>1.845873981361877</v>
       </c>
-      <c r="N28" t="n">
-        <v>120.5197559575335</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>128.0756169191951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2.835588016659613</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>48.49612618232053</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.008693876434186319</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.009290763873557451</v>
+      </c>
+      <c r="E29">
         <v>3.360481653932228</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>3.259833769791333</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>15.66019847125155</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.197970004108459</v>
+      </c>
+      <c r="I29">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="J29">
         <v>3.058669454402589</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>15.40458547713773</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>7.357205825551768</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>44.81128519951352</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.08759783103470106</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>1.384405486021409</v>
       </c>
-      <c r="N29" t="n">
-        <v>145.7246712440512</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>151.5028054562652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2.471910865053316</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>42.27627586192649</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.0117032951998662</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.01250679752209657</v>
+      </c>
+      <c r="E30">
         <v>4.523725303370305</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>3.083626538991803</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>14.8137012565893</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.1827415422539622</v>
+      </c>
+      <c r="I30">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="J30">
         <v>2.661742883983932</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>13.40551713277635</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>6.505318835224722</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>39.62261007114881</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.116797108046268</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>1.845873981361877</v>
       </c>
-      <c r="N30" t="n">
-        <v>131.338803133673</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>136.6727180127103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>3.092622995990378</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>52.89211061929074</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.01136891533701288</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.01214946045003667</v>
+      </c>
+      <c r="E31">
         <v>4.394476008988298</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>4.405180769988288</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>21.16243036655615</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.2588838515264464</v>
+      </c>
+      <c r="I31">
+        <v>7.296357265486498</v>
+      </c>
+      <c r="J31">
         <v>2.474953909669269</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>12.46477908837099</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>5.808320388593501</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>35.37733042066859</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N31" t="n">
-        <v>142.5742412558053</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>150.1302629179312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>3.847321445940282</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>65.79946917890545</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.008693876434186319</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.009290763873557451</v>
+      </c>
+      <c r="E32">
         <v>3.360481653932228</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>5.902942231784309</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>28.35765669118524</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.3654830845079244</v>
+      </c>
+      <c r="I32">
+        <v>10.30073966892211</v>
+      </c>
+      <c r="J32">
         <v>2.615045640405267</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>13.17033262167501</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>4.646656310874802</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>28.30186433653486</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.204394939080969</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>3.230279467383286</v>
       </c>
-      <c r="N32" t="n">
-        <v>159.4451383941359</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>170.1119580350053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>4.593816651868996</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>78.56653036287221</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.008693876434186319</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.009290763873557451</v>
+      </c>
+      <c r="E33">
         <v>3.360481653932228</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>3.876559077589695</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>18.62293872256942</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.5482246267618865</v>
+      </c>
+      <c r="I33">
+        <v>15.45110950338317</v>
+      </c>
+      <c r="J33">
         <v>1.727798012410622</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>8.70182691074956</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>3.562436505004014</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>21.69809599134339</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N33" t="n">
-        <v>145.7005133094784</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>161.7004443270628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>4.763350361640351</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>81.46600945959725</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.004681318079946479</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.005002719008838628</v>
+      </c>
+      <c r="E34">
         <v>1.809490121348122</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>2.643108461992974</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>12.69745821993369</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.6852807834523582</v>
+      </c>
+      <c r="I34">
+        <v>19.31388687922896</v>
+      </c>
+      <c r="J34">
         <v>1.050687980519973</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>5.291651499780137</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>4.104546407939407</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>24.99998016393912</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N34" t="n">
-        <v>139.076297880947</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>159.0757869445572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>3.196530753592177</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>54.66921071083194</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.005350077805653119</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.005717393152958431</v>
+      </c>
+      <c r="E35">
         <v>2.06798871011214</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.321554230996487</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>6.348729109966844</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.5634530886163833</v>
+      </c>
+      <c r="I35">
+        <v>15.88030698958826</v>
+      </c>
+      <c r="J35">
         <v>1.097385224098639</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>5.526836010881476</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>4.646656310874802</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>28.30186433653486</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N35" t="n">
-        <v>107.4274393618711</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>123.871566755423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2.712539356341693</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>46.39166554760072</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.006018837531359759</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.006432067297078234</v>
+      </c>
+      <c r="E36">
         <v>2.326487298876157</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>2.026383154194614</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>9.734717968615827</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.472082317489402</v>
+      </c>
+      <c r="I36">
+        <v>13.30512207235773</v>
+      </c>
+      <c r="J36">
         <v>0.887247627994644</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>4.46850571092545</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>5.963208932289327</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>36.32072589855308</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.04379891551735053</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.6922027430107043</v>
       </c>
-      <c r="N36" t="n">
-        <v>111.5735019914509</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>125.3511196110638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2.313314813976887</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>39.56385993273207</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.006353217394213078</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.006789404369138136</v>
+      </c>
+      <c r="E37">
         <v>2.455736593258166</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1.850175923395081</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>8.888220753953584</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.2131984659629559</v>
+      </c>
+      <c r="I37">
+        <v>6.008764806871233</v>
+      </c>
+      <c r="J37">
         <v>0.5603669229439858</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>2.822214133216074</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>3.407547961308187</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>20.75470051345889</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>82.62249076563714</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>88.84489022544625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.9625139651535038</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>16.46155874269702</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.005350077805653119</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.005717393152958431</v>
+      </c>
+      <c r="E38">
         <v>2.06798871011214</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.2643108461992975</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>1.269745821993369</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.1827415422539622</v>
+      </c>
+      <c r="I38">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="J38">
         <v>0.4202751922079893</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>2.116660599912056</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>2.245883883589487</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>13.67923442932518</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>39.49352226899569</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>44.82700096105802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.617977716263329</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>10.56906896548162</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E39">
         <v>1.163243649438078</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.2643108461992975</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>1.269745821993369</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.0913707711269811</v>
+      </c>
+      <c r="I39">
+        <v>2.575184917230528</v>
+      </c>
+      <c r="J39">
         <v>0.2101375961039947</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>1.058330299956028</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>2.168439611741573</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>13.20753669038294</v>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>30.53180061632591</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>33.19856291956628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.6234465456107923</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>10.66260054924694</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.006018837531359759</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.006432067297078234</v>
+      </c>
+      <c r="E40">
         <v>2.326487298876157</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.1762072307995315</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.8464972146622459</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.1065992329814779</v>
+      </c>
+      <c r="I40">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="J40">
         <v>0.350229326839991</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>1.763883833260046</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>3.175215145764448</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>19.33960729663216</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>39.27019327922367</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>42.38158814540648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.2953167847630068</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>5.050705523327495</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.005684457668506439</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.006074730225018334</v>
+      </c>
+      <c r="E41">
         <v>2.197238004494149</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.08810361539976574</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.423248607331123</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.07614230927248422</v>
+      </c>
+      <c r="I41">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="J41">
         <v>0.3735779486293237</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>1.881476088810716</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>3.252659417612361</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>19.8113050355744</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>33.37931548361085</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>35.60183549646528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.289847955415544</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.957173939562177</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.003678178491386519</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.003930707792658921</v>
+      </c>
+      <c r="E42">
         <v>1.421742238202096</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="J42">
         <v>0.3735779486293237</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>1.881476088810716</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>2.865438058372793</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>17.45281634086316</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>29.2457507483472</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>29.24600327764847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.240628491288376</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4.115389685674256</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E43">
         <v>1.163243649438078</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.08810361539976574</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.423248607331123</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.04568538556349055</v>
+      </c>
+      <c r="I43">
+        <v>1.287592458615264</v>
+      </c>
+      <c r="J43">
         <v>0.350229326839991</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>1.763883833260046</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>3.872213592395668</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>23.58488694711238</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>35.60483716750537</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>36.93832162656697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.3910212983436109</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>6.68750823922067</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E44">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.352414461599063</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>1.692994429324492</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.06091384741798739</v>
+      </c>
+      <c r="I44">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="J44">
         <v>0.5837155447333185</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>2.939806388766743</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>5.34365475750602</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>32.54714398701509</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>51.31576115197818</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>53.09360268747176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.129313260251128</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>19.31427204753942</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E45">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1.145347000196955</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>5.502231895304599</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.2741123133809433</v>
+      </c>
+      <c r="I45">
+        <v>7.725554751691584</v>
+      </c>
+      <c r="J45">
         <v>1.050687980519973</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>5.291651499780137</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>11.22941941794743</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>68.3961721466259</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N45" t="n">
-        <v>114.0819311798107</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>122.0817359881385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2.559412134612725</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>43.77278120217164</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.00100313958855996</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.001072011216179706</v>
+      </c>
+      <c r="E46">
         <v>0.3877478831460263</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>2.731212077392738</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>13.12070682726482</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.7309661690158488</v>
+      </c>
+      <c r="I46">
+        <v>20.60147933784422</v>
+      </c>
+      <c r="J46">
         <v>2.218119069986611</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>11.17126427731363</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>12.39108349566614</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>75.47163823075961</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.04379891551735053</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.6922027430107043</v>
       </c>
-      <c r="N46" t="n">
-        <v>164.5609699964305</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>185.8934843749182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>3.710600712253707</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>63.46117958477237</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E47">
         <v>1.03399435505607</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>2.643108461992974</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>12.69745821993369</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.6091384741798738</v>
+      </c>
+      <c r="I47">
+        <v>17.16789944820352</v>
+      </c>
+      <c r="J47">
         <v>2.054678717461281</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>10.34811848845894</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>7.821871456639248</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>47.64147163316701</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>1.153671238351173</v>
       </c>
-      <c r="N47" t="n">
-        <v>152.6418260995182</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>170.4190476795752</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>4.197326524177924</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>71.78549053988623</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.004681318079946479</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.005002719008838628</v>
+      </c>
+      <c r="E48">
         <v>1.809490121348122</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>2.907419308192271</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>13.96720404192706</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.4873107793438991</v>
+      </c>
+      <c r="I48">
+        <v>13.73431955856281</v>
+      </c>
+      <c r="J48">
         <v>2.358210800722607</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>11.87681781061764</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>7.047428738160116</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>42.92449424374453</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N48" t="n">
-        <v>159.3692312192085</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>173.5911829580441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>3.013324970452164</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>51.53590265469354</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.005684457668506439</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.006074730225018334</v>
+      </c>
+      <c r="E49">
         <v>2.197238004494149</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>3.347937385191099</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>16.08344707858267</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.3350261607989307</v>
+      </c>
+      <c r="I49">
+        <v>9.442344696511936</v>
+      </c>
+      <c r="J49">
         <v>2.965274967245257</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>14.93421645493506</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>9.525645437293342</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>58.01882188989646</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N49" t="n">
-        <v>162.1181610728043</v>
+      <c r="P49">
+        <v>171.8959222026717</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.33519013136674</v>
+        <v>4.488598995022296</v>
       </c>
       <c r="C2">
-        <v>39.93798626779337</v>
+        <v>76.76702749677651</v>
       </c>
       <c r="D2">
-        <v>0.009648100945617355</v>
+        <v>0.01854515211702497</v>
       </c>
       <c r="E2">
-        <v>3.489730948314236</v>
+        <v>6.70780619406509</v>
       </c>
       <c r="F2">
-        <v>3.436041000590865</v>
+        <v>6.604605755626753</v>
       </c>
       <c r="G2">
-        <v>16.5066956859138</v>
+        <v>31.72843901304389</v>
       </c>
       <c r="H2">
-        <v>0.1218276948359748</v>
+        <v>0.2341717966607659</v>
       </c>
       <c r="I2">
-        <v>3.433579889640703</v>
+        <v>6.599875117213567</v>
       </c>
       <c r="J2">
-        <v>2.98862358903459</v>
+        <v>5.74459983281499</v>
       </c>
       <c r="K2">
-        <v>15.05180871048573</v>
+        <v>28.93191973692166</v>
       </c>
       <c r="L2">
-        <v>6.737651650768461</v>
+        <v>12.9508154484831</v>
       </c>
       <c r="M2">
-        <v>41.03770328797555</v>
+        <v>78.88085482299491</v>
       </c>
       <c r="N2">
-        <v>0.1021974695404845</v>
+        <v>0.1964394474400929</v>
       </c>
       <c r="O2">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="P2">
-        <v>136.8038241608978</v>
+        <v>262.9582488362167</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.398081668862566</v>
+        <v>4.60948632158613</v>
       </c>
       <c r="C3">
-        <v>41.01359948109457</v>
+        <v>78.8345235534812</v>
       </c>
       <c r="D3">
-        <v>0.01143478630591686</v>
+        <v>0.02197943954610367</v>
       </c>
       <c r="E3">
-        <v>4.13597742022428</v>
+        <v>7.949992526299361</v>
       </c>
       <c r="F3">
-        <v>2.643108461992974</v>
+        <v>5.080465965866733</v>
       </c>
       <c r="G3">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="H3">
-        <v>0.1675130803994654</v>
+        <v>0.3219862204085532</v>
       </c>
       <c r="I3">
-        <v>4.721172348255968</v>
+        <v>9.07482828616866</v>
       </c>
       <c r="J3">
-        <v>2.591697018615934</v>
+        <v>4.981645167519252</v>
       </c>
       <c r="K3">
-        <v>13.05274036612434</v>
+        <v>25.08939914686175</v>
       </c>
       <c r="L3">
-        <v>5.730876116745587</v>
+        <v>11.01563612859481</v>
       </c>
       <c r="M3">
-        <v>34.90563268172632</v>
+        <v>67.09406042415661</v>
       </c>
       <c r="N3">
-        <v>0.04379891551735053</v>
+        <v>0.08418833461718271</v>
       </c>
       <c r="O3">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="P3">
-        <v>124.8052933088097</v>
+        <v>239.8952045037599</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.422691400926148</v>
+        <v>4.656790058067629</v>
       </c>
       <c r="C4">
-        <v>41.43449160803856</v>
+        <v>79.64354374958312</v>
       </c>
       <c r="D4">
-        <v>0.01357880873827627</v>
+        <v>0.02610058446099811</v>
       </c>
       <c r="E4">
-        <v>4.911473186516331</v>
+        <v>9.440616124980496</v>
       </c>
       <c r="F4">
-        <v>2.819315692792504</v>
+        <v>5.419163696924516</v>
       </c>
       <c r="G4">
-        <v>13.54395543459593</v>
+        <v>26.03359098506165</v>
       </c>
       <c r="H4">
-        <v>0.1675130803994654</v>
+        <v>0.3219862204085532</v>
       </c>
       <c r="I4">
-        <v>4.721172348255968</v>
+        <v>9.07482828616866</v>
       </c>
       <c r="J4">
-        <v>2.474953909669269</v>
+        <v>4.757246736549916</v>
       </c>
       <c r="K4">
-        <v>12.46477908837099</v>
+        <v>23.95924603213825</v>
       </c>
       <c r="L4">
-        <v>6.350430291528895</v>
+        <v>12.20651571006452</v>
       </c>
       <c r="M4">
-        <v>38.67921459326431</v>
+        <v>74.3474723619032</v>
       </c>
       <c r="N4">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O4">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P4">
-        <v>130.4942372154487</v>
+        <v>250.8302403961618</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.838322431333345</v>
+        <v>5.455697607532952</v>
       </c>
       <c r="C5">
-        <v>48.54289197420317</v>
+        <v>93.30699595041449</v>
       </c>
       <c r="D5">
-        <v>0.01214946045003667</v>
+        <v>0.02335315451773515</v>
       </c>
       <c r="E5">
-        <v>4.394476008988298</v>
+        <v>8.446867059193073</v>
       </c>
       <c r="F5">
-        <v>3.964662692989459</v>
+        <v>7.6206989488001</v>
       </c>
       <c r="G5">
-        <v>19.04618732990053</v>
+        <v>36.60973732274294</v>
       </c>
       <c r="H5">
-        <v>0.2284269278174527</v>
+        <v>0.4390721187389361</v>
       </c>
       <c r="I5">
-        <v>6.437962293076318</v>
+        <v>12.37476584477545</v>
       </c>
       <c r="J5">
-        <v>3.222109806927918</v>
+        <v>6.193396694753661</v>
       </c>
       <c r="K5">
-        <v>16.22773126599242</v>
+        <v>31.19222596636867</v>
       </c>
       <c r="L5">
-        <v>6.660207378920551</v>
+        <v>12.80195550079937</v>
       </c>
       <c r="M5">
-        <v>40.5660055490333</v>
+        <v>77.97417833077658</v>
       </c>
       <c r="N5">
-        <v>0.116797108046268</v>
+        <v>0.2245022256458205</v>
       </c>
       <c r="O5">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="P5">
-        <v>154.1038042090409</v>
+        <v>296.2115038988153</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.780899723184982</v>
+        <v>5.345322222409455</v>
       </c>
       <c r="C6">
-        <v>47.56081034466724</v>
+        <v>91.41928215951015</v>
       </c>
       <c r="D6">
-        <v>0.01036277508973716</v>
+        <v>0.01991886708865645</v>
       </c>
       <c r="E6">
-        <v>3.748229537078254</v>
+        <v>7.2046807269588</v>
       </c>
       <c r="F6">
-        <v>3.524144615990632</v>
+        <v>6.773954621155642</v>
       </c>
       <c r="G6">
-        <v>16.92994429324492</v>
+        <v>32.54198873132706</v>
       </c>
       <c r="H6">
-        <v>0.197970004108459</v>
+        <v>0.3805291695737446</v>
       </c>
       <c r="I6">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="J6">
-        <v>3.128715319770587</v>
+        <v>6.013877949978196</v>
       </c>
       <c r="K6">
-        <v>15.75736224378974</v>
+        <v>30.28810347458987</v>
       </c>
       <c r="L6">
-        <v>6.737651650768461</v>
+        <v>12.9508154484831</v>
       </c>
       <c r="M6">
-        <v>41.03770328797555</v>
+        <v>78.88085482299491</v>
       </c>
       <c r="N6">
-        <v>0.08759783103470106</v>
+        <v>0.1683766692343654</v>
       </c>
       <c r="O6">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="P6">
-        <v>148.4653644333908</v>
+        <v>285.3735448090926</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>3.16645219218113</v>
+        <v>6.086414093952955</v>
       </c>
       <c r="C7">
-        <v>54.1547870001226</v>
+        <v>104.0939318984393</v>
       </c>
       <c r="D7">
-        <v>0.01000543801767726</v>
+        <v>0.01923200960284071</v>
       </c>
       <c r="E7">
-        <v>3.618980242696244</v>
+        <v>6.956243460511944</v>
       </c>
       <c r="F7">
-        <v>3.788455462189929</v>
+        <v>7.282001217742319</v>
       </c>
       <c r="G7">
-        <v>18.19969011523829</v>
+        <v>34.98263788617659</v>
       </c>
       <c r="H7">
-        <v>0.2131984659629559</v>
+        <v>0.4098006441563404</v>
       </c>
       <c r="I7">
-        <v>6.008764806871233</v>
+        <v>11.54978145512375</v>
       </c>
       <c r="J7">
-        <v>2.568348396826601</v>
+        <v>4.936765481325383</v>
       </c>
       <c r="K7">
-        <v>12.93514811057367</v>
+        <v>24.86336852391706</v>
       </c>
       <c r="L7">
-        <v>5.963208932289327</v>
+        <v>11.46221597164595</v>
       </c>
       <c r="M7">
-        <v>36.32072589855308</v>
+        <v>69.81408990081158</v>
       </c>
       <c r="N7">
-        <v>0.145996385057835</v>
+        <v>0.2806277820572756</v>
       </c>
       <c r="O7">
-        <v>2.307342476702347</v>
+        <v>4.435071467194332</v>
       </c>
       <c r="P7">
-        <v>149.4011039232829</v>
+        <v>287.1721817926576</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>3.516457270418767</v>
+        <v>6.759178346134279</v>
       </c>
       <c r="C8">
-        <v>60.14080836110335</v>
+        <v>115.5999969096657</v>
       </c>
       <c r="D8">
-        <v>0.007861415585317843</v>
+        <v>0.01511086468794627</v>
       </c>
       <c r="E8">
-        <v>2.843484476404192</v>
+        <v>5.465619861830812</v>
       </c>
       <c r="F8">
-        <v>5.198113308586181</v>
+        <v>9.991583066204576</v>
       </c>
       <c r="G8">
-        <v>24.97166783253626</v>
+        <v>47.99943337870743</v>
       </c>
       <c r="H8">
-        <v>0.3502546226534275</v>
+        <v>0.6732439153997017</v>
       </c>
       <c r="I8">
-        <v>9.871542182717025</v>
+        <v>18.97464096198901</v>
       </c>
       <c r="J8">
-        <v>2.755137371141263</v>
+        <v>5.295802970876321</v>
       </c>
       <c r="K8">
-        <v>13.87588615497903</v>
+        <v>26.67161350747466</v>
       </c>
       <c r="L8">
-        <v>4.181990679787321</v>
+        <v>8.038437174920537</v>
       </c>
       <c r="M8">
-        <v>25.47167790288137</v>
+        <v>48.96053057978995</v>
       </c>
       <c r="N8">
-        <v>0.1605960235636185</v>
+        <v>0.3086905602630033</v>
       </c>
       <c r="O8">
-        <v>2.538076724372582</v>
+        <v>4.878578613913765</v>
       </c>
       <c r="P8">
-        <v>155.8835543267297</v>
+        <v>299.6324607118577</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>4.077012278533735</v>
+        <v>7.836652343768431</v>
       </c>
       <c r="C9">
-        <v>69.72779569704909</v>
+        <v>134.0276791542081</v>
       </c>
       <c r="D9">
-        <v>0.005002719008838628</v>
+        <v>0.009616004801420356</v>
       </c>
       <c r="E9">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="F9">
-        <v>4.317077154588523</v>
+        <v>8.298094410915663</v>
       </c>
       <c r="G9">
-        <v>20.73918175922503</v>
+        <v>39.86393619587565</v>
       </c>
       <c r="H9">
-        <v>0.4263969319259118</v>
+        <v>0.8196012883126808</v>
       </c>
       <c r="I9">
-        <v>12.01752961374247</v>
+        <v>23.09956291024749</v>
       </c>
       <c r="J9">
-        <v>1.354220063781299</v>
+        <v>2.603021799244293</v>
       </c>
       <c r="K9">
-        <v>6.820350821938844</v>
+        <v>13.10977613079263</v>
       </c>
       <c r="L9">
-        <v>3.63988077685193</v>
+        <v>6.996417541134544</v>
       </c>
       <c r="M9">
-        <v>22.16979373028564</v>
+        <v>42.61379513426163</v>
       </c>
       <c r="N9">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O9">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P9">
-        <v>148.0850672129835</v>
+        <v>284.6425543435191</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>4.566472505131681</v>
+        <v>8.777471102678263</v>
       </c>
       <c r="C10">
-        <v>78.09887244404563</v>
+        <v>150.118191943345</v>
       </c>
       <c r="D10">
-        <v>0.004645381936778725</v>
+        <v>0.008929147315604614</v>
       </c>
       <c r="E10">
-        <v>1.680240826966114</v>
+        <v>3.229684463809117</v>
       </c>
       <c r="F10">
-        <v>2.731212077392738</v>
+        <v>5.249814831395623</v>
       </c>
       <c r="G10">
-        <v>13.12070682726482</v>
+        <v>25.22004126677848</v>
       </c>
       <c r="H10">
-        <v>0.6243669360343707</v>
+        <v>1.200130457886425</v>
       </c>
       <c r="I10">
-        <v>17.59709693440861</v>
+        <v>33.82435997571955</v>
       </c>
       <c r="J10">
-        <v>0.9105962497839768</v>
+        <v>1.750307761560818</v>
       </c>
       <c r="K10">
-        <v>4.586097966476119</v>
+        <v>8.81519429484332</v>
       </c>
       <c r="L10">
-        <v>4.104546407939407</v>
+        <v>7.889577227236825</v>
       </c>
       <c r="M10">
-        <v>24.99998016393912</v>
+        <v>48.05385408757162</v>
       </c>
       <c r="N10">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O10">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P10">
-        <v>153.5155024936714</v>
+        <v>295.080696409991</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>3.174655436202325</v>
+        <v>6.102182006113449</v>
       </c>
       <c r="C11">
-        <v>54.29508437577062</v>
+        <v>104.3636052971399</v>
       </c>
       <c r="D11">
-        <v>0.006074730225018334</v>
+        <v>0.01167657725886757</v>
       </c>
       <c r="E11">
-        <v>2.197238004494149</v>
+        <v>4.223433529596536</v>
       </c>
       <c r="F11">
-        <v>1.409657846396252</v>
+        <v>2.709581848462258</v>
       </c>
       <c r="G11">
-        <v>6.771977717297967</v>
+        <v>13.01679549253082</v>
       </c>
       <c r="H11">
-        <v>0.6091384741798738</v>
+        <v>1.170858983303829</v>
       </c>
       <c r="I11">
-        <v>17.16789944820352</v>
+        <v>32.99937558606786</v>
       </c>
       <c r="J11">
-        <v>0.9339448715733097</v>
+        <v>1.795187447754685</v>
       </c>
       <c r="K11">
-        <v>4.703690222026789</v>
+        <v>9.041224917788021</v>
       </c>
       <c r="L11">
-        <v>4.181990679787321</v>
+        <v>8.038437174920537</v>
       </c>
       <c r="M11">
-        <v>25.47167790288137</v>
+        <v>48.96053057978995</v>
       </c>
       <c r="N11">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O11">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P11">
-        <v>121.4136974813906</v>
+        <v>233.376029290577</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>2.518395914506755</v>
+        <v>4.840749033273461</v>
       </c>
       <c r="C12">
-        <v>43.07129432393172</v>
+        <v>82.7897334010903</v>
       </c>
       <c r="D12">
-        <v>0.00750407851325794</v>
+        <v>0.01442400720213054</v>
       </c>
       <c r="E12">
-        <v>2.714235182022184</v>
+        <v>5.217182595383957</v>
       </c>
       <c r="F12">
-        <v>2.11448676959438</v>
+        <v>4.064372772693386</v>
       </c>
       <c r="G12">
-        <v>10.15796657594695</v>
+        <v>19.52519323879624</v>
       </c>
       <c r="H12">
-        <v>0.4568538556349054</v>
+        <v>0.8781442374778722</v>
       </c>
       <c r="I12">
-        <v>12.87592458615264</v>
+        <v>24.74953168955089</v>
       </c>
       <c r="J12">
-        <v>0.6304127883119839</v>
+        <v>1.211751527234412</v>
       </c>
       <c r="K12">
-        <v>3.174990899868082</v>
+        <v>6.102826819506914</v>
       </c>
       <c r="L12">
-        <v>5.808320388593501</v>
+        <v>11.16449607627852</v>
       </c>
       <c r="M12">
-        <v>35.37733042066859</v>
+        <v>68.00073691637493</v>
       </c>
       <c r="P12">
-        <v>118.9077157837449</v>
+        <v>228.559142314863</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,43 +1024,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>2.228547959091209</v>
+        <v>4.283616136935801</v>
       </c>
       <c r="C13">
-        <v>38.11412038436954</v>
+        <v>73.2612733136684</v>
       </c>
       <c r="D13">
-        <v>0.007861415585317843</v>
+        <v>0.01511086468794627</v>
       </c>
       <c r="E13">
-        <v>2.843484476404192</v>
+        <v>5.465619861830812</v>
       </c>
       <c r="F13">
-        <v>1.585865077195784</v>
+        <v>3.048279579520042</v>
       </c>
       <c r="G13">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="H13">
-        <v>0.1522846185449684</v>
+        <v>0.2927147458259574</v>
       </c>
       <c r="I13">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="J13">
-        <v>0.6537614101013167</v>
+        <v>1.256631213428279</v>
       </c>
       <c r="K13">
-        <v>3.292583155418753</v>
+        <v>6.328857442451612</v>
       </c>
       <c r="L13">
-        <v>3.407547961308187</v>
+        <v>6.5498376980834</v>
       </c>
       <c r="M13">
-        <v>20.75470051345889</v>
+        <v>39.89376565760662</v>
       </c>
       <c r="P13">
-        <v>84.95120676548923</v>
+        <v>163.289445339653</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.413692386319208</v>
+        <v>2.717336862326143</v>
       </c>
       <c r="C14">
-        <v>24.17791440333627</v>
+        <v>46.47371570940681</v>
       </c>
       <c r="D14">
-        <v>0.006432067297078234</v>
+        <v>0.01236343474468332</v>
       </c>
       <c r="E14">
-        <v>2.326487298876157</v>
+        <v>4.471870796043392</v>
       </c>
       <c r="F14">
-        <v>1.145347000196955</v>
+        <v>2.201535251875585</v>
       </c>
       <c r="G14">
-        <v>5.502231895304599</v>
+        <v>10.57614633768129</v>
       </c>
       <c r="H14">
-        <v>0.2284269278174527</v>
+        <v>0.4390721187389361</v>
       </c>
       <c r="I14">
-        <v>6.437962293076318</v>
+        <v>12.37476584477545</v>
       </c>
       <c r="J14">
-        <v>0.537018301154653</v>
+        <v>1.032232782458944</v>
       </c>
       <c r="K14">
-        <v>2.704621877665404</v>
+        <v>5.198704327728112</v>
       </c>
       <c r="L14">
-        <v>3.94965786424358</v>
+        <v>7.591857331869397</v>
       </c>
       <c r="M14">
-        <v>24.05658468605463</v>
+        <v>46.24050110313495</v>
       </c>
       <c r="P14">
-        <v>72.4863770013423</v>
+        <v>139.3301019007837</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.8968880129839468</v>
+        <v>1.723958396214651</v>
       </c>
       <c r="C15">
-        <v>15.33917973751315</v>
+        <v>29.48429159126778</v>
       </c>
       <c r="D15">
-        <v>0.006432067297078234</v>
+        <v>0.01236343474468332</v>
       </c>
       <c r="E15">
-        <v>2.326487298876157</v>
+        <v>4.471870796043392</v>
       </c>
       <c r="F15">
-        <v>0.2643108461992975</v>
+        <v>0.5080465965866733</v>
       </c>
       <c r="G15">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="H15">
-        <v>0.1370561566904716</v>
+        <v>0.2634432712433616</v>
       </c>
       <c r="I15">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="J15">
-        <v>0.2568348396826601</v>
+        <v>0.4936765481325384</v>
       </c>
       <c r="K15">
-        <v>1.293514811057367</v>
+        <v>2.486336852391706</v>
       </c>
       <c r="L15">
-        <v>2.865438058372793</v>
+        <v>5.507818064297407</v>
       </c>
       <c r="M15">
-        <v>17.45281634086316</v>
+        <v>33.5470302120783</v>
       </c>
       <c r="P15">
-        <v>45.97148136737524</v>
+        <v>88.36434442471528</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,49 +1156,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.4402407624707788</v>
+        <v>0.8462112859468268</v>
       </c>
       <c r="C16">
-        <v>7.529292493108589</v>
+        <v>14.47247239693327</v>
       </c>
       <c r="D16">
-        <v>0.006074730225018334</v>
+        <v>0.01167657725886757</v>
       </c>
       <c r="E16">
-        <v>2.197238004494149</v>
+        <v>4.223433529596536</v>
       </c>
       <c r="F16">
-        <v>0.08810361539976574</v>
+        <v>0.1693488655288911</v>
       </c>
       <c r="G16">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="H16">
-        <v>0.1065992329814779</v>
+        <v>0.2049003220781702</v>
       </c>
       <c r="I16">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="J16">
-        <v>0.4669724357866549</v>
+        <v>0.8975937238773425</v>
       </c>
       <c r="K16">
-        <v>2.351845111013394</v>
+        <v>4.520612458894011</v>
       </c>
       <c r="L16">
-        <v>2.710549514676967</v>
+        <v>5.21009816892998</v>
       </c>
       <c r="M16">
-        <v>16.50942086297867</v>
+        <v>31.73367722764163</v>
       </c>
       <c r="N16">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O16">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P16">
-        <v>36.07930166007822</v>
+        <v>69.35003492745574</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1206,43 +1206,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.3117232728053961</v>
+        <v>0.5991806620989952</v>
       </c>
       <c r="C17">
-        <v>5.331300274623471</v>
+        <v>10.24758915062356</v>
       </c>
       <c r="D17">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E17">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F17">
-        <v>0.1762072307995315</v>
+        <v>0.3386977310577823</v>
       </c>
       <c r="G17">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="H17">
-        <v>0.06091384741798739</v>
+        <v>0.117085898330383</v>
       </c>
       <c r="I17">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="J17">
-        <v>0.4903210575759877</v>
+        <v>0.9424734100712097</v>
       </c>
       <c r="K17">
-        <v>2.469437366564065</v>
+        <v>4.74664308183871</v>
       </c>
       <c r="L17">
-        <v>2.633105242829054</v>
+        <v>5.061238221246266</v>
       </c>
       <c r="M17">
-        <v>16.03772312403642</v>
+        <v>30.82700073542329</v>
       </c>
       <c r="P17">
-        <v>31.24047825922113</v>
+        <v>60.04906300125737</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,37 +1250,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.2160187592247922</v>
+        <v>0.4152216868931632</v>
       </c>
       <c r="C18">
-        <v>3.694497558730301</v>
+        <v>7.101399499116325</v>
       </c>
       <c r="D18">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E18">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F18">
-        <v>0.2643108461992975</v>
+        <v>0.5080465965866733</v>
       </c>
       <c r="G18">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="J18">
-        <v>0.4202751922079893</v>
+        <v>0.8078343514896081</v>
       </c>
       <c r="K18">
-        <v>2.116660599912056</v>
+        <v>4.068551213004609</v>
       </c>
       <c r="L18">
-        <v>2.323328155437401</v>
+        <v>4.465798430511411</v>
       </c>
       <c r="M18">
-        <v>14.15093216826743</v>
+        <v>27.20029476654997</v>
       </c>
       <c r="P18">
-        <v>25.23340889069705</v>
+        <v>48.50254044259731</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,43 +1288,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1968778565086713</v>
+        <v>0.3784298918519969</v>
       </c>
       <c r="C19">
-        <v>3.367137015551665</v>
+        <v>6.472161568814875</v>
       </c>
       <c r="D19">
-        <v>0.00357337072059902</v>
+        <v>0.006868574858157397</v>
       </c>
       <c r="E19">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="F19">
-        <v>0.2643108461992975</v>
+        <v>0.5080465965866733</v>
       </c>
       <c r="G19">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="H19">
-        <v>0.03045692370899369</v>
+        <v>0.05854294916519148</v>
       </c>
       <c r="I19">
-        <v>0.8583949724101758</v>
+        <v>1.649968779303392</v>
       </c>
       <c r="J19">
-        <v>0.3969265704186565</v>
+        <v>0.762954665295741</v>
       </c>
       <c r="K19">
-        <v>1.999068344361385</v>
+        <v>3.842520590059909</v>
       </c>
       <c r="L19">
-        <v>3.562436505004014</v>
+        <v>6.847557593450827</v>
       </c>
       <c r="M19">
-        <v>21.69809599134339</v>
+        <v>41.70711864204328</v>
       </c>
       <c r="P19">
-        <v>34.9395171620403</v>
+        <v>67.15919167074813</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1332,49 +1332,49 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.3390674195427116</v>
+        <v>0.6517403693006615</v>
       </c>
       <c r="C20">
-        <v>5.79895819345009</v>
+        <v>11.14650047962563</v>
       </c>
       <c r="D20">
-        <v>0.00357337072059902</v>
+        <v>0.006868574858157397</v>
       </c>
       <c r="E20">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="F20">
-        <v>0.2643108461992975</v>
+        <v>0.5080465965866733</v>
       </c>
       <c r="G20">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="H20">
-        <v>0.06091384741798739</v>
+        <v>0.117085898330383</v>
       </c>
       <c r="I20">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="J20">
-        <v>0.6070641665226512</v>
+        <v>1.166871841040545</v>
       </c>
       <c r="K20">
-        <v>3.057398644317413</v>
+        <v>5.876796196562212</v>
       </c>
       <c r="L20">
-        <v>6.505318835224722</v>
+        <v>12.50423560543195</v>
       </c>
       <c r="M20">
-        <v>39.62261007114881</v>
+        <v>76.16082534633991</v>
       </c>
       <c r="N20">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O20">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P20">
-        <v>60.7835779913541</v>
+        <v>116.8355002109261</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,49 +1382,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.112906772208739</v>
+        <v>2.139180083107817</v>
       </c>
       <c r="C21">
-        <v>19.03367729624344</v>
+        <v>36.58569109038412</v>
       </c>
       <c r="D21">
-        <v>0.00357337072059902</v>
+        <v>0.006868574858157397</v>
       </c>
       <c r="E21">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="F21">
-        <v>0.881036153997658</v>
+        <v>1.693488655288911</v>
       </c>
       <c r="G21">
-        <v>4.23248607331123</v>
+        <v>8.135497182831765</v>
       </c>
       <c r="H21">
-        <v>0.3045692370899369</v>
+        <v>0.5854294916519147</v>
       </c>
       <c r="I21">
-        <v>8.58394972410176</v>
+        <v>16.49968779303393</v>
       </c>
       <c r="J21">
-        <v>0.7238072754693148</v>
+        <v>1.391270272009881</v>
       </c>
       <c r="K21">
-        <v>3.645359922070762</v>
+        <v>7.006949311285717</v>
       </c>
       <c r="L21">
-        <v>9.448201165445431</v>
+        <v>18.16091361741307</v>
       </c>
       <c r="M21">
-        <v>57.54712415095421</v>
+        <v>110.6145320506365</v>
       </c>
       <c r="N21">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O21">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P21">
-        <v>107.0545179716092</v>
+        <v>205.7754507118956</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1432,49 +1432,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>2.485582938421973</v>
+        <v>4.777677384631459</v>
       </c>
       <c r="C22">
-        <v>42.51010482133979</v>
+        <v>81.71103980628781</v>
       </c>
       <c r="D22">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E22">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F22">
-        <v>2.378797615793677</v>
+        <v>4.572419369280061</v>
       </c>
       <c r="G22">
-        <v>11.42771239794032</v>
+        <v>21.96584239364577</v>
       </c>
       <c r="H22">
-        <v>0.6548238597433644</v>
+        <v>1.258673407051617</v>
       </c>
       <c r="I22">
-        <v>18.45549190681879</v>
+        <v>35.47432875502294</v>
       </c>
       <c r="J22">
-        <v>2.007981473882615</v>
+        <v>3.859653012672573</v>
       </c>
       <c r="K22">
-        <v>10.1129339773576</v>
+        <v>19.43863357324424</v>
       </c>
       <c r="L22">
-        <v>10.22264388392457</v>
+        <v>19.64951309425022</v>
       </c>
       <c r="M22">
-        <v>62.2641015403767</v>
+        <v>119.6812969728199</v>
       </c>
       <c r="N22">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O22">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P22">
-        <v>164.538363011936</v>
+        <v>316.2683504600685</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1482,49 +1482,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>3.880134422025064</v>
+        <v>7.458222451916436</v>
       </c>
       <c r="C23">
-        <v>66.3606586814974</v>
+        <v>127.5555175853932</v>
       </c>
       <c r="D23">
-        <v>0.005002719008838628</v>
+        <v>0.009616004801420356</v>
       </c>
       <c r="E23">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="F23">
-        <v>3.436041000590865</v>
+        <v>6.604605755626753</v>
       </c>
       <c r="G23">
-        <v>16.5066956859138</v>
+        <v>31.72843901304389</v>
       </c>
       <c r="H23">
-        <v>0.5939100123253769</v>
+        <v>1.141587508721233</v>
       </c>
       <c r="I23">
-        <v>16.73870196199843</v>
+        <v>32.17439119641614</v>
       </c>
       <c r="J23">
-        <v>2.218119069986611</v>
+        <v>4.263570188417375</v>
       </c>
       <c r="K23">
-        <v>11.17126427731363</v>
+        <v>21.47290917974655</v>
       </c>
       <c r="L23">
-        <v>8.673758446966293</v>
+        <v>16.67231414057593</v>
       </c>
       <c r="M23">
-        <v>52.83014676153175</v>
+        <v>101.5477671284532</v>
       </c>
       <c r="N23">
-        <v>0.08759783103470106</v>
+        <v>0.1683766692343654</v>
       </c>
       <c r="O23">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="P23">
-        <v>185.6959264775623</v>
+        <v>356.936481432919</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1532,49 +1532,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>4.593816651868996</v>
+        <v>8.830030809879926</v>
       </c>
       <c r="C24">
-        <v>78.56653036287221</v>
+        <v>151.0171032723471</v>
       </c>
       <c r="D24">
-        <v>0.01072011216179706</v>
+        <v>0.02060572457447219</v>
       </c>
       <c r="E24">
-        <v>3.877478831460262</v>
+        <v>7.453117993405654</v>
       </c>
       <c r="F24">
-        <v>3.876559077589695</v>
+        <v>7.451350083271209</v>
       </c>
       <c r="G24">
-        <v>18.62293872256942</v>
+        <v>35.79618760445977</v>
       </c>
       <c r="H24">
-        <v>0.6395953978888675</v>
+        <v>1.229401932469021</v>
       </c>
       <c r="I24">
-        <v>18.0262944206137</v>
+        <v>34.64934436537123</v>
       </c>
       <c r="J24">
-        <v>2.941926345455926</v>
+        <v>5.654840460427258</v>
       </c>
       <c r="K24">
-        <v>14.81662419938439</v>
+        <v>28.47985849103226</v>
       </c>
       <c r="L24">
-        <v>8.441425631422554</v>
+        <v>16.22573429752479</v>
       </c>
       <c r="M24">
-        <v>51.415053544705</v>
+        <v>98.82773765179822</v>
       </c>
       <c r="N24">
-        <v>0.1021974695404845</v>
+        <v>0.1964394474400929</v>
       </c>
       <c r="O24">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="P24">
-        <v>207.5463005012249</v>
+        <v>398.936302161037</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1582,49 +1582,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.975043165019921</v>
+        <v>5.718496143541289</v>
       </c>
       <c r="C25">
-        <v>50.8811815683363</v>
+        <v>97.80155259542482</v>
       </c>
       <c r="D25">
-        <v>0.00714674144119804</v>
+        <v>0.01373714971631479</v>
       </c>
       <c r="E25">
-        <v>2.584985887640175</v>
+        <v>4.968745328937104</v>
       </c>
       <c r="F25">
-        <v>4.052766308389227</v>
+        <v>7.79004781432899</v>
       </c>
       <c r="G25">
-        <v>19.46943593723165</v>
+        <v>37.42328704102612</v>
       </c>
       <c r="H25">
-        <v>0.3350261607989307</v>
+        <v>0.6439724408171064</v>
       </c>
       <c r="I25">
-        <v>9.442344696511936</v>
+        <v>18.14965657233732</v>
       </c>
       <c r="J25">
-        <v>2.731788749351931</v>
+        <v>5.250923284682453</v>
       </c>
       <c r="K25">
-        <v>13.75829389942836</v>
+        <v>26.44558288452996</v>
       </c>
       <c r="L25">
-        <v>8.983535534357948</v>
+        <v>17.26775393131079</v>
       </c>
       <c r="M25">
-        <v>54.71693771730072</v>
+        <v>105.1744730973265</v>
       </c>
       <c r="N25">
-        <v>0.116797108046268</v>
+        <v>0.2245022256458205</v>
       </c>
       <c r="O25">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="P25">
-        <v>171.9011574552164</v>
+        <v>330.4207876833801</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1632,49 +1632,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.447301132989733</v>
+        <v>4.704093794549131</v>
       </c>
       <c r="C26">
-        <v>41.85538373498252</v>
+        <v>80.45256394568496</v>
       </c>
       <c r="D26">
-        <v>0.009648100945617355</v>
+        <v>0.01854515211702497</v>
       </c>
       <c r="E26">
-        <v>3.489730948314236</v>
+        <v>6.70780619406509</v>
       </c>
       <c r="F26">
-        <v>3.436041000590865</v>
+        <v>6.604605755626753</v>
       </c>
       <c r="G26">
-        <v>16.5066956859138</v>
+        <v>31.72843901304389</v>
       </c>
       <c r="H26">
-        <v>0.1370561566904716</v>
+        <v>0.2634432712433616</v>
       </c>
       <c r="I26">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="J26">
-        <v>3.362201537663914</v>
+        <v>6.462674811916865</v>
       </c>
       <c r="K26">
-        <v>16.93328479929644</v>
+        <v>32.54840970403687</v>
       </c>
       <c r="L26">
-        <v>7.357205825551768</v>
+        <v>14.1416950299528</v>
       </c>
       <c r="M26">
-        <v>44.81128519951352</v>
+        <v>86.13426676074157</v>
       </c>
       <c r="N26">
-        <v>0.1021974695404845</v>
+        <v>0.1964394474400929</v>
       </c>
       <c r="O26">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="P26">
-        <v>145.9259487015308</v>
+        <v>280.4923924143197</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1682,49 +1682,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.439097888968539</v>
+        <v>4.688325882388629</v>
       </c>
       <c r="C27">
-        <v>41.71508635933451</v>
+        <v>80.18289054698437</v>
       </c>
       <c r="D27">
-        <v>0.01107744923385696</v>
+        <v>0.02129258206028793</v>
       </c>
       <c r="E27">
-        <v>4.006728125842271</v>
+        <v>7.70155525985251</v>
       </c>
       <c r="F27">
-        <v>2.555004846593208</v>
+        <v>4.911117100337841</v>
       </c>
       <c r="G27">
-        <v>12.27420961260257</v>
+        <v>23.59294183021213</v>
       </c>
       <c r="H27">
-        <v>0.1675130803994654</v>
+        <v>0.3219862204085532</v>
       </c>
       <c r="I27">
-        <v>4.721172348255968</v>
+        <v>9.07482828616866</v>
       </c>
       <c r="J27">
-        <v>3.665733620925239</v>
+        <v>7.046110732437137</v>
       </c>
       <c r="K27">
-        <v>18.46198412145515</v>
+        <v>35.48680780231798</v>
       </c>
       <c r="L27">
-        <v>7.434650097399681</v>
+        <v>14.29055497763651</v>
       </c>
       <c r="M27">
-        <v>45.28298293845577</v>
+        <v>87.04094325295991</v>
       </c>
       <c r="N27">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O27">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P27">
-        <v>143.7165760341703</v>
+        <v>276.2456341734651</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1732,49 +1732,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.294173911260766</v>
+        <v>4.409759434219796</v>
       </c>
       <c r="C28">
-        <v>39.23649938955343</v>
+        <v>75.4186605032734</v>
       </c>
       <c r="D28">
-        <v>0.009648100945617355</v>
+        <v>0.01854515211702497</v>
       </c>
       <c r="E28">
-        <v>3.489730948314236</v>
+        <v>6.70780619406509</v>
       </c>
       <c r="F28">
-        <v>2.731212077392738</v>
+        <v>5.249814831395623</v>
       </c>
       <c r="G28">
-        <v>13.12070682726482</v>
+        <v>25.22004126677848</v>
       </c>
       <c r="H28">
-        <v>0.2588838515264464</v>
+        <v>0.4976150679041276</v>
       </c>
       <c r="I28">
-        <v>7.296357265486498</v>
+        <v>14.02473462407883</v>
       </c>
       <c r="J28">
-        <v>2.731788749351931</v>
+        <v>5.250923284682453</v>
       </c>
       <c r="K28">
-        <v>13.75829389942836</v>
+        <v>26.44558288452996</v>
       </c>
       <c r="L28">
-        <v>5.808320388593501</v>
+        <v>11.16449607627852</v>
       </c>
       <c r="M28">
-        <v>35.37733042066859</v>
+        <v>68.00073691637493</v>
       </c>
       <c r="N28">
-        <v>0.116797108046268</v>
+        <v>0.2245022256458205</v>
       </c>
       <c r="O28">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="P28">
-        <v>128.0756169191951</v>
+        <v>246.1812756350995</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1782,49 +1782,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.835588016659613</v>
+        <v>5.450441636812789</v>
       </c>
       <c r="C29">
-        <v>48.49612618232053</v>
+        <v>93.21710481751427</v>
       </c>
       <c r="D29">
-        <v>0.009290763873557451</v>
+        <v>0.01785829463120923</v>
       </c>
       <c r="E29">
-        <v>3.360481653932228</v>
+        <v>6.459368927618233</v>
       </c>
       <c r="F29">
-        <v>3.259833769791333</v>
+        <v>6.265908024568974</v>
       </c>
       <c r="G29">
-        <v>15.66019847125155</v>
+        <v>30.10133957647753</v>
       </c>
       <c r="H29">
-        <v>0.197970004108459</v>
+        <v>0.3805291695737446</v>
       </c>
       <c r="I29">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="J29">
-        <v>3.058669454402589</v>
+        <v>5.879238891396594</v>
       </c>
       <c r="K29">
-        <v>15.40458547713773</v>
+        <v>29.61001160575577</v>
       </c>
       <c r="L29">
-        <v>7.357205825551768</v>
+        <v>14.1416950299528</v>
       </c>
       <c r="M29">
-        <v>44.81128519951352</v>
+        <v>86.13426676074157</v>
       </c>
       <c r="N29">
-        <v>0.08759783103470106</v>
+        <v>0.1683766692343654</v>
       </c>
       <c r="O29">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="P29">
-        <v>151.5028054562652</v>
+        <v>291.2119793500665</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1832,49 +1832,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.471910865053316</v>
+        <v>4.751397531030626</v>
       </c>
       <c r="C30">
-        <v>42.27627586192649</v>
+        <v>81.26158414178681</v>
       </c>
       <c r="D30">
-        <v>0.01250679752209657</v>
+        <v>0.02404001200355089</v>
       </c>
       <c r="E30">
-        <v>4.523725303370305</v>
+        <v>8.695304325639929</v>
       </c>
       <c r="F30">
-        <v>3.083626538991803</v>
+        <v>5.927210293511189</v>
       </c>
       <c r="G30">
-        <v>14.8137012565893</v>
+        <v>28.47424013991118</v>
       </c>
       <c r="H30">
-        <v>0.1827415422539622</v>
+        <v>0.3512576949911488</v>
       </c>
       <c r="I30">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="J30">
-        <v>2.661742883983932</v>
+        <v>5.116284226100851</v>
       </c>
       <c r="K30">
-        <v>13.40551713277635</v>
+        <v>25.76749101569586</v>
       </c>
       <c r="L30">
-        <v>6.505318835224722</v>
+        <v>12.50423560543195</v>
       </c>
       <c r="M30">
-        <v>39.62261007114881</v>
+        <v>76.16082534633991</v>
       </c>
       <c r="N30">
-        <v>0.116797108046268</v>
+        <v>0.2245022256458205</v>
       </c>
       <c r="O30">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="P30">
-        <v>136.6727180127103</v>
+        <v>262.7062424076647</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1882,49 +1882,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>3.092622995990378</v>
+        <v>5.94450288450845</v>
       </c>
       <c r="C31">
-        <v>52.89211061929074</v>
+        <v>101.6668713101338</v>
       </c>
       <c r="D31">
-        <v>0.01214946045003667</v>
+        <v>0.02335315451773515</v>
       </c>
       <c r="E31">
-        <v>4.394476008988298</v>
+        <v>8.446867059193073</v>
       </c>
       <c r="F31">
-        <v>4.405180769988288</v>
+        <v>8.467443276444557</v>
       </c>
       <c r="G31">
-        <v>21.16243036655615</v>
+        <v>40.67748591415884</v>
       </c>
       <c r="H31">
-        <v>0.2588838515264464</v>
+        <v>0.4976150679041276</v>
       </c>
       <c r="I31">
-        <v>7.296357265486498</v>
+        <v>14.02473462407883</v>
       </c>
       <c r="J31">
-        <v>2.474953909669269</v>
+        <v>4.757246736549916</v>
       </c>
       <c r="K31">
-        <v>12.46477908837099</v>
+        <v>23.95924603213825</v>
       </c>
       <c r="L31">
-        <v>5.808320388593501</v>
+        <v>11.16449607627852</v>
       </c>
       <c r="M31">
-        <v>35.37733042066859</v>
+        <v>68.00073691637493</v>
       </c>
       <c r="N31">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O31">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P31">
-        <v>150.1302629179312</v>
+        <v>288.5737389021313</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1932,49 +1932,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>3.847321445940282</v>
+        <v>7.39515080327444</v>
       </c>
       <c r="C32">
-        <v>65.79946917890545</v>
+        <v>126.4768239905908</v>
       </c>
       <c r="D32">
-        <v>0.009290763873557451</v>
+        <v>0.01785829463120923</v>
       </c>
       <c r="E32">
-        <v>3.360481653932228</v>
+        <v>6.459368927618233</v>
       </c>
       <c r="F32">
-        <v>5.902942231784309</v>
+        <v>11.3463739904357</v>
       </c>
       <c r="G32">
-        <v>28.35765669118524</v>
+        <v>54.50783112497282</v>
       </c>
       <c r="H32">
-        <v>0.3654830845079244</v>
+        <v>0.7025153899822976</v>
       </c>
       <c r="I32">
-        <v>10.30073966892211</v>
+        <v>19.79962535164071</v>
       </c>
       <c r="J32">
-        <v>2.615045640405267</v>
+        <v>5.026524853713116</v>
       </c>
       <c r="K32">
-        <v>13.17033262167501</v>
+        <v>25.31542976980645</v>
       </c>
       <c r="L32">
-        <v>4.646656310874802</v>
+        <v>8.931596861022822</v>
       </c>
       <c r="M32">
-        <v>28.30186433653486</v>
+        <v>54.40058953309994</v>
       </c>
       <c r="N32">
-        <v>0.204394939080969</v>
+        <v>0.3928788948801858</v>
       </c>
       <c r="O32">
-        <v>3.230279467383286</v>
+        <v>6.209100054072064</v>
       </c>
       <c r="P32">
-        <v>170.1119580350053</v>
+        <v>326.9816678397408</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1982,49 +1982,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>4.593816651868996</v>
+        <v>8.830030809879926</v>
       </c>
       <c r="C33">
-        <v>78.56653036287221</v>
+        <v>151.0171032723471</v>
       </c>
       <c r="D33">
-        <v>0.009290763873557451</v>
+        <v>0.01785829463120923</v>
       </c>
       <c r="E33">
-        <v>3.360481653932228</v>
+        <v>6.459368927618233</v>
       </c>
       <c r="F33">
-        <v>3.876559077589695</v>
+        <v>7.451350083271209</v>
       </c>
       <c r="G33">
-        <v>18.62293872256942</v>
+        <v>35.79618760445977</v>
       </c>
       <c r="H33">
-        <v>0.5482246267618865</v>
+        <v>1.053773084973446</v>
       </c>
       <c r="I33">
-        <v>15.45110950338317</v>
+        <v>29.69943802746107</v>
       </c>
       <c r="J33">
-        <v>1.727798012410622</v>
+        <v>3.321096778346166</v>
       </c>
       <c r="K33">
-        <v>8.70182691074956</v>
+        <v>16.72626609790784</v>
       </c>
       <c r="L33">
-        <v>3.562436505004014</v>
+        <v>6.847557593450827</v>
       </c>
       <c r="M33">
-        <v>21.69809599134339</v>
+        <v>41.70711864204328</v>
       </c>
       <c r="N33">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O33">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P33">
-        <v>161.7004443270628</v>
+        <v>310.8134289160907</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2032,49 +2032,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>4.763350361640351</v>
+        <v>9.155900994530256</v>
       </c>
       <c r="C34">
-        <v>81.46600945959725</v>
+        <v>156.59035351216</v>
       </c>
       <c r="D34">
-        <v>0.005002719008838628</v>
+        <v>0.009616004801420356</v>
       </c>
       <c r="E34">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="F34">
-        <v>2.643108461992974</v>
+        <v>5.080465965866733</v>
       </c>
       <c r="G34">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="H34">
-        <v>0.6852807834523582</v>
+        <v>1.317216356216808</v>
       </c>
       <c r="I34">
-        <v>19.31388687922896</v>
+        <v>37.12429753432632</v>
       </c>
       <c r="J34">
-        <v>1.050687980519973</v>
+        <v>2.01958587872402</v>
       </c>
       <c r="K34">
-        <v>5.291651499780137</v>
+        <v>10.17137803251152</v>
       </c>
       <c r="L34">
-        <v>4.104546407939407</v>
+        <v>7.889577227236825</v>
       </c>
       <c r="M34">
-        <v>24.99998016393912</v>
+        <v>48.05385408757162</v>
       </c>
       <c r="N34">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O34">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P34">
-        <v>159.0757869445572</v>
+        <v>305.7684287976219</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2082,49 +2082,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>3.196530753592177</v>
+        <v>6.144229771874786</v>
       </c>
       <c r="C35">
-        <v>54.66921071083194</v>
+        <v>105.0827343603416</v>
       </c>
       <c r="D35">
-        <v>0.005717393152958431</v>
+        <v>0.01098971977305184</v>
       </c>
       <c r="E35">
-        <v>2.06798871011214</v>
+        <v>3.974996263149681</v>
       </c>
       <c r="F35">
-        <v>1.321554230996487</v>
+        <v>2.540232982933367</v>
       </c>
       <c r="G35">
-        <v>6.348729109966844</v>
+        <v>12.20324577424765</v>
       </c>
       <c r="H35">
-        <v>0.5634530886163833</v>
+        <v>1.083044559556042</v>
       </c>
       <c r="I35">
-        <v>15.88030698958826</v>
+        <v>30.52442241711275</v>
       </c>
       <c r="J35">
-        <v>1.097385224098639</v>
+        <v>2.109345251111755</v>
       </c>
       <c r="K35">
-        <v>5.526836010881476</v>
+        <v>10.62343927840092</v>
       </c>
       <c r="L35">
-        <v>4.646656310874802</v>
+        <v>8.931596861022822</v>
       </c>
       <c r="M35">
-        <v>28.30186433653486</v>
+        <v>54.40058953309994</v>
       </c>
       <c r="N35">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O35">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P35">
-        <v>123.871566755423</v>
+        <v>238.1004366975495</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2132,49 +2132,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>2.712539356341693</v>
+        <v>5.213922954405292</v>
       </c>
       <c r="C36">
-        <v>46.39166554760072</v>
+        <v>89.17200383700502</v>
       </c>
       <c r="D36">
-        <v>0.006432067297078234</v>
+        <v>0.01236343474468332</v>
       </c>
       <c r="E36">
-        <v>2.326487298876157</v>
+        <v>4.471870796043392</v>
       </c>
       <c r="F36">
-        <v>2.026383154194614</v>
+        <v>3.895023907164495</v>
       </c>
       <c r="G36">
-        <v>9.734717968615827</v>
+        <v>18.71164352051306</v>
       </c>
       <c r="H36">
-        <v>0.472082317489402</v>
+        <v>0.9074157120604677</v>
       </c>
       <c r="I36">
-        <v>13.30512207235773</v>
+        <v>25.57451607920258</v>
       </c>
       <c r="J36">
-        <v>0.887247627994644</v>
+        <v>1.705428075366951</v>
       </c>
       <c r="K36">
-        <v>4.46850571092545</v>
+        <v>8.589163671898621</v>
       </c>
       <c r="L36">
-        <v>5.963208932289327</v>
+        <v>11.46221597164595</v>
       </c>
       <c r="M36">
-        <v>36.32072589855308</v>
+        <v>69.81408990081158</v>
       </c>
       <c r="N36">
-        <v>0.04379891551735053</v>
+        <v>0.08418833461718271</v>
       </c>
       <c r="O36">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="P36">
-        <v>125.3511196110638</v>
+        <v>240.9443676356376</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2182,43 +2182,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>2.313314813976887</v>
+        <v>4.446551229260963</v>
       </c>
       <c r="C37">
-        <v>39.56385993273207</v>
+        <v>76.04789843357477</v>
       </c>
       <c r="D37">
-        <v>0.006789404369138136</v>
+        <v>0.01305029223049905</v>
       </c>
       <c r="E37">
-        <v>2.455736593258166</v>
+        <v>4.720308062490248</v>
       </c>
       <c r="F37">
-        <v>1.850175923395081</v>
+        <v>3.556326176106714</v>
       </c>
       <c r="G37">
-        <v>8.888220753953584</v>
+        <v>17.08454408394671</v>
       </c>
       <c r="H37">
-        <v>0.2131984659629559</v>
+        <v>0.4098006441563404</v>
       </c>
       <c r="I37">
-        <v>6.008764806871233</v>
+        <v>11.54978145512375</v>
       </c>
       <c r="J37">
-        <v>0.5603669229439858</v>
+        <v>1.077112468652811</v>
       </c>
       <c r="K37">
-        <v>2.822214133216074</v>
+        <v>5.424734950672812</v>
       </c>
       <c r="L37">
-        <v>3.407547961308187</v>
+        <v>6.5498376980834</v>
       </c>
       <c r="M37">
-        <v>20.75470051345889</v>
+        <v>39.89376565760662</v>
       </c>
       <c r="P37">
-        <v>88.84489022544625</v>
+        <v>170.7737111519056</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2226,43 +2226,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.9625139651535038</v>
+        <v>1.850101693498652</v>
       </c>
       <c r="C38">
-        <v>16.46155874269702</v>
+        <v>31.64167878087275</v>
       </c>
       <c r="D38">
-        <v>0.005717393152958431</v>
+        <v>0.01098971977305184</v>
       </c>
       <c r="E38">
-        <v>2.06798871011214</v>
+        <v>3.974996263149681</v>
       </c>
       <c r="F38">
-        <v>0.2643108461992975</v>
+        <v>0.5080465965866733</v>
       </c>
       <c r="G38">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="H38">
-        <v>0.1827415422539622</v>
+        <v>0.3512576949911488</v>
       </c>
       <c r="I38">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="J38">
-        <v>0.4202751922079893</v>
+        <v>0.8078343514896081</v>
       </c>
       <c r="K38">
-        <v>2.116660599912056</v>
+        <v>4.068551213004609</v>
       </c>
       <c r="L38">
-        <v>2.245883883589487</v>
+        <v>4.316938482827696</v>
       </c>
       <c r="M38">
-        <v>13.67923442932518</v>
+        <v>26.29361827433164</v>
       </c>
       <c r="P38">
-        <v>44.82700096105802</v>
+        <v>86.16447490119538</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2270,43 +2270,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.617977716263329</v>
+        <v>1.187849382757656</v>
       </c>
       <c r="C39">
-        <v>10.56906896548162</v>
+        <v>20.3153960354467</v>
       </c>
       <c r="D39">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E39">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F39">
-        <v>0.2643108461992975</v>
+        <v>0.5080465965866733</v>
       </c>
       <c r="G39">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="H39">
-        <v>0.0913707711269811</v>
+        <v>0.1756288474955744</v>
       </c>
       <c r="I39">
-        <v>2.575184917230528</v>
+        <v>4.949906337910178</v>
       </c>
       <c r="J39">
-        <v>0.2101375961039947</v>
+        <v>0.4039171757448041</v>
       </c>
       <c r="K39">
-        <v>1.058330299956028</v>
+        <v>2.034275606502304</v>
       </c>
       <c r="L39">
-        <v>2.168439611741573</v>
+        <v>4.168078535143982</v>
       </c>
       <c r="M39">
-        <v>13.20753669038294</v>
+        <v>25.3869417821133</v>
       </c>
       <c r="P39">
-        <v>33.19856291956628</v>
+        <v>63.81280656994474</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.6234465456107923</v>
+        <v>1.19836132419799</v>
       </c>
       <c r="C40">
-        <v>10.66260054924694</v>
+        <v>20.49517830124712</v>
       </c>
       <c r="D40">
-        <v>0.006432067297078234</v>
+        <v>0.01236343474468332</v>
       </c>
       <c r="E40">
-        <v>2.326487298876157</v>
+        <v>4.471870796043392</v>
       </c>
       <c r="F40">
-        <v>0.1762072307995315</v>
+        <v>0.3386977310577823</v>
       </c>
       <c r="G40">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="H40">
-        <v>0.1065992329814779</v>
+        <v>0.2049003220781702</v>
       </c>
       <c r="I40">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="J40">
-        <v>0.350229326839991</v>
+        <v>0.6731952929080068</v>
       </c>
       <c r="K40">
-        <v>1.763883833260046</v>
+        <v>3.390459344170508</v>
       </c>
       <c r="L40">
-        <v>3.175215145764448</v>
+        <v>6.103257855032262</v>
       </c>
       <c r="M40">
-        <v>19.33960729663216</v>
+        <v>37.1737361809516</v>
       </c>
       <c r="P40">
-        <v>42.38158814540648</v>
+        <v>81.46401074655975</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,43 +2358,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.2953167847630068</v>
+        <v>0.5676448377779953</v>
       </c>
       <c r="C41">
-        <v>5.050705523327495</v>
+        <v>9.708242353222319</v>
       </c>
       <c r="D41">
-        <v>0.006074730225018334</v>
+        <v>0.01167657725886757</v>
       </c>
       <c r="E41">
-        <v>2.197238004494149</v>
+        <v>4.223433529596536</v>
       </c>
       <c r="F41">
-        <v>0.08810361539976574</v>
+        <v>0.1693488655288911</v>
       </c>
       <c r="G41">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="H41">
-        <v>0.07614230927248422</v>
+        <v>0.1463573729129787</v>
       </c>
       <c r="I41">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="J41">
-        <v>0.3735779486293237</v>
+        <v>0.7180749791018738</v>
       </c>
       <c r="K41">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="L41">
-        <v>3.252659417612361</v>
+        <v>6.252117802715977</v>
       </c>
       <c r="M41">
-        <v>19.8113050355744</v>
+        <v>38.08041267316995</v>
       </c>
       <c r="P41">
-        <v>35.60183549646528</v>
+        <v>68.43227062494225</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2402,31 +2402,31 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.289847955415544</v>
+        <v>0.5571328963376619</v>
       </c>
       <c r="C42">
-        <v>4.957173939562177</v>
+        <v>9.528460087421907</v>
       </c>
       <c r="D42">
-        <v>0.003930707792658921</v>
+        <v>0.007555432343973136</v>
       </c>
       <c r="E42">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="J42">
-        <v>0.3735779486293237</v>
+        <v>0.7180749791018738</v>
       </c>
       <c r="K42">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="L42">
-        <v>2.865438058372793</v>
+        <v>5.507818064297407</v>
       </c>
       <c r="M42">
-        <v>17.45281634086316</v>
+        <v>33.5470302120783</v>
       </c>
       <c r="P42">
-        <v>29.24600327764847</v>
+        <v>56.21537156961173</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2434,43 +2434,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.240628491288376</v>
+        <v>0.462525423374663</v>
       </c>
       <c r="C43">
-        <v>4.115389685674256</v>
+        <v>7.910419695218187</v>
       </c>
       <c r="D43">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E43">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F43">
-        <v>0.08810361539976574</v>
+        <v>0.1693488655288911</v>
       </c>
       <c r="G43">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="H43">
-        <v>0.04568538556349055</v>
+        <v>0.0878144237477872</v>
       </c>
       <c r="I43">
-        <v>1.287592458615264</v>
+        <v>2.474953168955089</v>
       </c>
       <c r="J43">
-        <v>0.350229326839991</v>
+        <v>0.6731952929080068</v>
       </c>
       <c r="K43">
-        <v>1.763883833260046</v>
+        <v>3.390459344170508</v>
       </c>
       <c r="L43">
-        <v>3.872213592395668</v>
+        <v>7.442997384185683</v>
       </c>
       <c r="M43">
-        <v>23.58488694711238</v>
+        <v>45.33382461091661</v>
       </c>
       <c r="P43">
-        <v>36.93832162656697</v>
+        <v>71.00120504268264</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2478,43 +2478,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.3910212983436109</v>
+        <v>0.7516038129838274</v>
       </c>
       <c r="C44">
-        <v>6.68750823922067</v>
+        <v>12.85443200472956</v>
       </c>
       <c r="D44">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E44">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F44">
-        <v>0.352414461599063</v>
+        <v>0.6773954621155646</v>
       </c>
       <c r="G44">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="H44">
-        <v>0.06091384741798739</v>
+        <v>0.117085898330383</v>
       </c>
       <c r="I44">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="J44">
-        <v>0.5837155447333185</v>
+        <v>1.121992154846678</v>
       </c>
       <c r="K44">
-        <v>2.939806388766743</v>
+        <v>5.650765573617513</v>
       </c>
       <c r="L44">
-        <v>5.34365475750602</v>
+        <v>10.27133639017624</v>
       </c>
       <c r="M44">
-        <v>32.54714398701509</v>
+        <v>62.56067796306492</v>
       </c>
       <c r="P44">
-        <v>53.09360268747176</v>
+        <v>102.0541704352002</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2522,49 +2522,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.129313260251128</v>
+        <v>2.170715907428815</v>
       </c>
       <c r="C45">
-        <v>19.31427204753942</v>
+        <v>37.12503788778535</v>
       </c>
       <c r="D45">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E45">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F45">
-        <v>1.145347000196955</v>
+        <v>2.201535251875585</v>
       </c>
       <c r="G45">
-        <v>5.502231895304599</v>
+        <v>10.57614633768129</v>
       </c>
       <c r="H45">
-        <v>0.2741123133809433</v>
+        <v>0.5268865424867232</v>
       </c>
       <c r="I45">
-        <v>7.725554751691584</v>
+        <v>14.84971901373054</v>
       </c>
       <c r="J45">
-        <v>1.050687980519973</v>
+        <v>2.01958587872402</v>
       </c>
       <c r="K45">
-        <v>5.291651499780137</v>
+        <v>10.17137803251152</v>
       </c>
       <c r="L45">
-        <v>11.22941941794743</v>
+        <v>21.58469241413848</v>
       </c>
       <c r="M45">
-        <v>68.3961721466259</v>
+        <v>131.4680913716582</v>
       </c>
       <c r="N45">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O45">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P45">
-        <v>122.0817359881385</v>
+        <v>234.6601033065417</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,49 +2572,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>2.559412134612725</v>
+        <v>4.919588594075958</v>
       </c>
       <c r="C46">
-        <v>43.77278120217164</v>
+        <v>84.13810039459345</v>
       </c>
       <c r="D46">
-        <v>0.001072011216179706</v>
+        <v>0.00206057245744722</v>
       </c>
       <c r="E46">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="F46">
-        <v>2.731212077392738</v>
+        <v>5.249814831395623</v>
       </c>
       <c r="G46">
-        <v>13.12070682726482</v>
+        <v>25.22004126677848</v>
       </c>
       <c r="H46">
-        <v>0.7309661690158488</v>
+        <v>1.405030779964595</v>
       </c>
       <c r="I46">
-        <v>20.60147933784422</v>
+        <v>39.59925070328142</v>
       </c>
       <c r="J46">
-        <v>2.218119069986611</v>
+        <v>4.263570188417375</v>
       </c>
       <c r="K46">
-        <v>11.17126427731363</v>
+        <v>21.47290917974655</v>
       </c>
       <c r="L46">
-        <v>12.39108349566614</v>
+        <v>23.81759162939419</v>
       </c>
       <c r="M46">
-        <v>75.47163823075961</v>
+        <v>145.0682387549332</v>
       </c>
       <c r="N46">
-        <v>0.04379891551735053</v>
+        <v>0.08418833461718271</v>
       </c>
       <c r="O46">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="P46">
-        <v>185.8934843749182</v>
+        <v>357.3162184691544</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2622,49 +2622,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>3.710600712253707</v>
+        <v>7.132352267266108</v>
       </c>
       <c r="C47">
-        <v>63.46117958477237</v>
+        <v>121.9822673455804</v>
       </c>
       <c r="D47">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E47">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F47">
-        <v>2.643108461992974</v>
+        <v>5.080465965866733</v>
       </c>
       <c r="G47">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="H47">
-        <v>0.6091384741798738</v>
+        <v>1.170858983303829</v>
       </c>
       <c r="I47">
-        <v>17.16789944820352</v>
+        <v>32.99937558606786</v>
       </c>
       <c r="J47">
-        <v>2.054678717461281</v>
+        <v>3.949412385060307</v>
       </c>
       <c r="K47">
-        <v>10.34811848845894</v>
+        <v>19.89069481913365</v>
       </c>
       <c r="L47">
-        <v>7.821871456639248</v>
+        <v>15.03485471605508</v>
       </c>
       <c r="M47">
-        <v>47.64147163316701</v>
+        <v>91.57432571405154</v>
       </c>
       <c r="N47">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O47">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P47">
-        <v>170.4190476795752</v>
+        <v>327.571941946968</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2672,49 +2672,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>4.197326524177924</v>
+        <v>8.067915055455769</v>
       </c>
       <c r="C48">
-        <v>71.78549053988623</v>
+        <v>137.9828890018172</v>
       </c>
       <c r="D48">
-        <v>0.005002719008838628</v>
+        <v>0.009616004801420356</v>
       </c>
       <c r="E48">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="F48">
-        <v>2.907419308192271</v>
+        <v>5.588512562453404</v>
       </c>
       <c r="G48">
-        <v>13.96720404192706</v>
+        <v>26.84714070334483</v>
       </c>
       <c r="H48">
-        <v>0.4873107793438991</v>
+        <v>0.9366871866430636</v>
       </c>
       <c r="I48">
-        <v>13.73431955856281</v>
+        <v>26.39950046885427</v>
       </c>
       <c r="J48">
-        <v>2.358210800722607</v>
+        <v>4.532848305580579</v>
       </c>
       <c r="K48">
-        <v>11.87681781061764</v>
+        <v>22.82909291741474</v>
       </c>
       <c r="L48">
-        <v>7.047428738160116</v>
+        <v>13.54625523921795</v>
       </c>
       <c r="M48">
-        <v>42.92449424374453</v>
+        <v>82.50756079186823</v>
       </c>
       <c r="N48">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O48">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P48">
-        <v>173.5911829580441</v>
+        <v>333.6692798175578</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2722,49 +2722,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>3.013324970452164</v>
+        <v>5.792079733623619</v>
       </c>
       <c r="C49">
-        <v>51.53590265469354</v>
+        <v>99.06002845602767</v>
       </c>
       <c r="D49">
-        <v>0.006074730225018334</v>
+        <v>0.01167657725886757</v>
       </c>
       <c r="E49">
-        <v>2.197238004494149</v>
+        <v>4.223433529596536</v>
       </c>
       <c r="F49">
-        <v>3.347937385191099</v>
+        <v>6.435256890097863</v>
       </c>
       <c r="G49">
-        <v>16.08344707858267</v>
+        <v>30.91488929476071</v>
       </c>
       <c r="H49">
-        <v>0.3350261607989307</v>
+        <v>0.6439724408171064</v>
       </c>
       <c r="I49">
-        <v>9.442344696511936</v>
+        <v>18.14965657233732</v>
       </c>
       <c r="J49">
-        <v>2.965274967245257</v>
+        <v>5.699720146621125</v>
       </c>
       <c r="K49">
-        <v>14.93421645493506</v>
+        <v>28.70588911397696</v>
       </c>
       <c r="L49">
-        <v>9.525645437293342</v>
+        <v>18.30977356509678</v>
       </c>
       <c r="M49">
-        <v>58.01882188989646</v>
+        <v>111.5212085428549</v>
       </c>
       <c r="N49">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O49">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P49">
-        <v>171.8959222026717</v>
+        <v>330.4107247129198</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.803829502672511</v>
+        <v>1.051534717836999</v>
       </c>
       <c r="C2">
-        <v>30.85030076973261</v>
+        <v>17.98405130142552</v>
       </c>
       <c r="D2">
-        <v>0.007452724682542744</v>
+        <v>0.004344534078505539</v>
       </c>
       <c r="E2">
-        <v>2.69566043312896</v>
+        <v>1.57142375636665</v>
       </c>
       <c r="F2">
-        <v>2.654187359737854</v>
+        <v>1.547247205056486</v>
       </c>
       <c r="G2">
-        <v>12.75068109869988</v>
+        <v>7.432955183118072</v>
       </c>
       <c r="H2">
-        <v>0.09410642295713023</v>
+        <v>0.05485893803392396</v>
       </c>
       <c r="I2">
-        <v>2.65228626205779</v>
+        <v>1.546138968269347</v>
       </c>
       <c r="J2">
-        <v>2.308577502906959</v>
+        <v>1.345775412547312</v>
       </c>
       <c r="K2">
-        <v>11.62684624941712</v>
+        <v>6.777820449272613</v>
       </c>
       <c r="L2">
-        <v>5.204533311072646</v>
+        <v>3.033960503819091</v>
       </c>
       <c r="M2">
-        <v>31.6997827793344</v>
+        <v>18.47925321710037</v>
       </c>
       <c r="N2">
-        <v>0.07894295551330842</v>
+        <v>0.04601945933799063</v>
       </c>
       <c r="O2">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="P2">
-        <v>105.6748102799749</v>
+        <v>61.60268010119468</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.85241039091779</v>
+        <v>1.079854739511765</v>
       </c>
       <c r="C3">
-        <v>31.68116367102517</v>
+        <v>18.46839928729529</v>
       </c>
       <c r="D3">
-        <v>0.008832858883013626</v>
+        <v>0.005149077426376933</v>
       </c>
       <c r="E3">
-        <v>3.194856809634324</v>
+        <v>1.862428155693807</v>
       </c>
       <c r="F3">
-        <v>2.041682584413735</v>
+        <v>1.190190157735759</v>
       </c>
       <c r="G3">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="H3">
-        <v>0.1293963315660541</v>
+        <v>0.07543103979664546</v>
       </c>
       <c r="I3">
-        <v>3.64689361032946</v>
+        <v>2.125941081370352</v>
       </c>
       <c r="J3">
-        <v>2.001969553302128</v>
+        <v>1.167039615568373</v>
       </c>
       <c r="K3">
-        <v>10.08265573191641</v>
+        <v>5.877641170853595</v>
       </c>
       <c r="L3">
-        <v>4.426844425510066</v>
+        <v>2.580610083708192</v>
       </c>
       <c r="M3">
-        <v>26.96303362839938</v>
+        <v>15.71798549500491</v>
       </c>
       <c r="N3">
-        <v>0.03383269521998933</v>
+        <v>0.0197226254305674</v>
       </c>
       <c r="O3">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="P3">
-        <v>96.40648405291289</v>
+        <v>56.19974884324843</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.871420303709419</v>
+        <v>1.090936487123631</v>
       </c>
       <c r="C4">
-        <v>32.00628393674835</v>
+        <v>18.65792676002694</v>
       </c>
       <c r="D4">
-        <v>0.01048901992357868</v>
+        <v>0.006114529443822608</v>
       </c>
       <c r="E4">
-        <v>3.79389246144076</v>
+        <v>2.211633434886397</v>
       </c>
       <c r="F4">
-        <v>2.177794756707983</v>
+        <v>1.269536168251475</v>
       </c>
       <c r="G4">
-        <v>10.46209731175375</v>
+        <v>6.098835022045596</v>
       </c>
       <c r="H4">
-        <v>0.1293963315660541</v>
+        <v>0.07543103979664546</v>
       </c>
       <c r="I4">
-        <v>3.64689361032946</v>
+        <v>2.125941081370352</v>
       </c>
       <c r="J4">
-        <v>1.911790744594825</v>
+        <v>1.114470263515743</v>
       </c>
       <c r="K4">
-        <v>9.628482050298549</v>
+        <v>5.612882559553884</v>
       </c>
       <c r="L4">
-        <v>4.905422201240881</v>
+        <v>2.859594957622593</v>
       </c>
       <c r="M4">
-        <v>29.87795618282093</v>
+        <v>17.41722717014057</v>
       </c>
       <c r="N4">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O4">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P4">
-        <v>100.8009377292987</v>
+        <v>58.76147687785474</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.192476608634739</v>
+        <v>1.278094891235135</v>
       </c>
       <c r="C5">
-        <v>37.49720398007314</v>
+        <v>21.8588351883837</v>
       </c>
       <c r="D5">
-        <v>0.009384912563201977</v>
+        <v>0.005470894765525493</v>
       </c>
       <c r="E5">
-        <v>3.394535360236469</v>
+        <v>1.978829915424671</v>
       </c>
       <c r="F5">
-        <v>3.062523876620601</v>
+        <v>1.785285236603637</v>
       </c>
       <c r="G5">
-        <v>14.71232434465371</v>
+        <v>8.57648674975162</v>
       </c>
       <c r="H5">
-        <v>0.1764495430446192</v>
+        <v>0.1028605088136075</v>
       </c>
       <c r="I5">
-        <v>4.973036741358356</v>
+        <v>2.899010565505026</v>
       </c>
       <c r="J5">
-        <v>2.488935120321565</v>
+        <v>1.450914116652571</v>
       </c>
       <c r="K5">
-        <v>12.53519361265283</v>
+        <v>7.307337671872037</v>
       </c>
       <c r="L5">
-        <v>5.144711089106293</v>
+        <v>2.999087394579792</v>
       </c>
       <c r="M5">
-        <v>31.33541746003171</v>
+        <v>18.2668480077084</v>
       </c>
       <c r="N5">
-        <v>0.09022052058663815</v>
+        <v>0.05259366781484644</v>
       </c>
       <c r="O5">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="P5">
-        <v>119.0382679219538</v>
+        <v>69.39285075760405</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.148120145454267</v>
+        <v>1.252237480140782</v>
       </c>
       <c r="C6">
-        <v>36.73859002671903</v>
+        <v>21.41660441867653</v>
       </c>
       <c r="D6">
-        <v>0.008004778362731097</v>
+        <v>0.004666351417654098</v>
       </c>
       <c r="E6">
-        <v>2.895338983731107</v>
+        <v>1.687825516097514</v>
       </c>
       <c r="F6">
-        <v>2.722243445884978</v>
+        <v>1.586920210314344</v>
       </c>
       <c r="G6">
-        <v>13.07762163969219</v>
+        <v>7.623543777556994</v>
       </c>
       <c r="H6">
-        <v>0.1529229373053366</v>
+        <v>0.08914577430512644</v>
       </c>
       <c r="I6">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="J6">
-        <v>2.416792073355722</v>
+        <v>1.408858635010468</v>
       </c>
       <c r="K6">
-        <v>12.17185466735855</v>
+        <v>7.095530782832268</v>
       </c>
       <c r="L6">
-        <v>5.204533311072646</v>
+        <v>3.033960503819091</v>
       </c>
       <c r="M6">
-        <v>31.6997827793344</v>
+        <v>18.47925321710037</v>
       </c>
       <c r="N6">
-        <v>0.06766539043997866</v>
+        <v>0.0394452508611348</v>
       </c>
       <c r="O6">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="P6">
-        <v>114.6828264186073</v>
+        <v>66.85386470294009</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.445942112523148</v>
+        <v>1.425851526060006</v>
       </c>
       <c r="C7">
-        <v>41.83214085638214</v>
+        <v>24.38586815813905</v>
       </c>
       <c r="D7">
-        <v>0.007728751522636923</v>
+        <v>0.004505442748079817</v>
       </c>
       <c r="E7">
-        <v>2.795499708430033</v>
+        <v>1.629624636232081</v>
       </c>
       <c r="F7">
-        <v>2.926411704326352</v>
+        <v>1.70593922608792</v>
       </c>
       <c r="G7">
-        <v>14.0584432626691</v>
+        <v>8.195309560873769</v>
       </c>
       <c r="H7">
-        <v>0.1646862401749778</v>
+        <v>0.09600314155936693</v>
       </c>
       <c r="I7">
-        <v>4.641500958601131</v>
+        <v>2.705743194471358</v>
       </c>
       <c r="J7">
-        <v>1.983933791560669</v>
+        <v>1.156525745157847</v>
       </c>
       <c r="K7">
-        <v>9.991820995592834</v>
+        <v>5.824689448593653</v>
       </c>
       <c r="L7">
-        <v>4.606311091409123</v>
+        <v>2.685229411426092</v>
       </c>
       <c r="M7">
-        <v>28.05612958630747</v>
+        <v>16.35520112318078</v>
       </c>
       <c r="N7">
-        <v>0.1127756507332977</v>
+        <v>0.06574208476855803</v>
       </c>
       <c r="O7">
-        <v>1.782318440087441</v>
+        <v>1.038994935616866</v>
       </c>
       <c r="P7">
-        <v>115.4056431503203</v>
+        <v>67.27522763491544</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>2.716305316670784</v>
+        <v>1.583458603206535</v>
       </c>
       <c r="C8">
-        <v>46.4560735244451</v>
+        <v>27.08136999254476</v>
       </c>
       <c r="D8">
-        <v>0.006072590482071868</v>
+        <v>0.003539990730634142</v>
       </c>
       <c r="E8">
-        <v>2.196464056623598</v>
+        <v>1.280419357039493</v>
       </c>
       <c r="F8">
-        <v>4.015309082680342</v>
+        <v>2.340707310213657</v>
       </c>
       <c r="G8">
-        <v>19.28949191854597</v>
+        <v>11.24472707189656</v>
       </c>
       <c r="H8">
-        <v>0.2705559660017494</v>
+        <v>0.1577194468475314</v>
       </c>
       <c r="I8">
-        <v>7.625323003416145</v>
+        <v>4.445149533774374</v>
       </c>
       <c r="J8">
-        <v>2.128219885492353</v>
+        <v>1.240636708442054</v>
       </c>
       <c r="K8">
-        <v>10.7184988861814</v>
+        <v>6.248303226673191</v>
       </c>
       <c r="L8">
-        <v>3.23039998618302</v>
+        <v>1.883147898922195</v>
       </c>
       <c r="M8">
-        <v>19.67572724234549</v>
+        <v>11.46988130716574</v>
       </c>
       <c r="N8">
-        <v>0.1240532158066275</v>
+        <v>0.07231629324541386</v>
       </c>
       <c r="O8">
-        <v>1.960550284096186</v>
+        <v>1.142894429178552</v>
       </c>
       <c r="P8">
-        <v>120.4130449589708</v>
+        <v>70.19427116988071</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.149308885813482</v>
+        <v>1.835876187699023</v>
       </c>
       <c r="C9">
-        <v>53.86159068813971</v>
+        <v>31.39838464921013</v>
       </c>
       <c r="D9">
-        <v>0.003864375761318462</v>
+        <v>0.002252721374039908</v>
       </c>
       <c r="E9">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="F9">
-        <v>3.3347482212091</v>
+        <v>1.943977257635072</v>
       </c>
       <c r="G9">
-        <v>16.02008650862293</v>
+        <v>9.338841127507319</v>
       </c>
       <c r="H9">
-        <v>0.3293724803499556</v>
+        <v>0.1920062831187339</v>
       </c>
       <c r="I9">
-        <v>9.283001917202261</v>
+        <v>5.411486388942715</v>
       </c>
       <c r="J9">
-        <v>1.046074181004716</v>
+        <v>0.6098044838105009</v>
       </c>
       <c r="K9">
-        <v>5.268414706767133</v>
+        <v>3.071199891076654</v>
       </c>
       <c r="L9">
-        <v>2.811644432418556</v>
+        <v>1.639036134247096</v>
       </c>
       <c r="M9">
-        <v>17.12517000722663</v>
+        <v>9.983044841422036</v>
       </c>
       <c r="N9">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O9">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P9">
-        <v>114.3890638950591</v>
+        <v>66.68261709231352</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.527394929113691</v>
+        <v>2.056279834646122</v>
       </c>
       <c r="C10">
-        <v>60.32787152863403</v>
+        <v>35.16787549576184</v>
       </c>
       <c r="D10">
-        <v>0.003588348921224285</v>
+        <v>0.00209181270446563</v>
       </c>
       <c r="E10">
-        <v>1.297910578913944</v>
+        <v>0.7566114382506091</v>
       </c>
       <c r="F10">
-        <v>2.10973867056086</v>
+        <v>1.229863162993617</v>
       </c>
       <c r="G10">
-        <v>10.13515677076144</v>
+        <v>5.90824642760667</v>
       </c>
       <c r="H10">
-        <v>0.4822954176552923</v>
+        <v>0.2811520574238604</v>
       </c>
       <c r="I10">
-        <v>13.59296709304617</v>
+        <v>7.923962212380405</v>
       </c>
       <c r="J10">
-        <v>0.7033947079169642</v>
+        <v>0.4100409460105093</v>
       </c>
       <c r="K10">
-        <v>3.542554716619278</v>
+        <v>2.06511716813775</v>
       </c>
       <c r="L10">
-        <v>3.170577764216669</v>
+        <v>1.848274789682894</v>
       </c>
       <c r="M10">
-        <v>19.3113619230428</v>
+        <v>11.25747609777379</v>
       </c>
       <c r="N10">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O10">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P10">
-        <v>118.5838312675665</v>
+        <v>69.12793884744961</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.452278750120358</v>
+        <v>1.429545441930627</v>
       </c>
       <c r="C11">
-        <v>41.94051427828987</v>
+        <v>24.44904398238294</v>
       </c>
       <c r="D11">
-        <v>0.004692456281600988</v>
+        <v>0.002735447382762747</v>
       </c>
       <c r="E11">
-        <v>1.697267680118234</v>
+        <v>0.9894149577123353</v>
       </c>
       <c r="F11">
-        <v>1.088897378353991</v>
+        <v>0.6347680841257377</v>
       </c>
       <c r="G11">
-        <v>5.231048655876874</v>
+        <v>3.049417511022798</v>
       </c>
       <c r="H11">
-        <v>0.4705321147856511</v>
+        <v>0.2742946901696199</v>
       </c>
       <c r="I11">
-        <v>13.26143131028895</v>
+        <v>7.730694841346736</v>
       </c>
       <c r="J11">
-        <v>0.7214304696584248</v>
+        <v>0.4205548164210353</v>
       </c>
       <c r="K11">
-        <v>3.63338945294285</v>
+        <v>2.118068890397692</v>
       </c>
       <c r="L11">
-        <v>3.23039998618302</v>
+        <v>1.883147898922195</v>
       </c>
       <c r="M11">
-        <v>19.67572724234549</v>
+        <v>11.46988130716574</v>
       </c>
       <c r="N11">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O11">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P11">
-        <v>93.78662859340946</v>
+        <v>54.6725152730573</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.945347742343541</v>
+        <v>1.134032172280885</v>
       </c>
       <c r="C12">
-        <v>33.27064052567183</v>
+        <v>19.39497804287225</v>
       </c>
       <c r="D12">
-        <v>0.005796563641977691</v>
+        <v>0.003379082061059863</v>
       </c>
       <c r="E12">
-        <v>2.096624781322525</v>
+        <v>1.222218477174061</v>
       </c>
       <c r="F12">
-        <v>1.633346067530988</v>
+        <v>0.9521521261886067</v>
       </c>
       <c r="G12">
-        <v>7.846572983815314</v>
+        <v>4.574126266534197</v>
       </c>
       <c r="H12">
-        <v>0.3528990860892383</v>
+        <v>0.205721017627215</v>
       </c>
       <c r="I12">
-        <v>9.946073482716711</v>
+        <v>5.798021131010052</v>
       </c>
       <c r="J12">
-        <v>0.4869655670194367</v>
+        <v>0.2838745010841988</v>
       </c>
       <c r="K12">
-        <v>2.452537880736423</v>
+        <v>1.429696501018442</v>
       </c>
       <c r="L12">
-        <v>4.486666647476418</v>
+        <v>2.615483192947493</v>
       </c>
       <c r="M12">
-        <v>27.32739894770208</v>
+        <v>15.93039070439687</v>
       </c>
       <c r="P12">
-        <v>91.85087027606649</v>
+        <v>53.54407321519533</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,43 +1024,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.721453213908778</v>
+        <v>1.003513811518916</v>
       </c>
       <c r="C13">
-        <v>29.44144628493219</v>
+        <v>17.16276558625503</v>
       </c>
       <c r="D13">
-        <v>0.006072590482071868</v>
+        <v>0.003539990730634142</v>
       </c>
       <c r="E13">
-        <v>2.196464056623598</v>
+        <v>1.280419357039493</v>
       </c>
       <c r="F13">
-        <v>1.22500955064824</v>
+        <v>0.7141140946414548</v>
       </c>
       <c r="G13">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="H13">
-        <v>0.1176330286964128</v>
+        <v>0.06857367254240498</v>
       </c>
       <c r="I13">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="J13">
-        <v>0.5050013287608973</v>
+        <v>0.2943883714947246</v>
       </c>
       <c r="K13">
-        <v>2.543372617059995</v>
+        <v>1.482648223278385</v>
       </c>
       <c r="L13">
-        <v>2.632177766519498</v>
+        <v>1.534416806529196</v>
       </c>
       <c r="M13">
-        <v>16.03207404931855</v>
+        <v>9.34582921324616</v>
       </c>
       <c r="P13">
-        <v>65.62099205238395</v>
+        <v>38.25347753751373</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.092013879252563</v>
+        <v>0.6365848350371531</v>
       </c>
       <c r="C14">
-        <v>18.67635304209808</v>
+        <v>10.88730037802926</v>
       </c>
       <c r="D14">
-        <v>0.004968483121695164</v>
+        <v>0.002896356052337025</v>
       </c>
       <c r="E14">
-        <v>1.797106955419307</v>
+        <v>1.047615837577766</v>
       </c>
       <c r="F14">
-        <v>0.8847291199126182</v>
+        <v>0.5157490683521622</v>
       </c>
       <c r="G14">
-        <v>4.250227032899961</v>
+        <v>2.477651727706023</v>
       </c>
       <c r="H14">
-        <v>0.1764495430446192</v>
+        <v>0.1028605088136075</v>
       </c>
       <c r="I14">
-        <v>4.973036741358356</v>
+        <v>2.899010565505026</v>
       </c>
       <c r="J14">
-        <v>0.4148225200535943</v>
+        <v>0.2418190194420952</v>
       </c>
       <c r="K14">
-        <v>2.089198935442139</v>
+        <v>1.217889611978672</v>
       </c>
       <c r="L14">
-        <v>3.050933320283964</v>
+        <v>1.778528571204295</v>
       </c>
       <c r="M14">
-        <v>18.5826312844374</v>
+        <v>10.83266567898987</v>
       </c>
       <c r="P14">
-        <v>55.9924708573243</v>
+        <v>32.64057215868827</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.692805710628318</v>
+        <v>0.403868135187981</v>
       </c>
       <c r="C15">
-        <v>11.84882746191136</v>
+        <v>6.907223450664603</v>
       </c>
       <c r="D15">
-        <v>0.004968483121695164</v>
+        <v>0.002896356052337025</v>
       </c>
       <c r="E15">
-        <v>1.797106955419307</v>
+        <v>1.047615837577766</v>
       </c>
       <c r="F15">
-        <v>0.2041682584413735</v>
+        <v>0.1190190157735758</v>
       </c>
       <c r="G15">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="H15">
-        <v>0.1058697258267715</v>
+        <v>0.06171630528816445</v>
       </c>
       <c r="I15">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="J15">
-        <v>0.1983933791560668</v>
+        <v>0.1156525745157847</v>
       </c>
       <c r="K15">
-        <v>0.9991820995592837</v>
+        <v>0.5824689448593653</v>
       </c>
       <c r="L15">
-        <v>2.213422212755033</v>
+        <v>1.290305041854096</v>
       </c>
       <c r="M15">
-        <v>13.48151681419969</v>
+        <v>7.858992747502455</v>
       </c>
       <c r="P15">
-        <v>35.51090476881082</v>
+        <v>20.70093053189591</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,49 +1156,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.3400662177169488</v>
+        <v>0.1982401517233686</v>
       </c>
       <c r="C16">
-        <v>5.816040309047951</v>
+        <v>3.390435901088416</v>
       </c>
       <c r="D16">
-        <v>0.004692456281600988</v>
+        <v>0.002735447382762747</v>
       </c>
       <c r="E16">
-        <v>1.697267680118234</v>
+        <v>0.9894149577123353</v>
       </c>
       <c r="F16">
-        <v>0.06805608614712447</v>
+        <v>0.03967300525785861</v>
       </c>
       <c r="G16">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="H16">
-        <v>0.08234312008748891</v>
+        <v>0.04800157077968346</v>
       </c>
       <c r="I16">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="J16">
-        <v>0.3607152348292124</v>
+        <v>0.2102774082105177</v>
       </c>
       <c r="K16">
-        <v>1.816694726471425</v>
+        <v>1.059034445198846</v>
       </c>
       <c r="L16">
-        <v>2.093777768822327</v>
+        <v>1.220558823375497</v>
       </c>
       <c r="M16">
-        <v>12.7527861755943</v>
+        <v>7.434182328718538</v>
       </c>
       <c r="N16">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O16">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P16">
-        <v>27.86964020449155</v>
+        <v>16.24648793316097</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1206,43 +1206,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.2407922286939886</v>
+        <v>0.1403688030836276</v>
       </c>
       <c r="C17">
-        <v>4.118190032493581</v>
+        <v>2.400681321267573</v>
       </c>
       <c r="D17">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E17">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F17">
-        <v>0.1361121722942489</v>
+        <v>0.07934601051571721</v>
       </c>
       <c r="G17">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="H17">
-        <v>0.04705321147856512</v>
+        <v>0.02742946901696198</v>
       </c>
       <c r="I17">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="J17">
-        <v>0.3787509965706731</v>
+        <v>0.2207912786210435</v>
       </c>
       <c r="K17">
-        <v>1.907529462794996</v>
+        <v>1.111986167458788</v>
       </c>
       <c r="L17">
-        <v>2.033955546855976</v>
+        <v>1.185685714136197</v>
       </c>
       <c r="M17">
-        <v>12.3884208562916</v>
+        <v>7.22177711932658</v>
       </c>
       <c r="P17">
-        <v>24.13186643975763</v>
+        <v>14.06756865325406</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,37 +1250,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1668647900598694</v>
+        <v>0.0972731179263734</v>
       </c>
       <c r="C18">
-        <v>2.853833443570113</v>
+        <v>1.663630038422267</v>
       </c>
       <c r="D18">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E18">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F18">
-        <v>0.2041682584413735</v>
+        <v>0.1190190157735758</v>
       </c>
       <c r="G18">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="J18">
-        <v>0.3246437113462912</v>
+        <v>0.1892496673894658</v>
       </c>
       <c r="K18">
-        <v>1.635025253824282</v>
+        <v>0.9531310006789613</v>
       </c>
       <c r="L18">
-        <v>1.794666658990567</v>
+        <v>1.046193277178997</v>
       </c>
       <c r="M18">
-        <v>10.93095957908083</v>
+        <v>6.372156281758746</v>
       </c>
       <c r="P18">
-        <v>19.49167513113725</v>
+        <v>11.3625889136552</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,43 +1288,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1520793023330455</v>
+        <v>0.0886539808949226</v>
       </c>
       <c r="C19">
-        <v>2.600962125785418</v>
+        <v>1.516219781853205</v>
       </c>
       <c r="D19">
-        <v>0.002760268400941758</v>
+        <v>0.001609086695742792</v>
       </c>
       <c r="E19">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="F19">
-        <v>0.2041682584413735</v>
+        <v>0.1190190157735758</v>
       </c>
       <c r="G19">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="H19">
-        <v>0.02352660573928256</v>
+        <v>0.01371473450848099</v>
       </c>
       <c r="I19">
-        <v>0.6630715655144475</v>
+        <v>0.3865347420673367</v>
       </c>
       <c r="J19">
-        <v>0.3066079496048305</v>
+        <v>0.17873579697894</v>
       </c>
       <c r="K19">
-        <v>1.544190517500711</v>
+        <v>0.9001792784190192</v>
       </c>
       <c r="L19">
-        <v>2.751822210452202</v>
+        <v>1.604163025007795</v>
       </c>
       <c r="M19">
-        <v>16.76080468792394</v>
+        <v>9.770639632030079</v>
       </c>
       <c r="P19">
-        <v>26.98920786768383</v>
+        <v>15.73324365620019</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1332,49 +1332,49 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.2619143540180229</v>
+        <v>0.1526818559857001</v>
       </c>
       <c r="C20">
-        <v>4.479434772185998</v>
+        <v>2.61126740208052</v>
       </c>
       <c r="D20">
-        <v>0.002760268400941758</v>
+        <v>0.001609086695742792</v>
       </c>
       <c r="E20">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="F20">
-        <v>0.2041682584413735</v>
+        <v>0.1190190157735758</v>
       </c>
       <c r="G20">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="H20">
-        <v>0.04705321147856512</v>
+        <v>0.02742946901696198</v>
       </c>
       <c r="I20">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="J20">
-        <v>0.4689298052779761</v>
+        <v>0.2733606306736728</v>
       </c>
       <c r="K20">
-        <v>2.361703144412852</v>
+        <v>1.3767447787585</v>
       </c>
       <c r="L20">
-        <v>5.025066645173586</v>
+        <v>2.92934117610119</v>
       </c>
       <c r="M20">
-        <v>30.60668682142632</v>
+        <v>17.84203758892449</v>
       </c>
       <c r="N20">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O20">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P20">
-        <v>46.95258419691424</v>
+        <v>27.37080877215466</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,49 +1382,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.8596705006881878</v>
+        <v>0.5011412531143541</v>
       </c>
       <c r="C21">
-        <v>14.70266090548146</v>
+        <v>8.57085348908687</v>
       </c>
       <c r="D21">
-        <v>0.002760268400941758</v>
+        <v>0.001609086695742792</v>
       </c>
       <c r="E21">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="F21">
-        <v>0.6805608614712445</v>
+        <v>0.396730052578586</v>
       </c>
       <c r="G21">
-        <v>3.269405409923047</v>
+        <v>1.905885944389248</v>
       </c>
       <c r="H21">
-        <v>0.2352660573928256</v>
+        <v>0.13714734508481</v>
       </c>
       <c r="I21">
-        <v>6.630715655144473</v>
+        <v>3.865347420673368</v>
       </c>
       <c r="J21">
-        <v>0.5591086139852791</v>
+        <v>0.3259299827263023</v>
       </c>
       <c r="K21">
-        <v>2.815876826030709</v>
+        <v>1.641503390058211</v>
       </c>
       <c r="L21">
-        <v>7.298311079894976</v>
+        <v>4.254519327194589</v>
       </c>
       <c r="M21">
-        <v>44.45256895492871</v>
+        <v>25.9134355458189</v>
       </c>
       <c r="N21">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O21">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P21">
-        <v>82.69480729543464</v>
+        <v>48.20658533811384</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1432,49 +1432,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.920001191954698</v>
+        <v>1.119256508798399</v>
       </c>
       <c r="C22">
-        <v>32.83714683804092</v>
+        <v>19.14227474589673</v>
       </c>
       <c r="D22">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E22">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F22">
-        <v>1.837514325972361</v>
+        <v>1.071171141962182</v>
       </c>
       <c r="G22">
-        <v>8.827394606792224</v>
+        <v>5.145892049850972</v>
       </c>
       <c r="H22">
-        <v>0.5058220233945749</v>
+        <v>0.2948667919323414</v>
       </c>
       <c r="I22">
-        <v>14.25603865856062</v>
+        <v>8.310496954447743</v>
       </c>
       <c r="J22">
-        <v>1.551075509765613</v>
+        <v>0.9041928553052256</v>
       </c>
       <c r="K22">
-        <v>7.811787323827126</v>
+        <v>4.553848114355038</v>
       </c>
       <c r="L22">
-        <v>7.896533299558492</v>
+        <v>4.603250419587589</v>
       </c>
       <c r="M22">
-        <v>48.09622214795564</v>
+        <v>28.03748763973849</v>
       </c>
       <c r="N22">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O22">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P22">
-        <v>127.0984959792799</v>
+        <v>74.09152633830892</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1482,49 +1482,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.997229583480439</v>
+        <v>1.7472222068041</v>
       </c>
       <c r="C23">
-        <v>51.26062856235433</v>
+        <v>29.88216486735691</v>
       </c>
       <c r="D23">
-        <v>0.003864375761318462</v>
+        <v>0.002252721374039908</v>
       </c>
       <c r="E23">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="F23">
-        <v>2.654187359737854</v>
+        <v>1.547247205056486</v>
       </c>
       <c r="G23">
-        <v>12.75068109869988</v>
+        <v>7.432955183118072</v>
       </c>
       <c r="H23">
-        <v>0.4587688119160099</v>
+        <v>0.2674373229153794</v>
       </c>
       <c r="I23">
-        <v>12.92989552753173</v>
+        <v>7.537427470313067</v>
       </c>
       <c r="J23">
-        <v>1.713397365438759</v>
+        <v>0.9988176889999585</v>
       </c>
       <c r="K23">
-        <v>8.629299950739266</v>
+        <v>5.030413614694518</v>
       </c>
       <c r="L23">
-        <v>6.700088860231451</v>
+        <v>3.90578823480159</v>
       </c>
       <c r="M23">
-        <v>40.80891576190176</v>
+        <v>23.78938345189932</v>
       </c>
       <c r="N23">
-        <v>0.06766539043997866</v>
+        <v>0.0394452508611348</v>
       </c>
       <c r="O23">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="P23">
-        <v>143.4417635665003</v>
+        <v>83.61876449768074</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1532,49 +1532,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>3.548517054437728</v>
+        <v>2.068592887548194</v>
       </c>
       <c r="C24">
-        <v>60.68911626832646</v>
+        <v>35.37846157657478</v>
       </c>
       <c r="D24">
-        <v>0.008280805202825274</v>
+        <v>0.004827260087228375</v>
       </c>
       <c r="E24">
-        <v>2.995178259032178</v>
+        <v>1.746026395962944</v>
       </c>
       <c r="F24">
-        <v>2.994467790473477</v>
+        <v>1.745612231345779</v>
       </c>
       <c r="G24">
-        <v>14.3853838036614</v>
+        <v>8.385898155312693</v>
       </c>
       <c r="H24">
-        <v>0.4940587205249337</v>
+        <v>0.2880094246781009</v>
       </c>
       <c r="I24">
-        <v>13.92450287580339</v>
+        <v>8.117229583414074</v>
       </c>
       <c r="J24">
-        <v>2.272505979424038</v>
+        <v>1.324747671726261</v>
       </c>
       <c r="K24">
-        <v>11.44517677676997</v>
+        <v>6.67191700475273</v>
       </c>
       <c r="L24">
-        <v>6.520622194332396</v>
+        <v>3.80116890708369</v>
       </c>
       <c r="M24">
-        <v>39.71581980399367</v>
+        <v>23.15216782372344</v>
       </c>
       <c r="N24">
-        <v>0.07894295551330842</v>
+        <v>0.04601945933799063</v>
       </c>
       <c r="O24">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="P24">
-        <v>160.320196195557</v>
+        <v>93.45797483647971</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1582,49 +1582,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.298087235254911</v>
+        <v>1.339660155745497</v>
       </c>
       <c r="C25">
-        <v>39.30342767853521</v>
+        <v>22.91176559244841</v>
       </c>
       <c r="D25">
-        <v>0.005520536801883516</v>
+        <v>0.003218173391485584</v>
       </c>
       <c r="E25">
-        <v>1.996785506021453</v>
+        <v>1.164017597308629</v>
       </c>
       <c r="F25">
-        <v>3.130579962767726</v>
+        <v>1.824958241861496</v>
       </c>
       <c r="G25">
-        <v>15.03926488564602</v>
+        <v>8.767075344190543</v>
       </c>
       <c r="H25">
-        <v>0.2587926631321081</v>
+        <v>0.1508620795932909</v>
       </c>
       <c r="I25">
-        <v>7.29378722065892</v>
+        <v>4.251882162740705</v>
       </c>
       <c r="J25">
-        <v>2.110184123750892</v>
+        <v>1.230122838031528</v>
       </c>
       <c r="K25">
-        <v>10.62766414985784</v>
+        <v>6.19535150441325</v>
       </c>
       <c r="L25">
-        <v>6.939377748096858</v>
+        <v>4.045280671758787</v>
       </c>
       <c r="M25">
-        <v>42.26637703911253</v>
+        <v>24.63900428946716</v>
       </c>
       <c r="N25">
-        <v>0.09022052058663815</v>
+        <v>0.05259366781484644</v>
       </c>
       <c r="O25">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="P25">
-        <v>132.785924022293</v>
+        <v>77.40698826725912</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1632,49 +1632,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.890430216501051</v>
+        <v>1.102018234735496</v>
       </c>
       <c r="C26">
-        <v>32.33140420247153</v>
+        <v>18.84745423275859</v>
       </c>
       <c r="D26">
-        <v>0.007452724682542744</v>
+        <v>0.004344534078505539</v>
       </c>
       <c r="E26">
-        <v>2.69566043312896</v>
+        <v>1.57142375636665</v>
       </c>
       <c r="F26">
-        <v>2.654187359737854</v>
+        <v>1.547247205056486</v>
       </c>
       <c r="G26">
-        <v>12.75068109869988</v>
+        <v>7.432955183118072</v>
       </c>
       <c r="H26">
-        <v>0.1058697258267715</v>
+        <v>0.06171630528816445</v>
       </c>
       <c r="I26">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="J26">
-        <v>2.597149690770329</v>
+        <v>1.513997339115727</v>
       </c>
       <c r="K26">
-        <v>13.08020203059425</v>
+        <v>7.62504800543169</v>
       </c>
       <c r="L26">
-        <v>5.68311108680346</v>
+        <v>3.312945377733492</v>
       </c>
       <c r="M26">
-        <v>34.61470533375596</v>
+        <v>20.17849489223602</v>
       </c>
       <c r="N26">
-        <v>0.07894295551330842</v>
+        <v>0.04601945933799063</v>
       </c>
       <c r="O26">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="P26">
-        <v>112.7212418113621</v>
+        <v>65.7103673194917</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1682,49 +1682,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.884093578903842</v>
+        <v>1.098324318864875</v>
       </c>
       <c r="C27">
-        <v>32.2230307805638</v>
+        <v>18.78427840851472</v>
       </c>
       <c r="D27">
-        <v>0.008556832042919451</v>
+        <v>0.004988168756802655</v>
       </c>
       <c r="E27">
-        <v>3.095017534333252</v>
+        <v>1.804227275828376</v>
       </c>
       <c r="F27">
-        <v>1.97362649826661</v>
+        <v>1.1505171524779</v>
       </c>
       <c r="G27">
-        <v>9.481275688776835</v>
+        <v>5.527069238728821</v>
       </c>
       <c r="H27">
-        <v>0.1293963315660541</v>
+        <v>0.07543103979664546</v>
       </c>
       <c r="I27">
-        <v>3.64689361032946</v>
+        <v>2.125941081370352</v>
       </c>
       <c r="J27">
-        <v>2.831614593409318</v>
+        <v>1.650677654452563</v>
       </c>
       <c r="K27">
-        <v>14.26105360280068</v>
+        <v>8.313420394810942</v>
       </c>
       <c r="L27">
-        <v>5.742933308769814</v>
+        <v>3.34781848697279</v>
       </c>
       <c r="M27">
-        <v>34.97907065305865</v>
+        <v>20.39090010162799</v>
       </c>
       <c r="N27">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O27">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P27">
-        <v>111.0146006491495</v>
+        <v>64.71548813035695</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1732,49 +1732,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.77214631468646</v>
+        <v>1.033065138483891</v>
       </c>
       <c r="C28">
-        <v>30.30843366019397</v>
+        <v>17.6681721802061</v>
       </c>
       <c r="D28">
-        <v>0.007452724682542744</v>
+        <v>0.004344534078505539</v>
       </c>
       <c r="E28">
-        <v>2.69566043312896</v>
+        <v>1.57142375636665</v>
       </c>
       <c r="F28">
-        <v>2.10973867056086</v>
+        <v>1.229863162993617</v>
       </c>
       <c r="G28">
-        <v>10.13515677076144</v>
+        <v>5.90824642760667</v>
       </c>
       <c r="H28">
-        <v>0.1999761487839017</v>
+        <v>0.1165752433220884</v>
       </c>
       <c r="I28">
-        <v>5.636108306872804</v>
+        <v>3.285545307572363</v>
       </c>
       <c r="J28">
-        <v>2.110184123750892</v>
+        <v>1.230122838031528</v>
       </c>
       <c r="K28">
-        <v>10.62766414985784</v>
+        <v>6.19535150441325</v>
       </c>
       <c r="L28">
-        <v>4.486666647476418</v>
+        <v>2.615483192947493</v>
       </c>
       <c r="M28">
-        <v>27.32739894770208</v>
+        <v>15.93039070439687</v>
       </c>
       <c r="N28">
-        <v>0.09022052058663815</v>
+        <v>0.05259366781484644</v>
       </c>
       <c r="O28">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="P28">
-        <v>98.93266217111476</v>
+        <v>57.67237360672737</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1782,49 +1782,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.190364396102336</v>
+        <v>1.276863585944927</v>
       </c>
       <c r="C29">
-        <v>37.46107950610389</v>
+        <v>21.8377765803024</v>
       </c>
       <c r="D29">
-        <v>0.00717669784244857</v>
+        <v>0.004183625408931259</v>
       </c>
       <c r="E29">
-        <v>2.595821157827888</v>
+        <v>1.513222876501218</v>
       </c>
       <c r="F29">
-        <v>2.518075187443606</v>
+        <v>1.467901194540768</v>
       </c>
       <c r="G29">
-        <v>12.09680001671527</v>
+        <v>7.05177799424022</v>
       </c>
       <c r="H29">
-        <v>0.1529229373053366</v>
+        <v>0.08914577430512644</v>
       </c>
       <c r="I29">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="J29">
-        <v>2.362684788131342</v>
+        <v>1.37731702377889</v>
       </c>
       <c r="K29">
-        <v>11.89935045838783</v>
+        <v>6.93667561605244</v>
       </c>
       <c r="L29">
-        <v>5.68311108680346</v>
+        <v>3.312945377733492</v>
       </c>
       <c r="M29">
-        <v>34.61470533375596</v>
+        <v>20.17849489223602</v>
       </c>
       <c r="N29">
-        <v>0.06766539043997866</v>
+        <v>0.0394452508611348</v>
       </c>
       <c r="O29">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="P29">
-        <v>117.0291131967557</v>
+        <v>68.22162257671339</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1832,49 +1832,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.909440129292682</v>
+        <v>1.113099982347362</v>
       </c>
       <c r="C30">
-        <v>32.6565244681947</v>
+        <v>19.03698170549025</v>
       </c>
       <c r="D30">
-        <v>0.009660939403296154</v>
+        <v>0.005631803435099773</v>
       </c>
       <c r="E30">
-        <v>3.494374635537541</v>
+        <v>2.037030795290101</v>
       </c>
       <c r="F30">
-        <v>2.381963015149356</v>
+        <v>1.388555184025052</v>
       </c>
       <c r="G30">
-        <v>11.44291893473067</v>
+        <v>6.670600805362371</v>
       </c>
       <c r="H30">
-        <v>0.1411596344356953</v>
+        <v>0.08228840705088596</v>
       </c>
       <c r="I30">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="J30">
-        <v>2.05607683852651</v>
+        <v>1.19858122679995</v>
       </c>
       <c r="K30">
-        <v>10.35515994088712</v>
+        <v>6.03649633763342</v>
       </c>
       <c r="L30">
-        <v>5.025066645173586</v>
+        <v>2.92934117610119</v>
       </c>
       <c r="M30">
-        <v>30.60668682142632</v>
+        <v>17.84203758892449</v>
       </c>
       <c r="N30">
-        <v>0.09022052058663815</v>
+        <v>0.05259366781484644</v>
       </c>
       <c r="O30">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="P30">
-        <v>105.5735366685008</v>
+        <v>61.54364308117254</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1882,49 +1882,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.388912374148257</v>
+        <v>1.39260628322441</v>
       </c>
       <c r="C31">
-        <v>40.85678005921262</v>
+        <v>23.8172857399441</v>
       </c>
       <c r="D31">
-        <v>0.009384912563201977</v>
+        <v>0.005470894765525493</v>
       </c>
       <c r="E31">
-        <v>3.394535360236469</v>
+        <v>1.978829915424671</v>
       </c>
       <c r="F31">
-        <v>3.402804307356225</v>
+        <v>1.983650262892931</v>
       </c>
       <c r="G31">
-        <v>16.34702704961523</v>
+        <v>9.529429721946242</v>
       </c>
       <c r="H31">
-        <v>0.1999761487839017</v>
+        <v>0.1165752433220884</v>
       </c>
       <c r="I31">
-        <v>5.636108306872804</v>
+        <v>3.285545307572363</v>
       </c>
       <c r="J31">
-        <v>1.911790744594825</v>
+        <v>1.114470263515743</v>
       </c>
       <c r="K31">
-        <v>9.628482050298549</v>
+        <v>5.612882559553884</v>
       </c>
       <c r="L31">
-        <v>4.486666647476418</v>
+        <v>2.615483192947493</v>
       </c>
       <c r="M31">
-        <v>27.32739894770208</v>
+        <v>15.93039070439687</v>
       </c>
       <c r="N31">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O31">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P31">
-        <v>115.9688857270247</v>
+        <v>67.6035674935834</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1932,49 +1932,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>2.971883033091596</v>
+        <v>1.732446543321614</v>
       </c>
       <c r="C32">
-        <v>50.82713487472337</v>
+        <v>29.62946157038139</v>
       </c>
       <c r="D32">
-        <v>0.00717669784244857</v>
+        <v>0.004183625408931259</v>
       </c>
       <c r="E32">
-        <v>2.595821157827888</v>
+        <v>1.513222876501218</v>
       </c>
       <c r="F32">
-        <v>4.559757771857338</v>
+        <v>2.658091352276526</v>
       </c>
       <c r="G32">
-        <v>21.9050162464844</v>
+        <v>12.76943582740796</v>
       </c>
       <c r="H32">
-        <v>0.2823192688713906</v>
+        <v>0.1645768141017719</v>
       </c>
       <c r="I32">
-        <v>7.956858786173368</v>
+        <v>4.638416904808042</v>
       </c>
       <c r="J32">
-        <v>2.020005315043589</v>
+        <v>1.177553485978899</v>
       </c>
       <c r="K32">
-        <v>10.17349046823998</v>
+        <v>5.930592893113539</v>
       </c>
       <c r="L32">
-        <v>3.589333317981135</v>
+        <v>2.092386554357994</v>
       </c>
       <c r="M32">
-        <v>21.86191915816167</v>
+        <v>12.74431256351749</v>
       </c>
       <c r="N32">
-        <v>0.1578859110266168</v>
+        <v>0.09203891867598125</v>
       </c>
       <c r="O32">
-        <v>2.495245816122419</v>
+        <v>1.454592909863612</v>
       </c>
       <c r="P32">
-        <v>131.4038478234472</v>
+        <v>76.60131283971498</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1982,49 +1982,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.548517054437728</v>
+        <v>2.068592887548194</v>
       </c>
       <c r="C33">
-        <v>60.68911626832646</v>
+        <v>35.37846157657478</v>
       </c>
       <c r="D33">
-        <v>0.00717669784244857</v>
+        <v>0.004183625408931259</v>
       </c>
       <c r="E33">
-        <v>2.595821157827888</v>
+        <v>1.513222876501218</v>
       </c>
       <c r="F33">
-        <v>2.994467790473477</v>
+        <v>1.745612231345779</v>
       </c>
       <c r="G33">
-        <v>14.3853838036614</v>
+        <v>8.385898155312693</v>
       </c>
       <c r="H33">
-        <v>0.4234789033070859</v>
+        <v>0.2468652211526578</v>
       </c>
       <c r="I33">
-        <v>11.93528817926005</v>
+        <v>6.957625357212062</v>
       </c>
       <c r="J33">
-        <v>1.334646368868086</v>
+        <v>0.7780264103789151</v>
       </c>
       <c r="K33">
-        <v>6.721770487944272</v>
+        <v>3.918427447235731</v>
       </c>
       <c r="L33">
-        <v>2.751822210452202</v>
+        <v>1.604163025007795</v>
       </c>
       <c r="M33">
-        <v>16.76080468792394</v>
+        <v>9.770639632030079</v>
       </c>
       <c r="N33">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O33">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P33">
-        <v>124.9063312466533</v>
+        <v>72.813613253863</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2032,49 +2032,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.679474231446739</v>
+        <v>2.144933815541044</v>
       </c>
       <c r="C34">
-        <v>62.92883365441942</v>
+        <v>36.68409527761505</v>
       </c>
       <c r="D34">
-        <v>0.003864375761318462</v>
+        <v>0.002252721374039908</v>
       </c>
       <c r="E34">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="F34">
-        <v>2.041682584413735</v>
+        <v>1.190190157735759</v>
       </c>
       <c r="G34">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="H34">
-        <v>0.5293486291338573</v>
+        <v>0.3085815264408223</v>
       </c>
       <c r="I34">
-        <v>14.91911022407507</v>
+        <v>8.697031696515078</v>
       </c>
       <c r="J34">
-        <v>0.8116092783657277</v>
+        <v>0.4731241684736646</v>
       </c>
       <c r="K34">
-        <v>4.087563134560705</v>
+        <v>2.382827501697404</v>
       </c>
       <c r="L34">
-        <v>3.170577764216669</v>
+        <v>1.848274789682894</v>
       </c>
       <c r="M34">
-        <v>19.3113619230428</v>
+        <v>11.25747609777379</v>
       </c>
       <c r="N34">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O34">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P34">
-        <v>122.8789012925023</v>
+        <v>71.63173160617187</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2082,49 +2082,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.469176450379586</v>
+        <v>1.439395884252284</v>
       </c>
       <c r="C35">
-        <v>42.22951007004382</v>
+        <v>24.6175128470333</v>
       </c>
       <c r="D35">
-        <v>0.004416429441506813</v>
+        <v>0.002574538713188467</v>
       </c>
       <c r="E35">
-        <v>1.597428404817162</v>
+        <v>0.9312140778469037</v>
       </c>
       <c r="F35">
-        <v>1.020841292206867</v>
+        <v>0.5950950788678793</v>
       </c>
       <c r="G35">
-        <v>4.90410811488457</v>
+        <v>2.858828916583872</v>
       </c>
       <c r="H35">
-        <v>0.4352422061767272</v>
+        <v>0.2537225884068983</v>
       </c>
       <c r="I35">
-        <v>12.26682396201728</v>
+        <v>7.15089272824573</v>
       </c>
       <c r="J35">
-        <v>0.8476808018486492</v>
+        <v>0.4941519092947163</v>
       </c>
       <c r="K35">
-        <v>4.269232607207848</v>
+        <v>2.488730946217288</v>
       </c>
       <c r="L35">
-        <v>3.589333317981135</v>
+        <v>2.092386554357994</v>
       </c>
       <c r="M35">
-        <v>21.86191915816167</v>
+        <v>12.74431256351749</v>
       </c>
       <c r="N35">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O35">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P35">
-        <v>95.6852222242489</v>
+        <v>55.77929233537608</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2132,49 +2132,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>2.095314832144183</v>
+        <v>1.221454847885601</v>
       </c>
       <c r="C36">
-        <v>35.83547817748799</v>
+        <v>20.89013921664416</v>
       </c>
       <c r="D36">
-        <v>0.004968483121695164</v>
+        <v>0.002896356052337025</v>
       </c>
       <c r="E36">
-        <v>1.797106955419307</v>
+        <v>1.047615837577766</v>
       </c>
       <c r="F36">
-        <v>1.565289981383863</v>
+        <v>0.9124791209307479</v>
       </c>
       <c r="G36">
-        <v>7.51963244282301</v>
+        <v>4.383537672095271</v>
       </c>
       <c r="H36">
-        <v>0.3646623889588796</v>
+        <v>0.2125783848814553</v>
       </c>
       <c r="I36">
-        <v>10.27760926547393</v>
+        <v>5.99128850204372</v>
       </c>
       <c r="J36">
-        <v>0.6853589461755035</v>
+        <v>0.3995270755999834</v>
       </c>
       <c r="K36">
-        <v>3.451719980295707</v>
+        <v>2.012165445877808</v>
       </c>
       <c r="L36">
-        <v>4.606311091409123</v>
+        <v>2.685229411426092</v>
       </c>
       <c r="M36">
-        <v>28.05612958630747</v>
+        <v>16.35520112318078</v>
       </c>
       <c r="N36">
-        <v>0.03383269521998933</v>
+        <v>0.0197226254305674</v>
       </c>
       <c r="O36">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="P36">
-        <v>96.82811035824687</v>
+        <v>56.44553410031136</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2182,43 +2182,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.786931802413284</v>
+        <v>1.041684275515341</v>
       </c>
       <c r="C37">
-        <v>30.56130497797867</v>
+        <v>17.81558243677516</v>
       </c>
       <c r="D37">
-        <v>0.005244509961789341</v>
+        <v>0.003057264721911304</v>
       </c>
       <c r="E37">
-        <v>1.89694623072038</v>
+        <v>1.105816717443198</v>
       </c>
       <c r="F37">
-        <v>1.429177809089614</v>
+        <v>0.8331331104150307</v>
       </c>
       <c r="G37">
-        <v>6.865751360838398</v>
+        <v>4.002360483217423</v>
       </c>
       <c r="H37">
-        <v>0.1646862401749778</v>
+        <v>0.09600314155936693</v>
       </c>
       <c r="I37">
-        <v>4.641500958601131</v>
+        <v>2.705743194471358</v>
       </c>
       <c r="J37">
-        <v>0.4328582817950548</v>
+        <v>0.2523328898526211</v>
       </c>
       <c r="K37">
-        <v>2.18003367176571</v>
+        <v>1.270841334238615</v>
       </c>
       <c r="L37">
-        <v>2.632177766519498</v>
+        <v>1.534416806529196</v>
       </c>
       <c r="M37">
-        <v>16.03207404931855</v>
+        <v>9.34582921324616</v>
       </c>
       <c r="P37">
-        <v>68.62868765917705</v>
+        <v>40.00680086798538</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2226,43 +2226,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.743498811406</v>
+        <v>0.4334194621529551</v>
       </c>
       <c r="C38">
-        <v>12.71581483717317</v>
+        <v>7.412630044615669</v>
       </c>
       <c r="D38">
-        <v>0.004416429441506813</v>
+        <v>0.002574538713188467</v>
       </c>
       <c r="E38">
-        <v>1.597428404817162</v>
+        <v>0.9312140778469037</v>
       </c>
       <c r="F38">
-        <v>0.2041682584413735</v>
+        <v>0.1190190157735758</v>
       </c>
       <c r="G38">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="H38">
-        <v>0.1411596344356953</v>
+        <v>0.08228840705088596</v>
       </c>
       <c r="I38">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="J38">
-        <v>0.3246437113462912</v>
+        <v>0.1892496673894658</v>
       </c>
       <c r="K38">
-        <v>1.635025253824282</v>
+        <v>0.9531310006789613</v>
       </c>
       <c r="L38">
-        <v>1.734844437024214</v>
+        <v>1.011320167939697</v>
       </c>
       <c r="M38">
-        <v>10.56659425977813</v>
+        <v>6.159751072366789</v>
       </c>
       <c r="P38">
-        <v>34.62684505375142</v>
+        <v>20.18557169024889</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2270,43 +2270,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.4773600323231705</v>
+        <v>0.2782749955868405</v>
       </c>
       <c r="C39">
-        <v>8.164131117048676</v>
+        <v>4.759245426372563</v>
       </c>
       <c r="D39">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E39">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F39">
-        <v>0.2041682584413735</v>
+        <v>0.1190190157735758</v>
       </c>
       <c r="G39">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="H39">
-        <v>0.07057981721784766</v>
+        <v>0.04114420352544298</v>
       </c>
       <c r="I39">
-        <v>1.989214696543342</v>
+        <v>1.159604226202011</v>
       </c>
       <c r="J39">
-        <v>0.1623218556731456</v>
+        <v>0.09462483369473292</v>
       </c>
       <c r="K39">
-        <v>0.8175126269121409</v>
+        <v>0.4765655003394806</v>
       </c>
       <c r="L39">
-        <v>1.675022215057863</v>
+        <v>0.9764470587003975</v>
       </c>
       <c r="M39">
-        <v>10.20222894047544</v>
+        <v>5.947345862974831</v>
       </c>
       <c r="P39">
-        <v>25.64439890194041</v>
+        <v>14.9492930033017</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.4815844573879773</v>
+        <v>0.2807376061672551</v>
       </c>
       <c r="C40">
-        <v>8.236380064987161</v>
+        <v>4.801362642535147</v>
       </c>
       <c r="D40">
-        <v>0.004968483121695164</v>
+        <v>0.002896356052337025</v>
       </c>
       <c r="E40">
-        <v>1.797106955419307</v>
+        <v>1.047615837577766</v>
       </c>
       <c r="F40">
-        <v>0.1361121722942489</v>
+        <v>0.07934601051571721</v>
       </c>
       <c r="G40">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="H40">
-        <v>0.08234312008748891</v>
+        <v>0.04800157077968346</v>
       </c>
       <c r="I40">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="J40">
-        <v>0.2705364261219094</v>
+        <v>0.1577080561578882</v>
       </c>
       <c r="K40">
-        <v>1.362521044853569</v>
+        <v>0.7942758338991347</v>
       </c>
       <c r="L40">
-        <v>2.45271110062044</v>
+        <v>1.429797478811296</v>
       </c>
       <c r="M40">
-        <v>14.93897809141046</v>
+        <v>8.708613585070287</v>
       </c>
       <c r="P40">
-        <v>32.73787347758944</v>
+        <v>19.08440376368004</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,43 +2358,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.2281189534995682</v>
+        <v>0.132980971342384</v>
       </c>
       <c r="C41">
-        <v>3.901443188678127</v>
+        <v>2.274329672779808</v>
       </c>
       <c r="D41">
-        <v>0.004692456281600988</v>
+        <v>0.002735447382762747</v>
       </c>
       <c r="E41">
-        <v>1.697267680118234</v>
+        <v>0.9894149577123353</v>
       </c>
       <c r="F41">
-        <v>0.06805608614712447</v>
+        <v>0.03967300525785861</v>
       </c>
       <c r="G41">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="H41">
-        <v>0.05881651434820639</v>
+        <v>0.03428683627120249</v>
       </c>
       <c r="I41">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="J41">
-        <v>0.2885721878633699</v>
+        <v>0.1682219265684141</v>
       </c>
       <c r="K41">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="L41">
-        <v>2.512533322586793</v>
+        <v>1.464670588050595</v>
       </c>
       <c r="M41">
-        <v>15.30334341071316</v>
+        <v>8.921018794462247</v>
       </c>
       <c r="P41">
-        <v>27.50081903619175</v>
+        <v>16.03148520559395</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2402,31 +2402,31 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.2238945284347615</v>
+        <v>0.1305183607619695</v>
       </c>
       <c r="C42">
-        <v>3.829194240739646</v>
+        <v>2.232212456617218</v>
       </c>
       <c r="D42">
-        <v>0.003036295241035934</v>
+        <v>0.001769995365317071</v>
       </c>
       <c r="E42">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="J42">
-        <v>0.2885721878633699</v>
+        <v>0.1682219265684141</v>
       </c>
       <c r="K42">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="L42">
-        <v>2.213422212755033</v>
+        <v>1.290305041854096</v>
       </c>
       <c r="M42">
-        <v>13.48151681419969</v>
+        <v>7.858992747502455</v>
       </c>
       <c r="P42">
-        <v>22.59122408872248</v>
+        <v>13.16945776334829</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2434,43 +2434,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1858747028515</v>
+        <v>0.1083548655382388</v>
       </c>
       <c r="C43">
-        <v>3.178953709293292</v>
+        <v>1.853157511153917</v>
       </c>
       <c r="D43">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E43">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F43">
-        <v>0.06805608614712447</v>
+        <v>0.03967300525785861</v>
       </c>
       <c r="G43">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="H43">
-        <v>0.03528990860892383</v>
+        <v>0.02057210176272149</v>
       </c>
       <c r="I43">
-        <v>0.994607348271671</v>
+        <v>0.5798021131010053</v>
       </c>
       <c r="J43">
-        <v>0.2705364261219094</v>
+        <v>0.1577080561578882</v>
       </c>
       <c r="K43">
-        <v>1.362521044853569</v>
+        <v>0.7942758338991347</v>
       </c>
       <c r="L43">
-        <v>2.991111098317611</v>
+        <v>1.743655461964996</v>
       </c>
       <c r="M43">
-        <v>18.21826596513472</v>
+        <v>10.62026046959791</v>
       </c>
       <c r="P43">
-        <v>28.53319454986312</v>
+        <v>16.63330410968765</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2478,43 +2478,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.3020463921336877</v>
+        <v>0.1760766564996381</v>
       </c>
       <c r="C44">
-        <v>5.165799777601595</v>
+        <v>3.011380955625116</v>
       </c>
       <c r="D44">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E44">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F44">
-        <v>0.2722243445884979</v>
+        <v>0.1586920210314344</v>
       </c>
       <c r="G44">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="H44">
-        <v>0.04705321147856512</v>
+        <v>0.02742946901696198</v>
       </c>
       <c r="I44">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="J44">
-        <v>0.4508940435365155</v>
+        <v>0.262846760263147</v>
       </c>
       <c r="K44">
-        <v>2.270868408089281</v>
+        <v>1.323793056498558</v>
       </c>
       <c r="L44">
-        <v>4.127733315678304</v>
+        <v>2.406244537511693</v>
       </c>
       <c r="M44">
-        <v>25.14120703188591</v>
+        <v>14.65595944804512</v>
       </c>
       <c r="P44">
-        <v>41.01242363283747</v>
+        <v>23.90801749759207</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2522,49 +2522,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.8723437758826079</v>
+        <v>0.5085290848555979</v>
       </c>
       <c r="C45">
-        <v>14.91940774929691</v>
+        <v>8.697205137574636</v>
       </c>
       <c r="D45">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E45">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F45">
-        <v>0.8847291199126182</v>
+        <v>0.5157490683521622</v>
       </c>
       <c r="G45">
-        <v>4.250227032899961</v>
+        <v>2.477651727706023</v>
       </c>
       <c r="H45">
-        <v>0.211739451653543</v>
+        <v>0.1234326105763289</v>
       </c>
       <c r="I45">
-        <v>5.967644089630027</v>
+        <v>3.478812678606031</v>
       </c>
       <c r="J45">
-        <v>0.8116092783657277</v>
+        <v>0.4731241684736646</v>
       </c>
       <c r="K45">
-        <v>4.087563134560705</v>
+        <v>2.382827501697404</v>
       </c>
       <c r="L45">
-        <v>8.674222185121067</v>
+        <v>5.056600839698485</v>
       </c>
       <c r="M45">
-        <v>52.83297129889068</v>
+        <v>30.79875536183395</v>
       </c>
       <c r="N45">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O45">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P45">
-        <v>94.30265833814292</v>
+        <v>54.97333261262285</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,49 +2572,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.97703093032959</v>
+        <v>1.152501751633995</v>
       </c>
       <c r="C46">
-        <v>33.81250763521043</v>
+        <v>19.71085716409167</v>
       </c>
       <c r="D46">
-        <v>0.0008280805202825277</v>
+        <v>0.0004827260087228376</v>
       </c>
       <c r="E46">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="F46">
-        <v>2.10973867056086</v>
+        <v>1.229863162993617</v>
       </c>
       <c r="G46">
-        <v>10.13515677076144</v>
+        <v>5.90824642760667</v>
       </c>
       <c r="H46">
-        <v>0.5646385377427813</v>
+        <v>0.3291536282035438</v>
       </c>
       <c r="I46">
-        <v>15.91371757234674</v>
+        <v>9.276833809616084</v>
       </c>
       <c r="J46">
-        <v>1.713397365438759</v>
+        <v>0.9988176889999585</v>
       </c>
       <c r="K46">
-        <v>8.629299950739266</v>
+        <v>5.030413614694518</v>
       </c>
       <c r="L46">
-        <v>9.571555514616353</v>
+        <v>5.579697478287987</v>
       </c>
       <c r="M46">
-        <v>58.29845108843109</v>
+        <v>33.98483350271331</v>
       </c>
       <c r="N46">
-        <v>0.03383269521998933</v>
+        <v>0.0197226254305674</v>
       </c>
       <c r="O46">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="P46">
-        <v>143.5943681698471</v>
+        <v>83.70772470056201</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2622,49 +2622,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.866272406471426</v>
+        <v>1.67088127881125</v>
       </c>
       <c r="C47">
-        <v>49.02091117626131</v>
+        <v>28.57653116631666</v>
       </c>
       <c r="D47">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E47">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F47">
-        <v>2.041682584413735</v>
+        <v>1.190190157735759</v>
       </c>
       <c r="G47">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="H47">
-        <v>0.4705321147856511</v>
+        <v>0.2742946901696199</v>
       </c>
       <c r="I47">
-        <v>13.26143131028895</v>
+        <v>7.730694841346736</v>
       </c>
       <c r="J47">
-        <v>1.587147033248534</v>
+        <v>0.9252205961262773</v>
       </c>
       <c r="K47">
-        <v>7.99345679647427</v>
+        <v>4.659751558874922</v>
       </c>
       <c r="L47">
-        <v>6.042044418601578</v>
+        <v>3.522184033169291</v>
       </c>
       <c r="M47">
-        <v>36.80089724957213</v>
+        <v>21.45292614858778</v>
       </c>
       <c r="N47">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O47">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P47">
-        <v>131.6410607824264</v>
+        <v>76.73959512277878</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2672,49 +2672,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>3.242246237239234</v>
+        <v>1.890053620468142</v>
       </c>
       <c r="C48">
-        <v>55.45106754278638</v>
+        <v>32.32496340478708</v>
       </c>
       <c r="D48">
-        <v>0.003864375761318462</v>
+        <v>0.002252721374039908</v>
       </c>
       <c r="E48">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="F48">
-        <v>2.245850842855109</v>
+        <v>1.309209173509335</v>
       </c>
       <c r="G48">
-        <v>10.78903785274605</v>
+        <v>6.289423616484522</v>
       </c>
       <c r="H48">
-        <v>0.3764256918285209</v>
+        <v>0.2194357521356959</v>
       </c>
       <c r="I48">
-        <v>10.60914504823116</v>
+        <v>6.184555873077388</v>
       </c>
       <c r="J48">
-        <v>1.821611935887523</v>
+        <v>1.061900911463114</v>
       </c>
       <c r="K48">
-        <v>9.174308368680693</v>
+        <v>5.348123948254172</v>
       </c>
       <c r="L48">
-        <v>5.443822198938054</v>
+        <v>3.173452940776292</v>
       </c>
       <c r="M48">
-        <v>33.15724405654517</v>
+        <v>19.3288740546682</v>
       </c>
       <c r="N48">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O48">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P48">
-        <v>134.0913928238784</v>
+        <v>78.16800573919109</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2722,49 +2722,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.327658210708557</v>
+        <v>1.3568984298084</v>
       </c>
       <c r="C49">
-        <v>39.80917031410461</v>
+        <v>23.20658610558657</v>
       </c>
       <c r="D49">
-        <v>0.004692456281600988</v>
+        <v>0.002735447382762747</v>
       </c>
       <c r="E49">
-        <v>1.697267680118234</v>
+        <v>0.9894149577123353</v>
       </c>
       <c r="F49">
-        <v>2.58613127359073</v>
+        <v>1.507574199798627</v>
       </c>
       <c r="G49">
-        <v>12.42374055770758</v>
+        <v>7.242366588679145</v>
       </c>
       <c r="H49">
-        <v>0.2587926631321081</v>
+        <v>0.1508620795932909</v>
       </c>
       <c r="I49">
-        <v>7.29378722065892</v>
+        <v>4.251882162740705</v>
       </c>
       <c r="J49">
-        <v>2.290541741165499</v>
+        <v>1.335261542136787</v>
       </c>
       <c r="K49">
-        <v>11.53601151309355</v>
+        <v>6.724868727012671</v>
       </c>
       <c r="L49">
-        <v>7.358133301861324</v>
+        <v>4.289392436433891</v>
       </c>
       <c r="M49">
-        <v>44.81693427423141</v>
+        <v>26.12584075521086</v>
       </c>
       <c r="N49">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O49">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P49">
-        <v>132.7818800248183</v>
+        <v>77.40463083617313</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.051534717836999</v>
+        <v>1.803829502672511</v>
       </c>
       <c r="C2">
-        <v>17.98405130142552</v>
+        <v>30.85030076973261</v>
       </c>
       <c r="D2">
-        <v>0.004344534078505539</v>
+        <v>0.007452724682542744</v>
       </c>
       <c r="E2">
-        <v>1.57142375636665</v>
+        <v>2.69566043312896</v>
       </c>
       <c r="F2">
-        <v>1.547247205056486</v>
+        <v>2.654187359737854</v>
       </c>
       <c r="G2">
-        <v>7.432955183118072</v>
+        <v>12.75068109869988</v>
       </c>
       <c r="H2">
-        <v>0.05485893803392396</v>
+        <v>0.09410642295713023</v>
       </c>
       <c r="I2">
-        <v>1.546138968269347</v>
+        <v>2.65228626205779</v>
       </c>
       <c r="J2">
-        <v>1.345775412547312</v>
+        <v>2.308577502906959</v>
       </c>
       <c r="K2">
-        <v>6.777820449272613</v>
+        <v>11.62684624941712</v>
       </c>
       <c r="L2">
-        <v>3.033960503819091</v>
+        <v>5.204533311072646</v>
       </c>
       <c r="M2">
-        <v>18.47925321710037</v>
+        <v>31.6997827793344</v>
       </c>
       <c r="N2">
-        <v>0.04601945933799063</v>
+        <v>0.07894295551330842</v>
       </c>
       <c r="O2">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="P2">
-        <v>61.60268010119468</v>
+        <v>105.6748102799749</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.079854739511765</v>
+        <v>1.85241039091779</v>
       </c>
       <c r="C3">
-        <v>18.46839928729529</v>
+        <v>31.68116367102517</v>
       </c>
       <c r="D3">
-        <v>0.005149077426376933</v>
+        <v>0.008832858883013626</v>
       </c>
       <c r="E3">
-        <v>1.862428155693807</v>
+        <v>3.194856809634324</v>
       </c>
       <c r="F3">
-        <v>1.190190157735759</v>
+        <v>2.041682584413735</v>
       </c>
       <c r="G3">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="H3">
-        <v>0.07543103979664546</v>
+        <v>0.1293963315660541</v>
       </c>
       <c r="I3">
-        <v>2.125941081370352</v>
+        <v>3.64689361032946</v>
       </c>
       <c r="J3">
-        <v>1.167039615568373</v>
+        <v>2.001969553302128</v>
       </c>
       <c r="K3">
-        <v>5.877641170853595</v>
+        <v>10.08265573191641</v>
       </c>
       <c r="L3">
-        <v>2.580610083708192</v>
+        <v>4.426844425510066</v>
       </c>
       <c r="M3">
-        <v>15.71798549500491</v>
+        <v>26.96303362839938</v>
       </c>
       <c r="N3">
-        <v>0.0197226254305674</v>
+        <v>0.03383269521998933</v>
       </c>
       <c r="O3">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="P3">
-        <v>56.19974884324843</v>
+        <v>96.40648405291289</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.090936487123631</v>
+        <v>1.871420303709419</v>
       </c>
       <c r="C4">
-        <v>18.65792676002694</v>
+        <v>32.00628393674835</v>
       </c>
       <c r="D4">
-        <v>0.006114529443822608</v>
+        <v>0.01048901992357868</v>
       </c>
       <c r="E4">
-        <v>2.211633434886397</v>
+        <v>3.79389246144076</v>
       </c>
       <c r="F4">
-        <v>1.269536168251475</v>
+        <v>2.177794756707983</v>
       </c>
       <c r="G4">
-        <v>6.098835022045596</v>
+        <v>10.46209731175375</v>
       </c>
       <c r="H4">
-        <v>0.07543103979664546</v>
+        <v>0.1293963315660541</v>
       </c>
       <c r="I4">
-        <v>2.125941081370352</v>
+        <v>3.64689361032946</v>
       </c>
       <c r="J4">
-        <v>1.114470263515743</v>
+        <v>1.911790744594825</v>
       </c>
       <c r="K4">
-        <v>5.612882559553884</v>
+        <v>9.628482050298549</v>
       </c>
       <c r="L4">
-        <v>2.859594957622593</v>
+        <v>4.905422201240881</v>
       </c>
       <c r="M4">
-        <v>17.41722717014057</v>
+        <v>29.87795618282093</v>
       </c>
       <c r="N4">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O4">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P4">
-        <v>58.76147687785474</v>
+        <v>100.8009377292987</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.278094891235135</v>
+        <v>2.192476608634739</v>
       </c>
       <c r="C5">
-        <v>21.8588351883837</v>
+        <v>37.49720398007314</v>
       </c>
       <c r="D5">
-        <v>0.005470894765525493</v>
+        <v>0.009384912563201977</v>
       </c>
       <c r="E5">
-        <v>1.978829915424671</v>
+        <v>3.394535360236469</v>
       </c>
       <c r="F5">
-        <v>1.785285236603637</v>
+        <v>3.062523876620601</v>
       </c>
       <c r="G5">
-        <v>8.57648674975162</v>
+        <v>14.71232434465371</v>
       </c>
       <c r="H5">
-        <v>0.1028605088136075</v>
+        <v>0.1764495430446192</v>
       </c>
       <c r="I5">
-        <v>2.899010565505026</v>
+        <v>4.973036741358356</v>
       </c>
       <c r="J5">
-        <v>1.450914116652571</v>
+        <v>2.488935120321565</v>
       </c>
       <c r="K5">
-        <v>7.307337671872037</v>
+        <v>12.53519361265283</v>
       </c>
       <c r="L5">
-        <v>2.999087394579792</v>
+        <v>5.144711089106293</v>
       </c>
       <c r="M5">
-        <v>18.2668480077084</v>
+        <v>31.33541746003171</v>
       </c>
       <c r="N5">
-        <v>0.05259366781484644</v>
+        <v>0.09022052058663815</v>
       </c>
       <c r="O5">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="P5">
-        <v>69.39285075760405</v>
+        <v>119.0382679219538</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.252237480140782</v>
+        <v>2.148120145454267</v>
       </c>
       <c r="C6">
-        <v>21.41660441867653</v>
+        <v>36.73859002671903</v>
       </c>
       <c r="D6">
-        <v>0.004666351417654098</v>
+        <v>0.008004778362731097</v>
       </c>
       <c r="E6">
-        <v>1.687825516097514</v>
+        <v>2.895338983731107</v>
       </c>
       <c r="F6">
-        <v>1.586920210314344</v>
+        <v>2.722243445884978</v>
       </c>
       <c r="G6">
-        <v>7.623543777556994</v>
+        <v>13.07762163969219</v>
       </c>
       <c r="H6">
-        <v>0.08914577430512644</v>
+        <v>0.1529229373053366</v>
       </c>
       <c r="I6">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="J6">
-        <v>1.408858635010468</v>
+        <v>2.416792073355722</v>
       </c>
       <c r="K6">
-        <v>7.095530782832268</v>
+        <v>12.17185466735855</v>
       </c>
       <c r="L6">
-        <v>3.033960503819091</v>
+        <v>5.204533311072646</v>
       </c>
       <c r="M6">
-        <v>18.47925321710037</v>
+        <v>31.6997827793344</v>
       </c>
       <c r="N6">
-        <v>0.0394452508611348</v>
+        <v>0.06766539043997866</v>
       </c>
       <c r="O6">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="P6">
-        <v>66.85386470294009</v>
+        <v>114.6828264186073</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.425851526060006</v>
+        <v>2.445942112523148</v>
       </c>
       <c r="C7">
-        <v>24.38586815813905</v>
+        <v>41.83214085638214</v>
       </c>
       <c r="D7">
-        <v>0.004505442748079817</v>
+        <v>0.007728751522636923</v>
       </c>
       <c r="E7">
-        <v>1.629624636232081</v>
+        <v>2.795499708430033</v>
       </c>
       <c r="F7">
-        <v>1.70593922608792</v>
+        <v>2.926411704326352</v>
       </c>
       <c r="G7">
-        <v>8.195309560873769</v>
+        <v>14.0584432626691</v>
       </c>
       <c r="H7">
-        <v>0.09600314155936693</v>
+        <v>0.1646862401749778</v>
       </c>
       <c r="I7">
-        <v>2.705743194471358</v>
+        <v>4.641500958601131</v>
       </c>
       <c r="J7">
-        <v>1.156525745157847</v>
+        <v>1.983933791560669</v>
       </c>
       <c r="K7">
-        <v>5.824689448593653</v>
+        <v>9.991820995592834</v>
       </c>
       <c r="L7">
-        <v>2.685229411426092</v>
+        <v>4.606311091409123</v>
       </c>
       <c r="M7">
-        <v>16.35520112318078</v>
+        <v>28.05612958630747</v>
       </c>
       <c r="N7">
-        <v>0.06574208476855803</v>
+        <v>0.1127756507332977</v>
       </c>
       <c r="O7">
-        <v>1.038994935616866</v>
+        <v>1.782318440087441</v>
       </c>
       <c r="P7">
-        <v>67.27522763491544</v>
+        <v>115.4056431503203</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.583458603206535</v>
+        <v>2.716305316670784</v>
       </c>
       <c r="C8">
-        <v>27.08136999254476</v>
+        <v>46.4560735244451</v>
       </c>
       <c r="D8">
-        <v>0.003539990730634142</v>
+        <v>0.006072590482071868</v>
       </c>
       <c r="E8">
-        <v>1.280419357039493</v>
+        <v>2.196464056623598</v>
       </c>
       <c r="F8">
-        <v>2.340707310213657</v>
+        <v>4.015309082680342</v>
       </c>
       <c r="G8">
-        <v>11.24472707189656</v>
+        <v>19.28949191854597</v>
       </c>
       <c r="H8">
-        <v>0.1577194468475314</v>
+        <v>0.2705559660017494</v>
       </c>
       <c r="I8">
-        <v>4.445149533774374</v>
+        <v>7.625323003416145</v>
       </c>
       <c r="J8">
-        <v>1.240636708442054</v>
+        <v>2.128219885492353</v>
       </c>
       <c r="K8">
-        <v>6.248303226673191</v>
+        <v>10.7184988861814</v>
       </c>
       <c r="L8">
-        <v>1.883147898922195</v>
+        <v>3.23039998618302</v>
       </c>
       <c r="M8">
-        <v>11.46988130716574</v>
+        <v>19.67572724234549</v>
       </c>
       <c r="N8">
-        <v>0.07231629324541386</v>
+        <v>0.1240532158066275</v>
       </c>
       <c r="O8">
-        <v>1.142894429178552</v>
+        <v>1.960550284096186</v>
       </c>
       <c r="P8">
-        <v>70.19427116988071</v>
+        <v>120.4130449589708</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.835876187699023</v>
+        <v>3.149308885813482</v>
       </c>
       <c r="C9">
-        <v>31.39838464921013</v>
+        <v>53.86159068813971</v>
       </c>
       <c r="D9">
-        <v>0.002252721374039908</v>
+        <v>0.003864375761318462</v>
       </c>
       <c r="E9">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="F9">
-        <v>1.943977257635072</v>
+        <v>3.3347482212091</v>
       </c>
       <c r="G9">
-        <v>9.338841127507319</v>
+        <v>16.02008650862293</v>
       </c>
       <c r="H9">
-        <v>0.1920062831187339</v>
+        <v>0.3293724803499556</v>
       </c>
       <c r="I9">
-        <v>5.411486388942715</v>
+        <v>9.283001917202261</v>
       </c>
       <c r="J9">
-        <v>0.6098044838105009</v>
+        <v>1.046074181004716</v>
       </c>
       <c r="K9">
-        <v>3.071199891076654</v>
+        <v>5.268414706767133</v>
       </c>
       <c r="L9">
-        <v>1.639036134247096</v>
+        <v>2.811644432418556</v>
       </c>
       <c r="M9">
-        <v>9.983044841422036</v>
+        <v>17.12517000722663</v>
       </c>
       <c r="N9">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O9">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P9">
-        <v>66.68261709231352</v>
+        <v>114.3890638950591</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>2.056279834646122</v>
+        <v>3.527394929113691</v>
       </c>
       <c r="C10">
-        <v>35.16787549576184</v>
+        <v>60.32787152863403</v>
       </c>
       <c r="D10">
-        <v>0.00209181270446563</v>
+        <v>0.003588348921224285</v>
       </c>
       <c r="E10">
-        <v>0.7566114382506091</v>
+        <v>1.297910578913944</v>
       </c>
       <c r="F10">
-        <v>1.229863162993617</v>
+        <v>2.10973867056086</v>
       </c>
       <c r="G10">
-        <v>5.90824642760667</v>
+        <v>10.13515677076144</v>
       </c>
       <c r="H10">
-        <v>0.2811520574238604</v>
+        <v>0.4822954176552923</v>
       </c>
       <c r="I10">
-        <v>7.923962212380405</v>
+        <v>13.59296709304617</v>
       </c>
       <c r="J10">
-        <v>0.4100409460105093</v>
+        <v>0.7033947079169642</v>
       </c>
       <c r="K10">
-        <v>2.06511716813775</v>
+        <v>3.542554716619278</v>
       </c>
       <c r="L10">
-        <v>1.848274789682894</v>
+        <v>3.170577764216669</v>
       </c>
       <c r="M10">
-        <v>11.25747609777379</v>
+        <v>19.3113619230428</v>
       </c>
       <c r="N10">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O10">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P10">
-        <v>69.12793884744961</v>
+        <v>118.5838312675665</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.429545441930627</v>
+        <v>2.452278750120358</v>
       </c>
       <c r="C11">
-        <v>24.44904398238294</v>
+        <v>41.94051427828987</v>
       </c>
       <c r="D11">
-        <v>0.002735447382762747</v>
+        <v>0.004692456281600988</v>
       </c>
       <c r="E11">
-        <v>0.9894149577123353</v>
+        <v>1.697267680118234</v>
       </c>
       <c r="F11">
-        <v>0.6347680841257377</v>
+        <v>1.088897378353991</v>
       </c>
       <c r="G11">
-        <v>3.049417511022798</v>
+        <v>5.231048655876874</v>
       </c>
       <c r="H11">
-        <v>0.2742946901696199</v>
+        <v>0.4705321147856511</v>
       </c>
       <c r="I11">
-        <v>7.730694841346736</v>
+        <v>13.26143131028895</v>
       </c>
       <c r="J11">
-        <v>0.4205548164210353</v>
+        <v>0.7214304696584248</v>
       </c>
       <c r="K11">
-        <v>2.118068890397692</v>
+        <v>3.63338945294285</v>
       </c>
       <c r="L11">
-        <v>1.883147898922195</v>
+        <v>3.23039998618302</v>
       </c>
       <c r="M11">
-        <v>11.46988130716574</v>
+        <v>19.67572724234549</v>
       </c>
       <c r="N11">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O11">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P11">
-        <v>54.6725152730573</v>
+        <v>93.78662859340946</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.134032172280885</v>
+        <v>1.945347742343541</v>
       </c>
       <c r="C12">
-        <v>19.39497804287225</v>
+        <v>33.27064052567183</v>
       </c>
       <c r="D12">
-        <v>0.003379082061059863</v>
+        <v>0.005796563641977691</v>
       </c>
       <c r="E12">
-        <v>1.222218477174061</v>
+        <v>2.096624781322525</v>
       </c>
       <c r="F12">
-        <v>0.9521521261886067</v>
+        <v>1.633346067530988</v>
       </c>
       <c r="G12">
-        <v>4.574126266534197</v>
+        <v>7.846572983815314</v>
       </c>
       <c r="H12">
-        <v>0.205721017627215</v>
+        <v>0.3528990860892383</v>
       </c>
       <c r="I12">
-        <v>5.798021131010052</v>
+        <v>9.946073482716711</v>
       </c>
       <c r="J12">
-        <v>0.2838745010841988</v>
+        <v>0.4869655670194367</v>
       </c>
       <c r="K12">
-        <v>1.429696501018442</v>
+        <v>2.452537880736423</v>
       </c>
       <c r="L12">
-        <v>2.615483192947493</v>
+        <v>4.486666647476418</v>
       </c>
       <c r="M12">
-        <v>15.93039070439687</v>
+        <v>27.32739894770208</v>
       </c>
       <c r="P12">
-        <v>53.54407321519533</v>
+        <v>91.85087027606649</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,43 +1024,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.003513811518916</v>
+        <v>1.721453213908778</v>
       </c>
       <c r="C13">
-        <v>17.16276558625503</v>
+        <v>29.44144628493219</v>
       </c>
       <c r="D13">
-        <v>0.003539990730634142</v>
+        <v>0.006072590482071868</v>
       </c>
       <c r="E13">
-        <v>1.280419357039493</v>
+        <v>2.196464056623598</v>
       </c>
       <c r="F13">
-        <v>0.7141140946414548</v>
+        <v>1.22500955064824</v>
       </c>
       <c r="G13">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="H13">
-        <v>0.06857367254240498</v>
+        <v>0.1176330286964128</v>
       </c>
       <c r="I13">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="J13">
-        <v>0.2943883714947246</v>
+        <v>0.5050013287608973</v>
       </c>
       <c r="K13">
-        <v>1.482648223278385</v>
+        <v>2.543372617059995</v>
       </c>
       <c r="L13">
-        <v>1.534416806529196</v>
+        <v>2.632177766519498</v>
       </c>
       <c r="M13">
-        <v>9.34582921324616</v>
+        <v>16.03207404931855</v>
       </c>
       <c r="P13">
-        <v>38.25347753751373</v>
+        <v>65.62099205238395</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.6365848350371531</v>
+        <v>1.092013879252563</v>
       </c>
       <c r="C14">
-        <v>10.88730037802926</v>
+        <v>18.67635304209808</v>
       </c>
       <c r="D14">
-        <v>0.002896356052337025</v>
+        <v>0.004968483121695164</v>
       </c>
       <c r="E14">
-        <v>1.047615837577766</v>
+        <v>1.797106955419307</v>
       </c>
       <c r="F14">
-        <v>0.5157490683521622</v>
+        <v>0.8847291199126182</v>
       </c>
       <c r="G14">
-        <v>2.477651727706023</v>
+        <v>4.250227032899961</v>
       </c>
       <c r="H14">
-        <v>0.1028605088136075</v>
+        <v>0.1764495430446192</v>
       </c>
       <c r="I14">
-        <v>2.899010565505026</v>
+        <v>4.973036741358356</v>
       </c>
       <c r="J14">
-        <v>0.2418190194420952</v>
+        <v>0.4148225200535943</v>
       </c>
       <c r="K14">
-        <v>1.217889611978672</v>
+        <v>2.089198935442139</v>
       </c>
       <c r="L14">
-        <v>1.778528571204295</v>
+        <v>3.050933320283964</v>
       </c>
       <c r="M14">
-        <v>10.83266567898987</v>
+        <v>18.5826312844374</v>
       </c>
       <c r="P14">
-        <v>32.64057215868827</v>
+        <v>55.9924708573243</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.403868135187981</v>
+        <v>0.692805710628318</v>
       </c>
       <c r="C15">
-        <v>6.907223450664603</v>
+        <v>11.84882746191136</v>
       </c>
       <c r="D15">
-        <v>0.002896356052337025</v>
+        <v>0.004968483121695164</v>
       </c>
       <c r="E15">
-        <v>1.047615837577766</v>
+        <v>1.797106955419307</v>
       </c>
       <c r="F15">
-        <v>0.1190190157735758</v>
+        <v>0.2041682584413735</v>
       </c>
       <c r="G15">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="H15">
-        <v>0.06171630528816445</v>
+        <v>0.1058697258267715</v>
       </c>
       <c r="I15">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="J15">
-        <v>0.1156525745157847</v>
+        <v>0.1983933791560668</v>
       </c>
       <c r="K15">
-        <v>0.5824689448593653</v>
+        <v>0.9991820995592837</v>
       </c>
       <c r="L15">
-        <v>1.290305041854096</v>
+        <v>2.213422212755033</v>
       </c>
       <c r="M15">
-        <v>7.858992747502455</v>
+        <v>13.48151681419969</v>
       </c>
       <c r="P15">
-        <v>20.70093053189591</v>
+        <v>35.51090476881082</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,49 +1156,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.1982401517233686</v>
+        <v>0.3400662177169488</v>
       </c>
       <c r="C16">
-        <v>3.390435901088416</v>
+        <v>5.816040309047951</v>
       </c>
       <c r="D16">
-        <v>0.002735447382762747</v>
+        <v>0.004692456281600988</v>
       </c>
       <c r="E16">
-        <v>0.9894149577123353</v>
+        <v>1.697267680118234</v>
       </c>
       <c r="F16">
-        <v>0.03967300525785861</v>
+        <v>0.06805608614712447</v>
       </c>
       <c r="G16">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="H16">
-        <v>0.04800157077968346</v>
+        <v>0.08234312008748891</v>
       </c>
       <c r="I16">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="J16">
-        <v>0.2102774082105177</v>
+        <v>0.3607152348292124</v>
       </c>
       <c r="K16">
-        <v>1.059034445198846</v>
+        <v>1.816694726471425</v>
       </c>
       <c r="L16">
-        <v>1.220558823375497</v>
+        <v>2.093777768822327</v>
       </c>
       <c r="M16">
-        <v>7.434182328718538</v>
+        <v>12.7527861755943</v>
       </c>
       <c r="N16">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O16">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P16">
-        <v>16.24648793316097</v>
+        <v>27.86964020449155</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1206,43 +1206,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1403688030836276</v>
+        <v>0.2407922286939886</v>
       </c>
       <c r="C17">
-        <v>2.400681321267573</v>
+        <v>4.118190032493581</v>
       </c>
       <c r="D17">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E17">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F17">
-        <v>0.07934601051571721</v>
+        <v>0.1361121722942489</v>
       </c>
       <c r="G17">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="H17">
-        <v>0.02742946901696198</v>
+        <v>0.04705321147856512</v>
       </c>
       <c r="I17">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="J17">
-        <v>0.2207912786210435</v>
+        <v>0.3787509965706731</v>
       </c>
       <c r="K17">
-        <v>1.111986167458788</v>
+        <v>1.907529462794996</v>
       </c>
       <c r="L17">
-        <v>1.185685714136197</v>
+        <v>2.033955546855976</v>
       </c>
       <c r="M17">
-        <v>7.22177711932658</v>
+        <v>12.3884208562916</v>
       </c>
       <c r="P17">
-        <v>14.06756865325406</v>
+        <v>24.13186643975763</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,37 +1250,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.0972731179263734</v>
+        <v>0.1668647900598694</v>
       </c>
       <c r="C18">
-        <v>1.663630038422267</v>
+        <v>2.853833443570113</v>
       </c>
       <c r="D18">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E18">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F18">
-        <v>0.1190190157735758</v>
+        <v>0.2041682584413735</v>
       </c>
       <c r="G18">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="J18">
-        <v>0.1892496673894658</v>
+        <v>0.3246437113462912</v>
       </c>
       <c r="K18">
-        <v>0.9531310006789613</v>
+        <v>1.635025253824282</v>
       </c>
       <c r="L18">
-        <v>1.046193277178997</v>
+        <v>1.794666658990567</v>
       </c>
       <c r="M18">
-        <v>6.372156281758746</v>
+        <v>10.93095957908083</v>
       </c>
       <c r="P18">
-        <v>11.3625889136552</v>
+        <v>19.49167513113725</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,43 +1288,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.0886539808949226</v>
+        <v>0.1520793023330455</v>
       </c>
       <c r="C19">
-        <v>1.516219781853205</v>
+        <v>2.600962125785418</v>
       </c>
       <c r="D19">
-        <v>0.001609086695742792</v>
+        <v>0.002760268400941758</v>
       </c>
       <c r="E19">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="F19">
-        <v>0.1190190157735758</v>
+        <v>0.2041682584413735</v>
       </c>
       <c r="G19">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="H19">
-        <v>0.01371473450848099</v>
+        <v>0.02352660573928256</v>
       </c>
       <c r="I19">
-        <v>0.3865347420673367</v>
+        <v>0.6630715655144475</v>
       </c>
       <c r="J19">
-        <v>0.17873579697894</v>
+        <v>0.3066079496048305</v>
       </c>
       <c r="K19">
-        <v>0.9001792784190192</v>
+        <v>1.544190517500711</v>
       </c>
       <c r="L19">
-        <v>1.604163025007795</v>
+        <v>2.751822210452202</v>
       </c>
       <c r="M19">
-        <v>9.770639632030079</v>
+        <v>16.76080468792394</v>
       </c>
       <c r="P19">
-        <v>15.73324365620019</v>
+        <v>26.98920786768383</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1332,49 +1332,49 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.1526818559857001</v>
+        <v>0.2619143540180229</v>
       </c>
       <c r="C20">
-        <v>2.61126740208052</v>
+        <v>4.479434772185998</v>
       </c>
       <c r="D20">
-        <v>0.001609086695742792</v>
+        <v>0.002760268400941758</v>
       </c>
       <c r="E20">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="F20">
-        <v>0.1190190157735758</v>
+        <v>0.2041682584413735</v>
       </c>
       <c r="G20">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="H20">
-        <v>0.02742946901696198</v>
+        <v>0.04705321147856512</v>
       </c>
       <c r="I20">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="J20">
-        <v>0.2733606306736728</v>
+        <v>0.4689298052779761</v>
       </c>
       <c r="K20">
-        <v>1.3767447787585</v>
+        <v>2.361703144412852</v>
       </c>
       <c r="L20">
-        <v>2.92934117610119</v>
+        <v>5.025066645173586</v>
       </c>
       <c r="M20">
-        <v>17.84203758892449</v>
+        <v>30.60668682142632</v>
       </c>
       <c r="N20">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O20">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P20">
-        <v>27.37080877215466</v>
+        <v>46.95258419691424</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,49 +1382,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.5011412531143541</v>
+        <v>0.8596705006881878</v>
       </c>
       <c r="C21">
-        <v>8.57085348908687</v>
+        <v>14.70266090548146</v>
       </c>
       <c r="D21">
-        <v>0.001609086695742792</v>
+        <v>0.002760268400941758</v>
       </c>
       <c r="E21">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="F21">
-        <v>0.396730052578586</v>
+        <v>0.6805608614712445</v>
       </c>
       <c r="G21">
-        <v>1.905885944389248</v>
+        <v>3.269405409923047</v>
       </c>
       <c r="H21">
-        <v>0.13714734508481</v>
+        <v>0.2352660573928256</v>
       </c>
       <c r="I21">
-        <v>3.865347420673368</v>
+        <v>6.630715655144473</v>
       </c>
       <c r="J21">
-        <v>0.3259299827263023</v>
+        <v>0.5591086139852791</v>
       </c>
       <c r="K21">
-        <v>1.641503390058211</v>
+        <v>2.815876826030709</v>
       </c>
       <c r="L21">
-        <v>4.254519327194589</v>
+        <v>7.298311079894976</v>
       </c>
       <c r="M21">
-        <v>25.9134355458189</v>
+        <v>44.45256895492871</v>
       </c>
       <c r="N21">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O21">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P21">
-        <v>48.20658533811384</v>
+        <v>82.69480729543464</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1432,49 +1432,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.119256508798399</v>
+        <v>1.920001191954698</v>
       </c>
       <c r="C22">
-        <v>19.14227474589673</v>
+        <v>32.83714683804092</v>
       </c>
       <c r="D22">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E22">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F22">
-        <v>1.071171141962182</v>
+        <v>1.837514325972361</v>
       </c>
       <c r="G22">
-        <v>5.145892049850972</v>
+        <v>8.827394606792224</v>
       </c>
       <c r="H22">
-        <v>0.2948667919323414</v>
+        <v>0.5058220233945749</v>
       </c>
       <c r="I22">
-        <v>8.310496954447743</v>
+        <v>14.25603865856062</v>
       </c>
       <c r="J22">
-        <v>0.9041928553052256</v>
+        <v>1.551075509765613</v>
       </c>
       <c r="K22">
-        <v>4.553848114355038</v>
+        <v>7.811787323827126</v>
       </c>
       <c r="L22">
-        <v>4.603250419587589</v>
+        <v>7.896533299558492</v>
       </c>
       <c r="M22">
-        <v>28.03748763973849</v>
+        <v>48.09622214795564</v>
       </c>
       <c r="N22">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O22">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P22">
-        <v>74.09152633830892</v>
+        <v>127.0984959792799</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1482,49 +1482,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.7472222068041</v>
+        <v>2.997229583480439</v>
       </c>
       <c r="C23">
-        <v>29.88216486735691</v>
+        <v>51.26062856235433</v>
       </c>
       <c r="D23">
-        <v>0.002252721374039908</v>
+        <v>0.003864375761318462</v>
       </c>
       <c r="E23">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="F23">
-        <v>1.547247205056486</v>
+        <v>2.654187359737854</v>
       </c>
       <c r="G23">
-        <v>7.432955183118072</v>
+        <v>12.75068109869988</v>
       </c>
       <c r="H23">
-        <v>0.2674373229153794</v>
+        <v>0.4587688119160099</v>
       </c>
       <c r="I23">
-        <v>7.537427470313067</v>
+        <v>12.92989552753173</v>
       </c>
       <c r="J23">
-        <v>0.9988176889999585</v>
+        <v>1.713397365438759</v>
       </c>
       <c r="K23">
-        <v>5.030413614694518</v>
+        <v>8.629299950739266</v>
       </c>
       <c r="L23">
-        <v>3.90578823480159</v>
+        <v>6.700088860231451</v>
       </c>
       <c r="M23">
-        <v>23.78938345189932</v>
+        <v>40.80891576190176</v>
       </c>
       <c r="N23">
-        <v>0.0394452508611348</v>
+        <v>0.06766539043997866</v>
       </c>
       <c r="O23">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="P23">
-        <v>83.61876449768074</v>
+        <v>143.4417635665003</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1532,49 +1532,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>2.068592887548194</v>
+        <v>3.548517054437728</v>
       </c>
       <c r="C24">
-        <v>35.37846157657478</v>
+        <v>60.68911626832646</v>
       </c>
       <c r="D24">
-        <v>0.004827260087228375</v>
+        <v>0.008280805202825274</v>
       </c>
       <c r="E24">
-        <v>1.746026395962944</v>
+        <v>2.995178259032178</v>
       </c>
       <c r="F24">
-        <v>1.745612231345779</v>
+        <v>2.994467790473477</v>
       </c>
       <c r="G24">
-        <v>8.385898155312693</v>
+        <v>14.3853838036614</v>
       </c>
       <c r="H24">
-        <v>0.2880094246781009</v>
+        <v>0.4940587205249337</v>
       </c>
       <c r="I24">
-        <v>8.117229583414074</v>
+        <v>13.92450287580339</v>
       </c>
       <c r="J24">
-        <v>1.324747671726261</v>
+        <v>2.272505979424038</v>
       </c>
       <c r="K24">
-        <v>6.67191700475273</v>
+        <v>11.44517677676997</v>
       </c>
       <c r="L24">
-        <v>3.80116890708369</v>
+        <v>6.520622194332396</v>
       </c>
       <c r="M24">
-        <v>23.15216782372344</v>
+        <v>39.71581980399367</v>
       </c>
       <c r="N24">
-        <v>0.04601945933799063</v>
+        <v>0.07894295551330842</v>
       </c>
       <c r="O24">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="P24">
-        <v>93.45797483647971</v>
+        <v>160.320196195557</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1582,49 +1582,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.339660155745497</v>
+        <v>2.298087235254911</v>
       </c>
       <c r="C25">
-        <v>22.91176559244841</v>
+        <v>39.30342767853521</v>
       </c>
       <c r="D25">
-        <v>0.003218173391485584</v>
+        <v>0.005520536801883516</v>
       </c>
       <c r="E25">
-        <v>1.164017597308629</v>
+        <v>1.996785506021453</v>
       </c>
       <c r="F25">
-        <v>1.824958241861496</v>
+        <v>3.130579962767726</v>
       </c>
       <c r="G25">
-        <v>8.767075344190543</v>
+        <v>15.03926488564602</v>
       </c>
       <c r="H25">
-        <v>0.1508620795932909</v>
+        <v>0.2587926631321081</v>
       </c>
       <c r="I25">
-        <v>4.251882162740705</v>
+        <v>7.29378722065892</v>
       </c>
       <c r="J25">
-        <v>1.230122838031528</v>
+        <v>2.110184123750892</v>
       </c>
       <c r="K25">
-        <v>6.19535150441325</v>
+        <v>10.62766414985784</v>
       </c>
       <c r="L25">
-        <v>4.045280671758787</v>
+        <v>6.939377748096858</v>
       </c>
       <c r="M25">
-        <v>24.63900428946716</v>
+        <v>42.26637703911253</v>
       </c>
       <c r="N25">
-        <v>0.05259366781484644</v>
+        <v>0.09022052058663815</v>
       </c>
       <c r="O25">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="P25">
-        <v>77.40698826725912</v>
+        <v>132.785924022293</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1632,49 +1632,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.102018234735496</v>
+        <v>1.890430216501051</v>
       </c>
       <c r="C26">
-        <v>18.84745423275859</v>
+        <v>32.33140420247153</v>
       </c>
       <c r="D26">
-        <v>0.004344534078505539</v>
+        <v>0.007452724682542744</v>
       </c>
       <c r="E26">
-        <v>1.57142375636665</v>
+        <v>2.69566043312896</v>
       </c>
       <c r="F26">
-        <v>1.547247205056486</v>
+        <v>2.654187359737854</v>
       </c>
       <c r="G26">
-        <v>7.432955183118072</v>
+        <v>12.75068109869988</v>
       </c>
       <c r="H26">
-        <v>0.06171630528816445</v>
+        <v>0.1058697258267715</v>
       </c>
       <c r="I26">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="J26">
-        <v>1.513997339115727</v>
+        <v>2.597149690770329</v>
       </c>
       <c r="K26">
-        <v>7.62504800543169</v>
+        <v>13.08020203059425</v>
       </c>
       <c r="L26">
-        <v>3.312945377733492</v>
+        <v>5.68311108680346</v>
       </c>
       <c r="M26">
-        <v>20.17849489223602</v>
+        <v>34.61470533375596</v>
       </c>
       <c r="N26">
-        <v>0.04601945933799063</v>
+        <v>0.07894295551330842</v>
       </c>
       <c r="O26">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="P26">
-        <v>65.7103673194917</v>
+        <v>112.7212418113621</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1682,49 +1682,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.098324318864875</v>
+        <v>1.884093578903842</v>
       </c>
       <c r="C27">
-        <v>18.78427840851472</v>
+        <v>32.2230307805638</v>
       </c>
       <c r="D27">
-        <v>0.004988168756802655</v>
+        <v>0.008556832042919451</v>
       </c>
       <c r="E27">
-        <v>1.804227275828376</v>
+        <v>3.095017534333252</v>
       </c>
       <c r="F27">
-        <v>1.1505171524779</v>
+        <v>1.97362649826661</v>
       </c>
       <c r="G27">
-        <v>5.527069238728821</v>
+        <v>9.481275688776835</v>
       </c>
       <c r="H27">
-        <v>0.07543103979664546</v>
+        <v>0.1293963315660541</v>
       </c>
       <c r="I27">
-        <v>2.125941081370352</v>
+        <v>3.64689361032946</v>
       </c>
       <c r="J27">
-        <v>1.650677654452563</v>
+        <v>2.831614593409318</v>
       </c>
       <c r="K27">
-        <v>8.313420394810942</v>
+        <v>14.26105360280068</v>
       </c>
       <c r="L27">
-        <v>3.34781848697279</v>
+        <v>5.742933308769814</v>
       </c>
       <c r="M27">
-        <v>20.39090010162799</v>
+        <v>34.97907065305865</v>
       </c>
       <c r="N27">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O27">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P27">
-        <v>64.71548813035695</v>
+        <v>111.0146006491495</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1732,49 +1732,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.033065138483891</v>
+        <v>1.77214631468646</v>
       </c>
       <c r="C28">
-        <v>17.6681721802061</v>
+        <v>30.30843366019397</v>
       </c>
       <c r="D28">
-        <v>0.004344534078505539</v>
+        <v>0.007452724682542744</v>
       </c>
       <c r="E28">
-        <v>1.57142375636665</v>
+        <v>2.69566043312896</v>
       </c>
       <c r="F28">
-        <v>1.229863162993617</v>
+        <v>2.10973867056086</v>
       </c>
       <c r="G28">
-        <v>5.90824642760667</v>
+        <v>10.13515677076144</v>
       </c>
       <c r="H28">
-        <v>0.1165752433220884</v>
+        <v>0.1999761487839017</v>
       </c>
       <c r="I28">
-        <v>3.285545307572363</v>
+        <v>5.636108306872804</v>
       </c>
       <c r="J28">
-        <v>1.230122838031528</v>
+        <v>2.110184123750892</v>
       </c>
       <c r="K28">
-        <v>6.19535150441325</v>
+        <v>10.62766414985784</v>
       </c>
       <c r="L28">
-        <v>2.615483192947493</v>
+        <v>4.486666647476418</v>
       </c>
       <c r="M28">
-        <v>15.93039070439687</v>
+        <v>27.32739894770208</v>
       </c>
       <c r="N28">
-        <v>0.05259366781484644</v>
+        <v>0.09022052058663815</v>
       </c>
       <c r="O28">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="P28">
-        <v>57.67237360672737</v>
+        <v>98.93266217111476</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1782,49 +1782,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.276863585944927</v>
+        <v>2.190364396102336</v>
       </c>
       <c r="C29">
-        <v>21.8377765803024</v>
+        <v>37.46107950610389</v>
       </c>
       <c r="D29">
-        <v>0.004183625408931259</v>
+        <v>0.00717669784244857</v>
       </c>
       <c r="E29">
-        <v>1.513222876501218</v>
+        <v>2.595821157827888</v>
       </c>
       <c r="F29">
-        <v>1.467901194540768</v>
+        <v>2.518075187443606</v>
       </c>
       <c r="G29">
-        <v>7.05177799424022</v>
+        <v>12.09680001671527</v>
       </c>
       <c r="H29">
-        <v>0.08914577430512644</v>
+        <v>0.1529229373053366</v>
       </c>
       <c r="I29">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="J29">
-        <v>1.37731702377889</v>
+        <v>2.362684788131342</v>
       </c>
       <c r="K29">
-        <v>6.93667561605244</v>
+        <v>11.89935045838783</v>
       </c>
       <c r="L29">
-        <v>3.312945377733492</v>
+        <v>5.68311108680346</v>
       </c>
       <c r="M29">
-        <v>20.17849489223602</v>
+        <v>34.61470533375596</v>
       </c>
       <c r="N29">
-        <v>0.0394452508611348</v>
+        <v>0.06766539043997866</v>
       </c>
       <c r="O29">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="P29">
-        <v>68.22162257671339</v>
+        <v>117.0291131967557</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1832,49 +1832,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.113099982347362</v>
+        <v>1.909440129292682</v>
       </c>
       <c r="C30">
-        <v>19.03698170549025</v>
+        <v>32.6565244681947</v>
       </c>
       <c r="D30">
-        <v>0.005631803435099773</v>
+        <v>0.009660939403296154</v>
       </c>
       <c r="E30">
-        <v>2.037030795290101</v>
+        <v>3.494374635537541</v>
       </c>
       <c r="F30">
-        <v>1.388555184025052</v>
+        <v>2.381963015149356</v>
       </c>
       <c r="G30">
-        <v>6.670600805362371</v>
+        <v>11.44291893473067</v>
       </c>
       <c r="H30">
-        <v>0.08228840705088596</v>
+        <v>0.1411596344356953</v>
       </c>
       <c r="I30">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="J30">
-        <v>1.19858122679995</v>
+        <v>2.05607683852651</v>
       </c>
       <c r="K30">
-        <v>6.03649633763342</v>
+        <v>10.35515994088712</v>
       </c>
       <c r="L30">
-        <v>2.92934117610119</v>
+        <v>5.025066645173586</v>
       </c>
       <c r="M30">
-        <v>17.84203758892449</v>
+        <v>30.60668682142632</v>
       </c>
       <c r="N30">
-        <v>0.05259366781484644</v>
+        <v>0.09022052058663815</v>
       </c>
       <c r="O30">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="P30">
-        <v>61.54364308117254</v>
+        <v>105.5735366685008</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1882,49 +1882,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.39260628322441</v>
+        <v>2.388912374148257</v>
       </c>
       <c r="C31">
-        <v>23.8172857399441</v>
+        <v>40.85678005921262</v>
       </c>
       <c r="D31">
-        <v>0.005470894765525493</v>
+        <v>0.009384912563201977</v>
       </c>
       <c r="E31">
-        <v>1.978829915424671</v>
+        <v>3.394535360236469</v>
       </c>
       <c r="F31">
-        <v>1.983650262892931</v>
+        <v>3.402804307356225</v>
       </c>
       <c r="G31">
-        <v>9.529429721946242</v>
+        <v>16.34702704961523</v>
       </c>
       <c r="H31">
-        <v>0.1165752433220884</v>
+        <v>0.1999761487839017</v>
       </c>
       <c r="I31">
-        <v>3.285545307572363</v>
+        <v>5.636108306872804</v>
       </c>
       <c r="J31">
-        <v>1.114470263515743</v>
+        <v>1.911790744594825</v>
       </c>
       <c r="K31">
-        <v>5.612882559553884</v>
+        <v>9.628482050298549</v>
       </c>
       <c r="L31">
-        <v>2.615483192947493</v>
+        <v>4.486666647476418</v>
       </c>
       <c r="M31">
-        <v>15.93039070439687</v>
+        <v>27.32739894770208</v>
       </c>
       <c r="N31">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O31">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P31">
-        <v>67.6035674935834</v>
+        <v>115.9688857270247</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1932,49 +1932,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.732446543321614</v>
+        <v>2.971883033091596</v>
       </c>
       <c r="C32">
-        <v>29.62946157038139</v>
+        <v>50.82713487472337</v>
       </c>
       <c r="D32">
-        <v>0.004183625408931259</v>
+        <v>0.00717669784244857</v>
       </c>
       <c r="E32">
-        <v>1.513222876501218</v>
+        <v>2.595821157827888</v>
       </c>
       <c r="F32">
-        <v>2.658091352276526</v>
+        <v>4.559757771857338</v>
       </c>
       <c r="G32">
-        <v>12.76943582740796</v>
+        <v>21.9050162464844</v>
       </c>
       <c r="H32">
-        <v>0.1645768141017719</v>
+        <v>0.2823192688713906</v>
       </c>
       <c r="I32">
-        <v>4.638416904808042</v>
+        <v>7.956858786173368</v>
       </c>
       <c r="J32">
-        <v>1.177553485978899</v>
+        <v>2.020005315043589</v>
       </c>
       <c r="K32">
-        <v>5.930592893113539</v>
+        <v>10.17349046823998</v>
       </c>
       <c r="L32">
-        <v>2.092386554357994</v>
+        <v>3.589333317981135</v>
       </c>
       <c r="M32">
-        <v>12.74431256351749</v>
+        <v>21.86191915816167</v>
       </c>
       <c r="N32">
-        <v>0.09203891867598125</v>
+        <v>0.1578859110266168</v>
       </c>
       <c r="O32">
-        <v>1.454592909863612</v>
+        <v>2.495245816122419</v>
       </c>
       <c r="P32">
-        <v>76.60131283971498</v>
+        <v>131.4038478234472</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1982,49 +1982,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>2.068592887548194</v>
+        <v>3.548517054437728</v>
       </c>
       <c r="C33">
-        <v>35.37846157657478</v>
+        <v>60.68911626832646</v>
       </c>
       <c r="D33">
-        <v>0.004183625408931259</v>
+        <v>0.00717669784244857</v>
       </c>
       <c r="E33">
-        <v>1.513222876501218</v>
+        <v>2.595821157827888</v>
       </c>
       <c r="F33">
-        <v>1.745612231345779</v>
+        <v>2.994467790473477</v>
       </c>
       <c r="G33">
-        <v>8.385898155312693</v>
+        <v>14.3853838036614</v>
       </c>
       <c r="H33">
-        <v>0.2468652211526578</v>
+        <v>0.4234789033070859</v>
       </c>
       <c r="I33">
-        <v>6.957625357212062</v>
+        <v>11.93528817926005</v>
       </c>
       <c r="J33">
-        <v>0.7780264103789151</v>
+        <v>1.334646368868086</v>
       </c>
       <c r="K33">
-        <v>3.918427447235731</v>
+        <v>6.721770487944272</v>
       </c>
       <c r="L33">
-        <v>1.604163025007795</v>
+        <v>2.751822210452202</v>
       </c>
       <c r="M33">
-        <v>9.770639632030079</v>
+        <v>16.76080468792394</v>
       </c>
       <c r="N33">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O33">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P33">
-        <v>72.813613253863</v>
+        <v>124.9063312466533</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2032,49 +2032,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>2.144933815541044</v>
+        <v>3.679474231446739</v>
       </c>
       <c r="C34">
-        <v>36.68409527761505</v>
+        <v>62.92883365441942</v>
       </c>
       <c r="D34">
-        <v>0.002252721374039908</v>
+        <v>0.003864375761318462</v>
       </c>
       <c r="E34">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="F34">
-        <v>1.190190157735759</v>
+        <v>2.041682584413735</v>
       </c>
       <c r="G34">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="H34">
-        <v>0.3085815264408223</v>
+        <v>0.5293486291338573</v>
       </c>
       <c r="I34">
-        <v>8.697031696515078</v>
+        <v>14.91911022407507</v>
       </c>
       <c r="J34">
-        <v>0.4731241684736646</v>
+        <v>0.8116092783657277</v>
       </c>
       <c r="K34">
-        <v>2.382827501697404</v>
+        <v>4.087563134560705</v>
       </c>
       <c r="L34">
-        <v>1.848274789682894</v>
+        <v>3.170577764216669</v>
       </c>
       <c r="M34">
-        <v>11.25747609777379</v>
+        <v>19.3113619230428</v>
       </c>
       <c r="N34">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O34">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P34">
-        <v>71.63173160617187</v>
+        <v>122.8789012925023</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2082,49 +2082,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.439395884252284</v>
+        <v>2.469176450379586</v>
       </c>
       <c r="C35">
-        <v>24.6175128470333</v>
+        <v>42.22951007004382</v>
       </c>
       <c r="D35">
-        <v>0.002574538713188467</v>
+        <v>0.004416429441506813</v>
       </c>
       <c r="E35">
-        <v>0.9312140778469037</v>
+        <v>1.597428404817162</v>
       </c>
       <c r="F35">
-        <v>0.5950950788678793</v>
+        <v>1.020841292206867</v>
       </c>
       <c r="G35">
-        <v>2.858828916583872</v>
+        <v>4.90410811488457</v>
       </c>
       <c r="H35">
-        <v>0.2537225884068983</v>
+        <v>0.4352422061767272</v>
       </c>
       <c r="I35">
-        <v>7.15089272824573</v>
+        <v>12.26682396201728</v>
       </c>
       <c r="J35">
-        <v>0.4941519092947163</v>
+        <v>0.8476808018486492</v>
       </c>
       <c r="K35">
-        <v>2.488730946217288</v>
+        <v>4.269232607207848</v>
       </c>
       <c r="L35">
-        <v>2.092386554357994</v>
+        <v>3.589333317981135</v>
       </c>
       <c r="M35">
-        <v>12.74431256351749</v>
+        <v>21.86191915816167</v>
       </c>
       <c r="N35">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O35">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P35">
-        <v>55.77929233537608</v>
+        <v>95.6852222242489</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2132,49 +2132,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.221454847885601</v>
+        <v>2.095314832144183</v>
       </c>
       <c r="C36">
-        <v>20.89013921664416</v>
+        <v>35.83547817748799</v>
       </c>
       <c r="D36">
-        <v>0.002896356052337025</v>
+        <v>0.004968483121695164</v>
       </c>
       <c r="E36">
-        <v>1.047615837577766</v>
+        <v>1.797106955419307</v>
       </c>
       <c r="F36">
-        <v>0.9124791209307479</v>
+        <v>1.565289981383863</v>
       </c>
       <c r="G36">
-        <v>4.383537672095271</v>
+        <v>7.51963244282301</v>
       </c>
       <c r="H36">
-        <v>0.2125783848814553</v>
+        <v>0.3646623889588796</v>
       </c>
       <c r="I36">
-        <v>5.99128850204372</v>
+        <v>10.27760926547393</v>
       </c>
       <c r="J36">
-        <v>0.3995270755999834</v>
+        <v>0.6853589461755035</v>
       </c>
       <c r="K36">
-        <v>2.012165445877808</v>
+        <v>3.451719980295707</v>
       </c>
       <c r="L36">
-        <v>2.685229411426092</v>
+        <v>4.606311091409123</v>
       </c>
       <c r="M36">
-        <v>16.35520112318078</v>
+        <v>28.05612958630747</v>
       </c>
       <c r="N36">
-        <v>0.0197226254305674</v>
+        <v>0.03383269521998933</v>
       </c>
       <c r="O36">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="P36">
-        <v>56.44553410031136</v>
+        <v>96.82811035824687</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2182,43 +2182,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.041684275515341</v>
+        <v>1.786931802413284</v>
       </c>
       <c r="C37">
-        <v>17.81558243677516</v>
+        <v>30.56130497797867</v>
       </c>
       <c r="D37">
-        <v>0.003057264721911304</v>
+        <v>0.005244509961789341</v>
       </c>
       <c r="E37">
-        <v>1.105816717443198</v>
+        <v>1.89694623072038</v>
       </c>
       <c r="F37">
-        <v>0.8331331104150307</v>
+        <v>1.429177809089614</v>
       </c>
       <c r="G37">
-        <v>4.002360483217423</v>
+        <v>6.865751360838398</v>
       </c>
       <c r="H37">
-        <v>0.09600314155936693</v>
+        <v>0.1646862401749778</v>
       </c>
       <c r="I37">
-        <v>2.705743194471358</v>
+        <v>4.641500958601131</v>
       </c>
       <c r="J37">
-        <v>0.2523328898526211</v>
+        <v>0.4328582817950548</v>
       </c>
       <c r="K37">
-        <v>1.270841334238615</v>
+        <v>2.18003367176571</v>
       </c>
       <c r="L37">
-        <v>1.534416806529196</v>
+        <v>2.632177766519498</v>
       </c>
       <c r="M37">
-        <v>9.34582921324616</v>
+        <v>16.03207404931855</v>
       </c>
       <c r="P37">
-        <v>40.00680086798538</v>
+        <v>68.62868765917705</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2226,43 +2226,43 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.4334194621529551</v>
+        <v>0.743498811406</v>
       </c>
       <c r="C38">
-        <v>7.412630044615669</v>
+        <v>12.71581483717317</v>
       </c>
       <c r="D38">
-        <v>0.002574538713188467</v>
+        <v>0.004416429441506813</v>
       </c>
       <c r="E38">
-        <v>0.9312140778469037</v>
+        <v>1.597428404817162</v>
       </c>
       <c r="F38">
-        <v>0.1190190157735758</v>
+        <v>0.2041682584413735</v>
       </c>
       <c r="G38">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="H38">
-        <v>0.08228840705088596</v>
+        <v>0.1411596344356953</v>
       </c>
       <c r="I38">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="J38">
-        <v>0.1892496673894658</v>
+        <v>0.3246437113462912</v>
       </c>
       <c r="K38">
-        <v>0.9531310006789613</v>
+        <v>1.635025253824282</v>
       </c>
       <c r="L38">
-        <v>1.011320167939697</v>
+        <v>1.734844437024214</v>
       </c>
       <c r="M38">
-        <v>6.159751072366789</v>
+        <v>10.56659425977813</v>
       </c>
       <c r="P38">
-        <v>20.18557169024889</v>
+        <v>34.62684505375142</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2270,43 +2270,43 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.2782749955868405</v>
+        <v>0.4773600323231705</v>
       </c>
       <c r="C39">
-        <v>4.759245426372563</v>
+        <v>8.164131117048676</v>
       </c>
       <c r="D39">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E39">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F39">
-        <v>0.1190190157735758</v>
+        <v>0.2041682584413735</v>
       </c>
       <c r="G39">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="H39">
-        <v>0.04114420352544298</v>
+        <v>0.07057981721784766</v>
       </c>
       <c r="I39">
-        <v>1.159604226202011</v>
+        <v>1.989214696543342</v>
       </c>
       <c r="J39">
-        <v>0.09462483369473292</v>
+        <v>0.1623218556731456</v>
       </c>
       <c r="K39">
-        <v>0.4765655003394806</v>
+        <v>0.8175126269121409</v>
       </c>
       <c r="L39">
-        <v>0.9764470587003975</v>
+        <v>1.675022215057863</v>
       </c>
       <c r="M39">
-        <v>5.947345862974831</v>
+        <v>10.20222894047544</v>
       </c>
       <c r="P39">
-        <v>14.9492930033017</v>
+        <v>25.64439890194041</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.2807376061672551</v>
+        <v>0.4815844573879773</v>
       </c>
       <c r="C40">
-        <v>4.801362642535147</v>
+        <v>8.236380064987161</v>
       </c>
       <c r="D40">
-        <v>0.002896356052337025</v>
+        <v>0.004968483121695164</v>
       </c>
       <c r="E40">
-        <v>1.047615837577766</v>
+        <v>1.797106955419307</v>
       </c>
       <c r="F40">
-        <v>0.07934601051571721</v>
+        <v>0.1361121722942489</v>
       </c>
       <c r="G40">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="H40">
-        <v>0.04800157077968346</v>
+        <v>0.08234312008748891</v>
       </c>
       <c r="I40">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="J40">
-        <v>0.1577080561578882</v>
+        <v>0.2705364261219094</v>
       </c>
       <c r="K40">
-        <v>0.7942758338991347</v>
+        <v>1.362521044853569</v>
       </c>
       <c r="L40">
-        <v>1.429797478811296</v>
+        <v>2.45271110062044</v>
       </c>
       <c r="M40">
-        <v>8.708613585070287</v>
+        <v>14.93897809141046</v>
       </c>
       <c r="P40">
-        <v>19.08440376368004</v>
+        <v>32.73787347758944</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,43 +2358,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.132980971342384</v>
+        <v>0.2281189534995682</v>
       </c>
       <c r="C41">
-        <v>2.274329672779808</v>
+        <v>3.901443188678127</v>
       </c>
       <c r="D41">
-        <v>0.002735447382762747</v>
+        <v>0.004692456281600988</v>
       </c>
       <c r="E41">
-        <v>0.9894149577123353</v>
+        <v>1.697267680118234</v>
       </c>
       <c r="F41">
-        <v>0.03967300525785861</v>
+        <v>0.06805608614712447</v>
       </c>
       <c r="G41">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="H41">
-        <v>0.03428683627120249</v>
+        <v>0.05881651434820639</v>
       </c>
       <c r="I41">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="J41">
-        <v>0.1682219265684141</v>
+        <v>0.2885721878633699</v>
       </c>
       <c r="K41">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="L41">
-        <v>1.464670588050595</v>
+        <v>2.512533322586793</v>
       </c>
       <c r="M41">
-        <v>8.921018794462247</v>
+        <v>15.30334341071316</v>
       </c>
       <c r="P41">
-        <v>16.03148520559395</v>
+        <v>27.50081903619175</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2402,31 +2402,31 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1305183607619695</v>
+        <v>0.2238945284347615</v>
       </c>
       <c r="C42">
-        <v>2.232212456617218</v>
+        <v>3.829194240739646</v>
       </c>
       <c r="D42">
-        <v>0.001769995365317071</v>
+        <v>0.003036295241035934</v>
       </c>
       <c r="E42">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="J42">
-        <v>0.1682219265684141</v>
+        <v>0.2885721878633699</v>
       </c>
       <c r="K42">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="L42">
-        <v>1.290305041854096</v>
+        <v>2.213422212755033</v>
       </c>
       <c r="M42">
-        <v>7.858992747502455</v>
+        <v>13.48151681419969</v>
       </c>
       <c r="P42">
-        <v>13.16945776334829</v>
+        <v>22.59122408872248</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2434,43 +2434,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1083548655382388</v>
+        <v>0.1858747028515</v>
       </c>
       <c r="C43">
-        <v>1.853157511153917</v>
+        <v>3.178953709293292</v>
       </c>
       <c r="D43">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E43">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F43">
-        <v>0.03967300525785861</v>
+        <v>0.06805608614712447</v>
       </c>
       <c r="G43">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="H43">
-        <v>0.02057210176272149</v>
+        <v>0.03528990860892383</v>
       </c>
       <c r="I43">
-        <v>0.5798021131010053</v>
+        <v>0.994607348271671</v>
       </c>
       <c r="J43">
-        <v>0.1577080561578882</v>
+        <v>0.2705364261219094</v>
       </c>
       <c r="K43">
-        <v>0.7942758338991347</v>
+        <v>1.362521044853569</v>
       </c>
       <c r="L43">
-        <v>1.743655461964996</v>
+        <v>2.991111098317611</v>
       </c>
       <c r="M43">
-        <v>10.62026046959791</v>
+        <v>18.21826596513472</v>
       </c>
       <c r="P43">
-        <v>16.63330410968765</v>
+        <v>28.53319454986312</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2478,43 +2478,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.1760766564996381</v>
+        <v>0.3020463921336877</v>
       </c>
       <c r="C44">
-        <v>3.011380955625116</v>
+        <v>5.165799777601595</v>
       </c>
       <c r="D44">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E44">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F44">
-        <v>0.1586920210314344</v>
+        <v>0.2722243445884979</v>
       </c>
       <c r="G44">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="H44">
-        <v>0.02742946901696198</v>
+        <v>0.04705321147856512</v>
       </c>
       <c r="I44">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="J44">
-        <v>0.262846760263147</v>
+        <v>0.4508940435365155</v>
       </c>
       <c r="K44">
-        <v>1.323793056498558</v>
+        <v>2.270868408089281</v>
       </c>
       <c r="L44">
-        <v>2.406244537511693</v>
+        <v>4.127733315678304</v>
       </c>
       <c r="M44">
-        <v>14.65595944804512</v>
+        <v>25.14120703188591</v>
       </c>
       <c r="P44">
-        <v>23.90801749759207</v>
+        <v>41.01242363283747</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2522,49 +2522,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.5085290848555979</v>
+        <v>0.8723437758826079</v>
       </c>
       <c r="C45">
-        <v>8.697205137574636</v>
+        <v>14.91940774929691</v>
       </c>
       <c r="D45">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E45">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F45">
-        <v>0.5157490683521622</v>
+        <v>0.8847291199126182</v>
       </c>
       <c r="G45">
-        <v>2.477651727706023</v>
+        <v>4.250227032899961</v>
       </c>
       <c r="H45">
-        <v>0.1234326105763289</v>
+        <v>0.211739451653543</v>
       </c>
       <c r="I45">
-        <v>3.478812678606031</v>
+        <v>5.967644089630027</v>
       </c>
       <c r="J45">
-        <v>0.4731241684736646</v>
+        <v>0.8116092783657277</v>
       </c>
       <c r="K45">
-        <v>2.382827501697404</v>
+        <v>4.087563134560705</v>
       </c>
       <c r="L45">
-        <v>5.056600839698485</v>
+        <v>8.674222185121067</v>
       </c>
       <c r="M45">
-        <v>30.79875536183395</v>
+        <v>52.83297129889068</v>
       </c>
       <c r="N45">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O45">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P45">
-        <v>54.97333261262285</v>
+        <v>94.30265833814292</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,49 +2572,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.152501751633995</v>
+        <v>1.97703093032959</v>
       </c>
       <c r="C46">
-        <v>19.71085716409167</v>
+        <v>33.81250763521043</v>
       </c>
       <c r="D46">
-        <v>0.0004827260087228376</v>
+        <v>0.0008280805202825277</v>
       </c>
       <c r="E46">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="F46">
-        <v>1.229863162993617</v>
+        <v>2.10973867056086</v>
       </c>
       <c r="G46">
-        <v>5.90824642760667</v>
+        <v>10.13515677076144</v>
       </c>
       <c r="H46">
-        <v>0.3291536282035438</v>
+        <v>0.5646385377427813</v>
       </c>
       <c r="I46">
-        <v>9.276833809616084</v>
+        <v>15.91371757234674</v>
       </c>
       <c r="J46">
-        <v>0.9988176889999585</v>
+        <v>1.713397365438759</v>
       </c>
       <c r="K46">
-        <v>5.030413614694518</v>
+        <v>8.629299950739266</v>
       </c>
       <c r="L46">
-        <v>5.579697478287987</v>
+        <v>9.571555514616353</v>
       </c>
       <c r="M46">
-        <v>33.98483350271331</v>
+        <v>58.29845108843109</v>
       </c>
       <c r="N46">
-        <v>0.0197226254305674</v>
+        <v>0.03383269521998933</v>
       </c>
       <c r="O46">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="P46">
-        <v>83.70772470056201</v>
+        <v>143.5943681698471</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2622,49 +2622,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.67088127881125</v>
+        <v>2.866272406471426</v>
       </c>
       <c r="C47">
-        <v>28.57653116631666</v>
+        <v>49.02091117626131</v>
       </c>
       <c r="D47">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E47">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F47">
-        <v>1.190190157735759</v>
+        <v>2.041682584413735</v>
       </c>
       <c r="G47">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="H47">
-        <v>0.2742946901696199</v>
+        <v>0.4705321147856511</v>
       </c>
       <c r="I47">
-        <v>7.730694841346736</v>
+        <v>13.26143131028895</v>
       </c>
       <c r="J47">
-        <v>0.9252205961262773</v>
+        <v>1.587147033248534</v>
       </c>
       <c r="K47">
-        <v>4.659751558874922</v>
+        <v>7.99345679647427</v>
       </c>
       <c r="L47">
-        <v>3.522184033169291</v>
+        <v>6.042044418601578</v>
       </c>
       <c r="M47">
-        <v>21.45292614858778</v>
+        <v>36.80089724957213</v>
       </c>
       <c r="N47">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O47">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P47">
-        <v>76.73959512277878</v>
+        <v>131.6410607824264</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2672,49 +2672,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.890053620468142</v>
+        <v>3.242246237239234</v>
       </c>
       <c r="C48">
-        <v>32.32496340478708</v>
+        <v>55.45106754278638</v>
       </c>
       <c r="D48">
-        <v>0.002252721374039908</v>
+        <v>0.003864375761318462</v>
       </c>
       <c r="E48">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="F48">
-        <v>1.309209173509335</v>
+        <v>2.245850842855109</v>
       </c>
       <c r="G48">
-        <v>6.289423616484522</v>
+        <v>10.78903785274605</v>
       </c>
       <c r="H48">
-        <v>0.2194357521356959</v>
+        <v>0.3764256918285209</v>
       </c>
       <c r="I48">
-        <v>6.184555873077388</v>
+        <v>10.60914504823116</v>
       </c>
       <c r="J48">
-        <v>1.061900911463114</v>
+        <v>1.821611935887523</v>
       </c>
       <c r="K48">
-        <v>5.348123948254172</v>
+        <v>9.174308368680693</v>
       </c>
       <c r="L48">
-        <v>3.173452940776292</v>
+        <v>5.443822198938054</v>
       </c>
       <c r="M48">
-        <v>19.3288740546682</v>
+        <v>33.15724405654517</v>
       </c>
       <c r="N48">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O48">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P48">
-        <v>78.16800573919109</v>
+        <v>134.0913928238784</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2722,49 +2722,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.3568984298084</v>
+        <v>2.327658210708557</v>
       </c>
       <c r="C49">
-        <v>23.20658610558657</v>
+        <v>39.80917031410461</v>
       </c>
       <c r="D49">
-        <v>0.002735447382762747</v>
+        <v>0.004692456281600988</v>
       </c>
       <c r="E49">
-        <v>0.9894149577123353</v>
+        <v>1.697267680118234</v>
       </c>
       <c r="F49">
-        <v>1.507574199798627</v>
+        <v>2.58613127359073</v>
       </c>
       <c r="G49">
-        <v>7.242366588679145</v>
+        <v>12.42374055770758</v>
       </c>
       <c r="H49">
-        <v>0.1508620795932909</v>
+        <v>0.2587926631321081</v>
       </c>
       <c r="I49">
-        <v>4.251882162740705</v>
+        <v>7.29378722065892</v>
       </c>
       <c r="J49">
-        <v>1.335261542136787</v>
+        <v>2.290541741165499</v>
       </c>
       <c r="K49">
-        <v>6.724868727012671</v>
+        <v>11.53601151309355</v>
       </c>
       <c r="L49">
-        <v>4.289392436433891</v>
+        <v>7.358133301861324</v>
       </c>
       <c r="M49">
-        <v>26.12584075521086</v>
+        <v>44.81693427423141</v>
       </c>
       <c r="N49">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O49">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P49">
-        <v>77.40463083617313</v>
+        <v>132.7818800248183</v>
       </c>
     </row>
   </sheetData>
